--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Salesforce_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Salesforce_EN.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcusKlapprodt\snapADDY GmbH\Sebastian Metzger - Mapping\2_Vorlagen CRM Mapping\VisitReport\2019\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="13_ncr:1_{D1FC447D-FCE2-455D-A99E-F748ABA21EF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D55D3A96-4460-405B-8E49-602B03938BCB}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="13_ncr:1_{D1FC447D-FCE2-455D-A99E-F748ABA21EF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7341142F-86C4-4398-AD9B-6B1D90382F86}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="checkbox">Specifications!$C$39:$D$48,Specifications!$C$28:$D$37,Specifications!$C$7:$D$24</definedName>
+    <definedName name="Field_type">Specifications!$I$7:$I$24,Specifications!$M$7:$M$24,Specifications!$Q$7:$Q$24,Specifications!$U$7:$U$24,Specifications!$Y$7:$Y$24,Specifications!$Y$28:$Y$37,Specifications!$U$28:$U$37,Specifications!$Q$28:$Q$37,Specifications!$M$28:$M$37,Specifications!$I$28:$I$37,Specifications!$I$39:$I$48,Specifications!$M$39:$M$48,Specifications!$Q$39:$Q$48,Specifications!$U$39:$U$48,Specifications!$Y$39:$Y$48,Specifications!$Y$51:$Y$61,Specifications!$U$51:$U$61,Specifications!$Q$51:$Q$61,Specifications!$M$51:$M$61,Specifications!$I$51:$I$61</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="83">
   <si>
     <t>Website</t>
   </si>
@@ -36,9 +40,6 @@
     <t>Fax</t>
   </si>
   <si>
-    <t>Text</t>
-  </si>
-  <si>
     <t>Dropdown</t>
   </si>
   <si>
@@ -214,18 +215,6 @@
   </si>
   <si>
     <t>picklist</t>
-  </si>
-  <si>
-    <t>custom 1</t>
-  </si>
-  <si>
-    <t>custom1__c</t>
-  </si>
-  <si>
-    <t>custom 2</t>
-  </si>
-  <si>
-    <t>custom2__c</t>
   </si>
   <si>
     <t>CRM System: Salesforce</t>
@@ -288,9 +277,6 @@
     <t>not used</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Title of Template</t>
   </si>
   <si>
@@ -313,9 +299,6 @@
   </si>
   <si>
     <t>Default Value</t>
-  </si>
-  <si>
-    <t>string</t>
   </si>
   <si>
     <t>not needed</t>
@@ -1509,69 +1492,69 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2403,8 +2386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2428,7 +2411,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2439,7 +2422,7 @@
     </row>
     <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2454,99 +2437,99 @@
     </row>
     <row r="4" spans="1:25" ht="63" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="55" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E4" s="56"/>
-      <c r="G4" s="96" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
+      <c r="G4" s="105" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="96" t="s">
+      <c r="K4" s="105" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="O4" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="O4" s="96" t="s">
+      <c r="P4" s="105"/>
+      <c r="Q4" s="105"/>
+      <c r="S4" s="99" t="s">
+        <v>82</v>
+      </c>
+      <c r="T4" s="100"/>
+      <c r="U4" s="101"/>
+      <c r="W4" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="96"/>
-      <c r="S4" s="93" t="s">
-        <v>89</v>
-      </c>
-      <c r="T4" s="94"/>
-      <c r="U4" s="95"/>
-      <c r="W4" s="93" t="s">
-        <v>56</v>
-      </c>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="95"/>
+      <c r="X4" s="100"/>
+      <c r="Y4" s="101"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="87"/>
       <c r="C6" s="88"/>
       <c r="D6" s="88"/>
       <c r="E6" s="66" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G6" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="22" t="s">
         <v>34</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>35</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6" s="22" t="s">
-        <v>35</v>
-      </c>
       <c r="O6" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="P6" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q6" s="22" t="s">
-        <v>35</v>
-      </c>
       <c r="S6" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="T6" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="U6" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="T6" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="U6" s="27" t="s">
-        <v>35</v>
-      </c>
       <c r="W6" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="X6" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y6" s="27" t="s">
         <v>34</v>
-      </c>
-      <c r="X6" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y6" s="27" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2574,118 +2557,104 @@
     </row>
     <row r="8" spans="1:25" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="76" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="77" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C8" s="90"/>
-      <c r="D8" s="78" t="s">
-        <v>77</v>
-      </c>
+      <c r="D8" s="78"/>
       <c r="E8" s="79"/>
       <c r="G8" s="80" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H8" s="81"/>
       <c r="I8" s="82" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="J8" s="83"/>
       <c r="K8" s="80" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L8" s="81"/>
       <c r="M8" s="82" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="O8" s="80"/>
       <c r="P8" s="81"/>
       <c r="Q8" s="82"/>
-      <c r="S8" s="80" t="s">
-        <v>63</v>
-      </c>
-      <c r="T8" s="81" t="s">
-        <v>64</v>
-      </c>
+      <c r="S8" s="80"/>
+      <c r="T8" s="81"/>
       <c r="U8" s="82"/>
       <c r="W8" s="80" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X8" s="81"/>
       <c r="Y8" s="82" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="91" t="s">
-        <v>77</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C9" s="91"/>
       <c r="D9" s="42"/>
       <c r="E9" s="64"/>
       <c r="G9" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="11" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="11" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="O9" s="10"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="11"/>
-      <c r="S9" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="T9" s="16" t="s">
-        <v>66</v>
-      </c>
+      <c r="S9" s="15"/>
+      <c r="T9" s="16"/>
       <c r="U9" s="11"/>
       <c r="W9" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X9" s="5"/>
       <c r="Y9" s="11" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="37"/>
-      <c r="C10" s="91" t="s">
-        <v>77</v>
-      </c>
+      <c r="C10" s="91"/>
       <c r="D10" s="42"/>
       <c r="E10" s="64"/>
       <c r="G10" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="11" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="11" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="O10" s="10"/>
       <c r="P10" s="5"/>
@@ -2694,37 +2663,35 @@
       <c r="T10" s="5"/>
       <c r="U10" s="11"/>
       <c r="W10" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X10" s="5"/>
       <c r="Y10" s="11" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="37"/>
-      <c r="C11" s="91" t="s">
-        <v>77</v>
-      </c>
+      <c r="C11" s="91"/>
       <c r="D11" s="42"/>
       <c r="E11" s="64"/>
       <c r="G11" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="11" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="11" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="O11" s="10"/>
       <c r="P11" s="5"/>
@@ -2733,320 +2700,318 @@
       <c r="T11" s="5"/>
       <c r="U11" s="11"/>
       <c r="W11" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X11" s="5"/>
       <c r="Y11" s="11" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="37"/>
       <c r="C12" s="91"/>
       <c r="D12" s="42"/>
       <c r="E12" s="64"/>
       <c r="G12" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="11" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="10"/>
       <c r="L12" s="5"/>
       <c r="M12" s="11"/>
       <c r="O12" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="11" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="S12" s="10"/>
       <c r="T12" s="5"/>
       <c r="U12" s="11"/>
       <c r="W12" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X12" s="5"/>
       <c r="Y12" s="11" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="38"/>
       <c r="C13" s="91"/>
       <c r="D13" s="42"/>
       <c r="E13" s="64"/>
       <c r="G13" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="19" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="19" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="O13" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="19" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="S13" s="10"/>
       <c r="T13" s="5"/>
       <c r="U13" s="11"/>
       <c r="W13" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X13" s="5"/>
       <c r="Y13" s="11" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:25" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="77"/>
       <c r="C14" s="90"/>
-      <c r="D14" s="78" t="s">
-        <v>77</v>
-      </c>
+      <c r="D14" s="78"/>
       <c r="E14" s="79"/>
       <c r="G14" s="84" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14" s="85"/>
       <c r="I14" s="86" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="J14" s="83"/>
       <c r="K14" s="84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L14" s="85"/>
       <c r="M14" s="86" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="O14" s="84" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P14" s="85"/>
       <c r="Q14" s="86" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="S14" s="84"/>
       <c r="T14" s="85"/>
       <c r="U14" s="86"/>
       <c r="W14" s="84" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X14" s="85"/>
       <c r="Y14" s="86" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="39"/>
       <c r="C15" s="91"/>
       <c r="D15" s="42"/>
       <c r="E15" s="64"/>
       <c r="G15" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15" s="16"/>
       <c r="I15" s="17" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="17" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P15" s="16"/>
       <c r="Q15" s="17" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="S15" s="10"/>
       <c r="T15" s="5"/>
       <c r="U15" s="11"/>
       <c r="W15" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X15" s="5"/>
       <c r="Y15" s="11" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="37"/>
       <c r="C16" s="91"/>
       <c r="D16" s="42"/>
       <c r="E16" s="64"/>
       <c r="G16" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="11" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="11" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P16" s="5"/>
       <c r="Q16" s="11" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="S16" s="10"/>
       <c r="T16" s="5"/>
       <c r="U16" s="11"/>
       <c r="W16" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X16" s="5"/>
       <c r="Y16" s="11" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="37"/>
       <c r="C17" s="91"/>
       <c r="D17" s="42"/>
       <c r="E17" s="64"/>
       <c r="G17" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="11" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="11" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P17" s="5"/>
       <c r="Q17" s="11" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="S17" s="10"/>
       <c r="T17" s="5"/>
       <c r="U17" s="11"/>
       <c r="W17" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X17" s="5"/>
       <c r="Y17" s="11" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="37"/>
       <c r="C18" s="91"/>
       <c r="D18" s="42"/>
       <c r="E18" s="64"/>
       <c r="G18" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="11" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="11" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P18" s="5"/>
       <c r="Q18" s="11" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="S18" s="10"/>
       <c r="T18" s="5"/>
       <c r="U18" s="11"/>
       <c r="W18" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X18" s="5"/>
       <c r="Y18" s="11" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="37"/>
       <c r="C19" s="91"/>
       <c r="D19" s="42"/>
       <c r="E19" s="64"/>
       <c r="G19" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="11" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="11" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="O19" s="10"/>
       <c r="P19" s="5"/>
@@ -3055,11 +3020,11 @@
       <c r="T19" s="5"/>
       <c r="U19" s="11"/>
       <c r="W19" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X19" s="5"/>
       <c r="Y19" s="11" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:25" s="74" customFormat="1" x14ac:dyDescent="0.25">
@@ -3068,16 +3033,14 @@
       </c>
       <c r="B20" s="77"/>
       <c r="C20" s="90"/>
-      <c r="D20" s="78" t="s">
-        <v>77</v>
-      </c>
+      <c r="D20" s="78"/>
       <c r="E20" s="79"/>
       <c r="G20" s="84" t="s">
         <v>2</v>
       </c>
       <c r="H20" s="85"/>
       <c r="I20" s="86" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="J20" s="83"/>
       <c r="K20" s="84" t="s">
@@ -3085,14 +3048,14 @@
       </c>
       <c r="L20" s="85"/>
       <c r="M20" s="86" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="O20" s="84" t="s">
         <v>2</v>
       </c>
       <c r="P20" s="85"/>
       <c r="Q20" s="86" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="S20" s="84"/>
       <c r="T20" s="85"/>
@@ -3102,7 +3065,7 @@
       </c>
       <c r="X20" s="85"/>
       <c r="Y20" s="86" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
@@ -3110,25 +3073,23 @@
         <v>1</v>
       </c>
       <c r="B21" s="37"/>
-      <c r="C21" s="91" t="s">
-        <v>77</v>
-      </c>
+      <c r="C21" s="91"/>
       <c r="D21" s="42"/>
       <c r="E21" s="64"/>
       <c r="G21" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="11" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="11" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="O21" s="10"/>
       <c r="P21" s="5"/>
@@ -3137,11 +3098,11 @@
       <c r="T21" s="5"/>
       <c r="U21" s="11"/>
       <c r="W21" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X21" s="5"/>
       <c r="Y21" s="11" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
@@ -3157,7 +3118,7 @@
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="19" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="18"/>
@@ -3168,7 +3129,7 @@
       </c>
       <c r="P22" s="6"/>
       <c r="Q22" s="19" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="S22" s="18"/>
       <c r="T22" s="6"/>
@@ -3178,7 +3139,7 @@
       </c>
       <c r="X22" s="6"/>
       <c r="Y22" s="19" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
@@ -3238,116 +3199,116 @@
       <c r="O25" s="8"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="9"/>
-      <c r="S25" s="109"/>
+      <c r="S25" s="93"/>
       <c r="T25" s="2"/>
-      <c r="U25" s="110"/>
-      <c r="V25" s="111"/>
-      <c r="W25" s="109"/>
+      <c r="U25" s="94"/>
+      <c r="V25" s="95"/>
+      <c r="W25" s="93"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="9"/>
     </row>
     <row r="26" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="28"/>
       <c r="C26" s="28"/>
       <c r="D26" s="28"/>
       <c r="E26" s="28"/>
       <c r="G26" s="106" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H26" s="107"/>
       <c r="I26" s="108"/>
       <c r="J26" s="33"/>
       <c r="K26" s="106" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L26" s="107"/>
       <c r="M26" s="108"/>
       <c r="N26" s="33"/>
       <c r="O26" s="106" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P26" s="107"/>
       <c r="Q26" s="108"/>
       <c r="R26" s="33"/>
-      <c r="S26" s="112" t="s">
-        <v>56</v>
-      </c>
-      <c r="T26" s="113"/>
-      <c r="U26" s="114"/>
+      <c r="S26" s="102" t="s">
+        <v>55</v>
+      </c>
+      <c r="T26" s="103"/>
+      <c r="U26" s="104"/>
       <c r="V26" s="33"/>
-      <c r="W26" s="112" t="s">
-        <v>56</v>
-      </c>
-      <c r="X26" s="113"/>
-      <c r="Y26" s="114"/>
+      <c r="W26" s="102" t="s">
+        <v>55</v>
+      </c>
+      <c r="X26" s="103"/>
+      <c r="Y26" s="104"/>
     </row>
     <row r="27" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="70" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="70" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G27" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>35</v>
-      </c>
       <c r="K27" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="M27" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="L27" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="M27" s="22" t="s">
-        <v>35</v>
-      </c>
       <c r="O27" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="P27" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q27" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="P27" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q27" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="S27" s="115" t="s">
+      <c r="S27" s="96" t="s">
+        <v>33</v>
+      </c>
+      <c r="T27" s="97" t="s">
+        <v>36</v>
+      </c>
+      <c r="U27" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="T27" s="116" t="s">
-        <v>37</v>
-      </c>
-      <c r="U27" s="117" t="s">
-        <v>35</v>
-      </c>
-      <c r="W27" s="115" t="s">
+      <c r="W27" s="96" t="s">
+        <v>33</v>
+      </c>
+      <c r="X27" s="97" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y27" s="98" t="s">
         <v>34</v>
-      </c>
-      <c r="X27" s="116" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y27" s="117" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" s="52"/>
       <c r="D28" s="46"/>
@@ -3355,7 +3316,7 @@
       <c r="G28" s="10"/>
       <c r="H28" s="5"/>
       <c r="I28" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K28" s="10"/>
       <c r="L28" s="5"/>
@@ -3372,10 +3333,10 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" s="53"/>
       <c r="D29" s="47"/>
@@ -3383,7 +3344,7 @@
       <c r="G29" s="10"/>
       <c r="H29" s="5"/>
       <c r="I29" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K29" s="10"/>
       <c r="L29" s="5"/>
@@ -3400,10 +3361,10 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="53"/>
       <c r="D30" s="47"/>
@@ -3426,10 +3387,10 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" s="53"/>
       <c r="D31" s="47"/>
@@ -3452,7 +3413,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" s="47"/>
       <c r="C32" s="53"/>
@@ -3476,7 +3437,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" s="47"/>
       <c r="C33" s="53"/>
@@ -3500,7 +3461,7 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" s="47"/>
       <c r="C34" s="53"/>
@@ -3524,7 +3485,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" s="47"/>
       <c r="C35" s="53"/>
@@ -3548,7 +3509,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36" s="47"/>
       <c r="C36" s="53"/>
@@ -3572,7 +3533,7 @@
     </row>
     <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B37" s="48"/>
       <c r="C37" s="54"/>
@@ -3596,65 +3557,65 @@
     </row>
     <row r="38" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" s="23"/>
       <c r="D38" s="23"/>
       <c r="E38" s="23" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G38" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I38" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H38" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="I38" s="22" t="s">
-        <v>35</v>
-      </c>
       <c r="K38" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L38" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="M38" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="L38" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="M38" s="22" t="s">
-        <v>35</v>
-      </c>
       <c r="O38" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="P38" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q38" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="P38" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q38" s="22" t="s">
-        <v>35</v>
-      </c>
       <c r="S38" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="T38" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="U38" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="T38" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="U38" s="22" t="s">
-        <v>35</v>
-      </c>
       <c r="W38" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="X38" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y38" s="22" t="s">
         <v>34</v>
-      </c>
-      <c r="X38" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y38" s="22" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A39" s="45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="46"/>
       <c r="C39" s="52"/>
@@ -3678,7 +3639,7 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="47"/>
       <c r="C40" s="53"/>
@@ -3702,7 +3663,7 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" s="47"/>
       <c r="C41" s="53"/>
@@ -3726,7 +3687,7 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" s="47"/>
       <c r="C42" s="53"/>
@@ -3750,7 +3711,7 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" s="47"/>
       <c r="C43" s="53"/>
@@ -3774,7 +3735,7 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" s="47"/>
       <c r="C44" s="53"/>
@@ -3798,7 +3759,7 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" s="47"/>
       <c r="C45" s="53"/>
@@ -3822,7 +3783,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" s="47"/>
       <c r="C46" s="53"/>
@@ -3846,7 +3807,7 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" s="47"/>
       <c r="C47" s="53"/>
@@ -3870,7 +3831,7 @@
     </row>
     <row r="48" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" s="48"/>
       <c r="C48" s="54"/>
@@ -3901,71 +3862,71 @@
     </row>
     <row r="50" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C50" s="29"/>
       <c r="D50" s="29"/>
       <c r="E50" s="29" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G50" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H50" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I50" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H50" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="I50" s="22" t="s">
-        <v>35</v>
-      </c>
       <c r="K50" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L50" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="M50" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="L50" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="M50" s="22" t="s">
-        <v>35</v>
-      </c>
       <c r="O50" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="P50" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q50" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="P50" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q50" s="22" t="s">
-        <v>35</v>
-      </c>
       <c r="S50" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="T50" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="U50" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="T50" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="U50" s="22" t="s">
-        <v>35</v>
-      </c>
       <c r="W50" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="X50" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y50" s="22" t="s">
         <v>34</v>
-      </c>
-      <c r="X50" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y50" s="22" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A51" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="B51" s="97" t="s">
-        <v>71</v>
-      </c>
-      <c r="C51" s="98"/>
-      <c r="D51" s="99"/>
+        <v>64</v>
+      </c>
+      <c r="B51" s="109" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="110"/>
+      <c r="D51" s="111"/>
       <c r="E51" s="57"/>
       <c r="G51" s="10"/>
       <c r="H51" s="5"/>
@@ -3985,13 +3946,13 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="B52" s="100" t="s">
-        <v>78</v>
-      </c>
-      <c r="C52" s="101"/>
-      <c r="D52" s="102"/>
+      <c r="C52" s="113"/>
+      <c r="D52" s="114"/>
       <c r="E52" s="58"/>
       <c r="G52" s="10"/>
       <c r="H52" s="5"/>
@@ -4011,13 +3972,13 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="B53" s="100" t="s">
-        <v>79</v>
-      </c>
-      <c r="C53" s="101"/>
-      <c r="D53" s="102"/>
+        <v>69</v>
+      </c>
+      <c r="B53" s="112" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="113"/>
+      <c r="D53" s="114"/>
       <c r="E53" s="58"/>
       <c r="G53" s="10"/>
       <c r="H53" s="5"/>
@@ -4037,13 +3998,13 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="B54" s="100" t="s">
-        <v>80</v>
-      </c>
-      <c r="C54" s="101"/>
-      <c r="D54" s="102"/>
+        <v>68</v>
+      </c>
+      <c r="B54" s="112" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="113"/>
+      <c r="D54" s="114"/>
       <c r="E54" s="58"/>
       <c r="G54" s="10"/>
       <c r="H54" s="5"/>
@@ -4063,24 +4024,24 @@
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="B55" s="100" t="s">
-        <v>82</v>
-      </c>
-      <c r="C55" s="101"/>
-      <c r="D55" s="102"/>
+        <v>75</v>
+      </c>
+      <c r="B55" s="112" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="113"/>
+      <c r="D55" s="114"/>
       <c r="E55" s="58" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="K55" s="10"/>
       <c r="L55" s="5"/>
@@ -4119,9 +4080,9 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="50"/>
-      <c r="B57" s="100"/>
-      <c r="C57" s="101"/>
-      <c r="D57" s="102"/>
+      <c r="B57" s="112"/>
+      <c r="C57" s="113"/>
+      <c r="D57" s="114"/>
       <c r="E57" s="58"/>
       <c r="G57" s="10"/>
       <c r="H57" s="5"/>
@@ -4141,9 +4102,9 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="50"/>
-      <c r="B58" s="100"/>
-      <c r="C58" s="101"/>
-      <c r="D58" s="102"/>
+      <c r="B58" s="112"/>
+      <c r="C58" s="113"/>
+      <c r="D58" s="114"/>
       <c r="E58" s="58"/>
       <c r="G58" s="10"/>
       <c r="H58" s="5"/>
@@ -4163,9 +4124,9 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="50"/>
-      <c r="B59" s="100"/>
-      <c r="C59" s="101"/>
-      <c r="D59" s="102"/>
+      <c r="B59" s="112"/>
+      <c r="C59" s="113"/>
+      <c r="D59" s="114"/>
       <c r="E59" s="58"/>
       <c r="G59" s="10"/>
       <c r="H59" s="5"/>
@@ -4185,9 +4146,9 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="50"/>
-      <c r="B60" s="100"/>
-      <c r="C60" s="101"/>
-      <c r="D60" s="102"/>
+      <c r="B60" s="112"/>
+      <c r="C60" s="113"/>
+      <c r="D60" s="114"/>
       <c r="E60" s="58"/>
       <c r="G60" s="10"/>
       <c r="H60" s="5"/>
@@ -4207,9 +4168,9 @@
     </row>
     <row r="61" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="51"/>
-      <c r="B61" s="103"/>
-      <c r="C61" s="104"/>
-      <c r="D61" s="105"/>
+      <c r="B61" s="115"/>
+      <c r="C61" s="116"/>
+      <c r="D61" s="117"/>
       <c r="E61" s="59"/>
       <c r="G61" s="12"/>
       <c r="H61" s="13"/>
@@ -4229,10 +4190,12 @@
     </row>
     <row r="62" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tVo3L0CS32VzJKBtffTmrMabdYdrdh15eNMp1zruv/zi458Lw1D07Csm6FkUOwIEIs3PH46YIppe0EJFa71+bA==" saltValue="vSD9basBjgsiSykqq6Cb/w==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertColumns="0" insertRows="0"/>
+  <sheetProtection insertColumns="0" insertRows="0"/>
   <protectedRanges>
+    <protectedRange sqref="A1" name="titel"/>
     <protectedRange sqref="A28:X37 A39:Y48 A51:Y61" name="Questionnaire"/>
     <protectedRange sqref="A7:Q24" name="Contact Fields"/>
+    <protectedRange sqref="S4:Y61" name="customEntity"/>
   </protectedRanges>
   <mergeCells count="20">
     <mergeCell ref="B57:D57"/>
@@ -4305,6 +4268,14 @@
       <formula>$D51="x"</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I24 M7:M24 Q7:Q24 U7:U24 Y7:Y24 Y28:Y37 U28:U37 Q28:Q37 M28:M37 I28:I37 I39:I48 M39:M48 Q39:Q48 U39:U48 Y39:Y48 Y51:Y61 U51:U61 Q51:Q61 M51:M61 I51:I61" xr:uid="{B691E1B6-F7B1-434C-A877-D536886EB736}">
+      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C39:D48 C28:D37 C7:D24" xr:uid="{18B8F5E8-39B9-4C83-A8DA-26AD62D6EBCF}">
+      <formula1>"x"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Salesforce_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Salesforce_EN.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\VisitReport\Salesforce\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55044EFF-E7B0-4FB7-BD21-3BE3B8C2E036}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13370048-2D0C-4BE6-9992-025AFDBC8D73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -34,6 +34,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Valentin Schönrock</author>
+  </authors>
+  <commentList>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{0108D665-6BC3-4579-A796-D9E0582C118B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Enter "x", if the field must be filled</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{6B544659-CF94-44DE-8444-FA2E9E10A57A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Enter "x", if the field is not used</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="95">
   <si>
@@ -56,12 +94,6 @@
   </si>
   <si>
     <t>Salesforce: Account</t>
-  </si>
-  <si>
-    <t>SF: Custom Entity (optional)</t>
-  </si>
-  <si>
-    <t>Salesforce: Custom Entity</t>
   </si>
   <si>
     <t>snapADDY - Contact Fields</t>
@@ -351,12 +383,18 @@
   <si>
     <t>snapADDY - VisitReport Template</t>
   </si>
+  <si>
+    <t>SF: Additional Entity (optional)</t>
+  </si>
+  <si>
+    <t>Salesforce: Additional Entity</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,6 +476,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1963,44 +2008,8 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -2029,8 +2038,44 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3412,11 +3457,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
   <dimension ref="A1:Y67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:XFD60"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -3440,7 +3485,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3468,88 +3513,88 @@
         <v>3</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="G4" s="130" t="s">
+      <c r="G4" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="130" t="s">
+      <c r="K4" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="130"/>
-      <c r="M4" s="130"/>
-      <c r="O4" s="130" t="s">
+      <c r="L4" s="131"/>
+      <c r="M4" s="131"/>
+      <c r="O4" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="130"/>
-      <c r="Q4" s="130"/>
-      <c r="S4" s="131" t="s">
-        <v>7</v>
-      </c>
-      <c r="T4" s="132"/>
-      <c r="U4" s="133"/>
-      <c r="W4" s="131" t="s">
-        <v>8</v>
-      </c>
-      <c r="X4" s="132"/>
-      <c r="Y4" s="133"/>
+      <c r="P4" s="131"/>
+      <c r="Q4" s="131"/>
+      <c r="S4" s="132" t="s">
+        <v>93</v>
+      </c>
+      <c r="T4" s="133"/>
+      <c r="U4" s="134"/>
+      <c r="W4" s="132" t="s">
+        <v>94</v>
+      </c>
+      <c r="X4" s="133"/>
+      <c r="Y4" s="134"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="143" t="s">
-        <v>9</v>
+      <c r="A6" s="121" t="s">
+        <v>7</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="I6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="K6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="O6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="S6" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="U6" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="83" t="s">
-        <v>12</v>
-      </c>
-      <c r="U6" s="84" t="s">
-        <v>13</v>
-      </c>
       <c r="W6" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="X6" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y6" s="95" t="s">
         <v>11</v>
-      </c>
-      <c r="X6" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y6" s="95" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -3576,40 +3621,40 @@
     </row>
     <row r="8" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
       <c r="G8" s="27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K8" s="27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L8" s="28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M8" s="29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O8" s="27"/>
       <c r="P8" s="28"/>
       <c r="Q8" s="29"/>
       <c r="S8" s="87" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="T8" s="28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="U8" s="88"/>
       <c r="W8" s="87"/>
@@ -3618,38 +3663,38 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="24"/>
       <c r="D9" s="25"/>
       <c r="E9" s="26"/>
       <c r="G9" s="27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I9" s="57" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K9" s="27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L9" s="28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M9" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O9" s="27"/>
       <c r="P9" s="28"/>
       <c r="Q9" s="29"/>
       <c r="S9" s="89" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="T9" s="31" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U9" s="88"/>
       <c r="W9" s="87"/>
@@ -3658,29 +3703,29 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="24"/>
       <c r="D10" s="25"/>
       <c r="E10" s="26"/>
       <c r="G10" s="27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K10" s="27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L10" s="28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M10" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O10" s="27"/>
       <c r="P10" s="28"/>
@@ -3694,29 +3739,29 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="24"/>
       <c r="D11" s="25"/>
       <c r="E11" s="26"/>
       <c r="G11" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I11" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K11" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L11" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M11" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O11" s="27"/>
       <c r="P11" s="28"/>
@@ -3730,32 +3775,32 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="24"/>
       <c r="D12" s="25"/>
       <c r="E12" s="26"/>
       <c r="G12" s="27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K12" s="27"/>
       <c r="L12" s="28"/>
       <c r="M12" s="29"/>
       <c r="O12" s="27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P12" s="28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q12" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S12" s="87"/>
       <c r="T12" s="28"/>
@@ -3766,38 +3811,38 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="24"/>
       <c r="D13" s="25"/>
       <c r="E13" s="26"/>
       <c r="G13" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="O13" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="P13" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="O13" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="P13" s="20" t="s">
-        <v>29</v>
-      </c>
       <c r="Q13" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S13" s="87"/>
       <c r="T13" s="28"/>
@@ -3808,38 +3853,38 @@
     </row>
     <row r="14" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="24"/>
       <c r="D14" s="25"/>
       <c r="E14" s="26"/>
       <c r="G14" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="O14" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="K14" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="L14" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="O14" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="P14" s="35" t="s">
-        <v>32</v>
-      </c>
       <c r="Q14" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S14" s="87"/>
       <c r="T14" s="28"/>
@@ -3850,38 +3895,38 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="24"/>
       <c r="D15" s="25"/>
       <c r="E15" s="26"/>
       <c r="G15" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="31" t="s">
+      <c r="M15" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="O15" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="P15" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="K15" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="L15" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="M15" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="O15" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="P15" s="31" t="s">
-        <v>36</v>
-      </c>
       <c r="Q15" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S15" s="89"/>
       <c r="T15" s="31"/>
@@ -3892,38 +3937,38 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="24"/>
       <c r="D16" s="25"/>
       <c r="E16" s="26"/>
       <c r="G16" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="28" t="s">
+      <c r="M16" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="O16" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="P16" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="K16" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="L16" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="M16" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="O16" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="P16" s="28" t="s">
-        <v>40</v>
-      </c>
       <c r="Q16" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S16" s="87"/>
       <c r="T16" s="28"/>
@@ -3934,38 +3979,38 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="24"/>
       <c r="D17" s="25"/>
       <c r="E17" s="26"/>
       <c r="G17" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="O17" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="K17" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="L17" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="M17" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="O17" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="P17" s="28" t="s">
-        <v>43</v>
-      </c>
       <c r="Q17" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S17" s="87"/>
       <c r="T17" s="28"/>
@@ -3976,38 +4021,38 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="24"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
       <c r="G18" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I18" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K18" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L18" s="28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O18" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P18" s="28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q18" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S18" s="87"/>
       <c r="T18" s="28"/>
@@ -4018,29 +4063,29 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="24"/>
       <c r="D19" s="25"/>
       <c r="E19" s="26"/>
       <c r="G19" s="27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I19" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K19" s="27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L19" s="28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M19" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O19" s="27"/>
       <c r="P19" s="28"/>
@@ -4054,38 +4099,38 @@
     </row>
     <row r="20" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="24"/>
       <c r="D20" s="25"/>
       <c r="E20" s="26"/>
       <c r="G20" s="34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I20" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K20" s="34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L20" s="35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M20" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O20" s="34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P20" s="35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q20" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S20" s="87"/>
       <c r="T20" s="28"/>
@@ -4096,29 +4141,29 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="24"/>
       <c r="D21" s="25"/>
       <c r="E21" s="26"/>
       <c r="G21" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I21" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K21" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L21" s="28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M21" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O21" s="27"/>
       <c r="P21" s="28"/>
@@ -4132,32 +4177,32 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="24"/>
       <c r="D22" s="25"/>
       <c r="E22" s="26"/>
       <c r="G22" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I22" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K22" s="19"/>
       <c r="L22" s="20"/>
       <c r="M22" s="21"/>
       <c r="O22" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P22" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q22" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S22" s="85"/>
       <c r="T22" s="20"/>
@@ -4168,20 +4213,20 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="24"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
       <c r="G23" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I23" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K23" s="19"/>
       <c r="L23" s="20"/>
@@ -4198,20 +4243,20 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="24"/>
       <c r="D24" s="25"/>
       <c r="E24" s="26"/>
       <c r="G24" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I24" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K24" s="19"/>
       <c r="L24" s="20"/>
@@ -4228,38 +4273,38 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B25" s="33"/>
       <c r="C25" s="37"/>
       <c r="D25" s="38"/>
       <c r="E25" s="39"/>
       <c r="G25" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L25" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="M25" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="O25" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="H25" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="I25" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="K25" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L25" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M25" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="O25" s="19" t="s">
-        <v>56</v>
-      </c>
       <c r="P25" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q25" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S25" s="85"/>
       <c r="T25" s="20"/>
@@ -4304,111 +4349,111 @@
     </row>
     <row r="28" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="119" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B28" s="58"/>
       <c r="C28" s="58"/>
       <c r="D28" s="58"/>
       <c r="E28" s="58"/>
-      <c r="G28" s="134" t="s">
+      <c r="G28" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="H28" s="135"/>
-      <c r="I28" s="136"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="124"/>
       <c r="J28" s="74"/>
-      <c r="K28" s="134" t="s">
+      <c r="K28" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="L28" s="135"/>
-      <c r="M28" s="136"/>
+      <c r="L28" s="123"/>
+      <c r="M28" s="124"/>
       <c r="N28" s="74"/>
-      <c r="O28" s="137" t="s">
+      <c r="O28" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="P28" s="138"/>
-      <c r="Q28" s="139"/>
+      <c r="P28" s="126"/>
+      <c r="Q28" s="127"/>
       <c r="R28" s="59"/>
-      <c r="S28" s="140" t="s">
-        <v>8</v>
-      </c>
-      <c r="T28" s="141"/>
-      <c r="U28" s="142"/>
+      <c r="S28" s="128" t="s">
+        <v>94</v>
+      </c>
+      <c r="T28" s="129"/>
+      <c r="U28" s="130"/>
       <c r="V28" s="59"/>
-      <c r="W28" s="140" t="s">
-        <v>8</v>
-      </c>
-      <c r="X28" s="141"/>
-      <c r="Y28" s="142"/>
+      <c r="W28" s="128" t="s">
+        <v>94</v>
+      </c>
+      <c r="X28" s="129"/>
+      <c r="Y28" s="130"/>
     </row>
     <row r="29" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="60" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B29" s="61" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C29" s="62"/>
       <c r="D29" s="62"/>
       <c r="E29" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="80" t="s">
+      <c r="I29" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="I29" s="81" t="s">
-        <v>13</v>
-      </c>
       <c r="K29" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="L29" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="M29" s="81" t="s">
-        <v>13</v>
-      </c>
       <c r="O29" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="P29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="P29" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q29" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="S29" s="108" t="s">
+        <v>9</v>
+      </c>
+      <c r="T29" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="U29" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="T29" s="109" t="s">
-        <v>12</v>
-      </c>
-      <c r="U29" s="110" t="s">
-        <v>13</v>
-      </c>
       <c r="W29" s="108" t="s">
+        <v>9</v>
+      </c>
+      <c r="X29" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y29" s="110" t="s">
         <v>11</v>
-      </c>
-      <c r="X29" s="109" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y29" s="110" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="63" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B30" s="64" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C30" s="65"/>
       <c r="D30" s="64"/>
       <c r="E30" s="66" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G30" s="19"/>
       <c r="H30" s="20"/>
@@ -4428,7 +4473,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B31" s="115"/>
       <c r="C31" s="116"/>
@@ -4452,7 +4497,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B32" s="67"/>
       <c r="C32" s="68"/>
@@ -4476,7 +4521,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B33" s="67"/>
       <c r="C33" s="68"/>
@@ -4500,7 +4545,7 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B34" s="67"/>
       <c r="C34" s="68"/>
@@ -4524,7 +4569,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B35" s="67"/>
       <c r="C35" s="68"/>
@@ -4548,7 +4593,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B36" s="67"/>
       <c r="C36" s="68"/>
@@ -4572,7 +4617,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B37" s="67"/>
       <c r="C37" s="68"/>
@@ -4596,7 +4641,7 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B38" s="67"/>
       <c r="C38" s="68"/>
@@ -4620,7 +4665,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B39" s="67"/>
       <c r="C39" s="68"/>
@@ -4644,7 +4689,7 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B40" s="111"/>
       <c r="C40" s="112"/>
@@ -4690,65 +4735,65 @@
     </row>
     <row r="42" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="73" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B42" s="117" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C42" s="118"/>
       <c r="D42" s="118"/>
       <c r="E42" s="118" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G42" s="11" t="s">
+      <c r="I42" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H42" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I42" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="K42" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L42" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M42" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L42" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M42" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="O42" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="P42" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q42" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="P42" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q42" s="79" t="s">
-        <v>13</v>
-      </c>
       <c r="S42" s="106" t="s">
+        <v>9</v>
+      </c>
+      <c r="T42" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="U42" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="T42" s="99" t="s">
-        <v>12</v>
-      </c>
-      <c r="U42" s="107" t="s">
-        <v>13</v>
-      </c>
       <c r="W42" s="106" t="s">
+        <v>9</v>
+      </c>
+      <c r="X42" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y42" s="107" t="s">
         <v>11</v>
-      </c>
-      <c r="X42" s="99" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y42" s="107" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A43" s="63" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B43" s="64"/>
       <c r="C43" s="65"/>
@@ -4772,7 +4817,7 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B44" s="67"/>
       <c r="C44" s="68"/>
@@ -4796,7 +4841,7 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B45" s="67"/>
       <c r="C45" s="68"/>
@@ -4820,7 +4865,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B46" s="67"/>
       <c r="C46" s="68"/>
@@ -4844,7 +4889,7 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B47" s="67"/>
       <c r="C47" s="68"/>
@@ -4868,7 +4913,7 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B48" s="67"/>
       <c r="C48" s="68"/>
@@ -4892,7 +4937,7 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B49" s="67"/>
       <c r="C49" s="68"/>
@@ -4916,7 +4961,7 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B50" s="67"/>
       <c r="C50" s="68"/>
@@ -4940,7 +4985,7 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B51" s="67"/>
       <c r="C51" s="68"/>
@@ -4964,7 +5009,7 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B52" s="111"/>
       <c r="C52" s="112"/>
@@ -5022,71 +5067,71 @@
     </row>
     <row r="55" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="120" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B55" s="50" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C55" s="50"/>
       <c r="D55" s="50"/>
       <c r="E55" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H55" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G55" s="11" t="s">
+      <c r="I55" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H55" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I55" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="K55" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L55" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M55" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L55" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M55" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="O55" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="P55" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q55" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="P55" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q55" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="S55" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="T55" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="U55" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="T55" s="104" t="s">
-        <v>12</v>
-      </c>
-      <c r="U55" s="105" t="s">
-        <v>13</v>
-      </c>
       <c r="W55" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="X55" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y55" s="105" t="s">
         <v>11</v>
-      </c>
-      <c r="X55" s="104" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y55" s="105" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A56" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="B56" s="127" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="128"/>
-      <c r="D56" s="129"/>
+        <v>62</v>
+      </c>
+      <c r="B56" s="141" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="142"/>
+      <c r="D56" s="143"/>
       <c r="E56" s="52"/>
       <c r="G56" s="27"/>
       <c r="H56" s="28"/>
@@ -5106,13 +5151,13 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="B57" s="121" t="s">
-        <v>69</v>
-      </c>
-      <c r="C57" s="122"/>
-      <c r="D57" s="123"/>
+        <v>63</v>
+      </c>
+      <c r="B57" s="135" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="136"/>
+      <c r="D57" s="137"/>
       <c r="E57" s="54"/>
       <c r="G57" s="27"/>
       <c r="H57" s="28"/>
@@ -5132,13 +5177,13 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="B58" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="C58" s="122"/>
-      <c r="D58" s="123"/>
+        <v>65</v>
+      </c>
+      <c r="B58" s="135" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="136"/>
+      <c r="D58" s="137"/>
       <c r="E58" s="54"/>
       <c r="G58" s="27"/>
       <c r="H58" s="28"/>
@@ -5158,13 +5203,13 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="B59" s="121" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" s="122"/>
-      <c r="D59" s="123"/>
+        <v>64</v>
+      </c>
+      <c r="B59" s="135" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="136"/>
+      <c r="D59" s="137"/>
       <c r="E59" s="54"/>
       <c r="G59" s="27"/>
       <c r="H59" s="28"/>
@@ -5184,9 +5229,9 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="53"/>
-      <c r="B60" s="121"/>
-      <c r="C60" s="122"/>
-      <c r="D60" s="123"/>
+      <c r="B60" s="135"/>
+      <c r="C60" s="136"/>
+      <c r="D60" s="137"/>
       <c r="E60" s="54"/>
       <c r="G60" s="27"/>
       <c r="H60" s="28"/>
@@ -5206,9 +5251,9 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="53"/>
-      <c r="B61" s="121"/>
-      <c r="C61" s="122"/>
-      <c r="D61" s="123"/>
+      <c r="B61" s="135"/>
+      <c r="C61" s="136"/>
+      <c r="D61" s="137"/>
       <c r="E61" s="54"/>
       <c r="G61" s="27"/>
       <c r="H61" s="28"/>
@@ -5228,9 +5273,9 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="53"/>
-      <c r="B62" s="121"/>
-      <c r="C62" s="122"/>
-      <c r="D62" s="123"/>
+      <c r="B62" s="135"/>
+      <c r="C62" s="136"/>
+      <c r="D62" s="137"/>
       <c r="E62" s="54"/>
       <c r="G62" s="27"/>
       <c r="H62" s="28"/>
@@ -5250,9 +5295,9 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="53"/>
-      <c r="B63" s="121"/>
-      <c r="C63" s="122"/>
-      <c r="D63" s="123"/>
+      <c r="B63" s="135"/>
+      <c r="C63" s="136"/>
+      <c r="D63" s="137"/>
       <c r="E63" s="54"/>
       <c r="G63" s="27"/>
       <c r="H63" s="28"/>
@@ -5272,9 +5317,9 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="53"/>
-      <c r="B64" s="121"/>
-      <c r="C64" s="122"/>
-      <c r="D64" s="123"/>
+      <c r="B64" s="135"/>
+      <c r="C64" s="136"/>
+      <c r="D64" s="137"/>
       <c r="E64" s="54"/>
       <c r="G64" s="27"/>
       <c r="H64" s="28"/>
@@ -5294,9 +5339,9 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="53"/>
-      <c r="B65" s="121"/>
-      <c r="C65" s="122"/>
-      <c r="D65" s="123"/>
+      <c r="B65" s="135"/>
+      <c r="C65" s="136"/>
+      <c r="D65" s="137"/>
       <c r="E65" s="54"/>
       <c r="G65" s="27"/>
       <c r="H65" s="28"/>
@@ -5316,9 +5361,9 @@
     </row>
     <row r="66" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="55"/>
-      <c r="B66" s="124"/>
-      <c r="C66" s="125"/>
-      <c r="D66" s="126"/>
+      <c r="B66" s="138"/>
+      <c r="C66" s="139"/>
+      <c r="D66" s="140"/>
       <c r="E66" s="56"/>
       <c r="G66" s="45"/>
       <c r="H66" s="46"/>
@@ -5344,16 +5389,6 @@
     <protectedRange sqref="N30:N41 J30:J41 R30:R41 A43:R53 A30:F41" name="Questionnaire"/>
   </protectedRanges>
   <mergeCells count="21">
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B65:D65"/>
@@ -5365,6 +5400,16 @@
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="B61:D61"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="W28:Y28"/>
   </mergeCells>
   <conditionalFormatting sqref="J9:K26 A26:G26 N12:O26 R12:V26 F8 J8 A54:AE54 N8:AG8 N9:V11 W9:AG26 B9:I25">
     <cfRule type="expression" dxfId="69" priority="87">
@@ -5646,19 +5691,17 @@
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C43:D53 C30:D41 C7:D26" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y30:Y41 Y56:Y66 I7:I26 U56:U66 Q56:Q66 Q7:Q26 M7:M26 M56:M66 I56:I66 U7:U26 Q30:Q41 M30:M41 I30:I41 U30:U41 U43:U53 Y43:Y53 Y7:Y26" xr:uid="{5EC9FB2D-F3B3-4F68-88B9-BC7DBE621DBB}">
-      <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q43:Q53 I43:I53 M43:M53" xr:uid="{1D5396CD-9CA6-4E9C-A01D-D878A1FCC8C9}">
-      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I26 M7:M26 Q7:Q26 U7:U26 Y7:Y26 I30:I41 M30:M41 Q30:Q41 U30:U41 Y30:Y41 I43:I53 M43:M53 Q43:Q53 U43:U53 Y43:Y53 I56:I66 M56:M66 Q56:Q66 U56:U66 Y56:Y66" xr:uid="{8440464E-42E6-4057-BEB1-AB783EC7A02D}">
+      <formula1>"text,boolean,number,picklist,multipicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Salesforce_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Salesforce_EN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\visitreport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13370048-2D0C-4BE6-9992-025AFDBC8D73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D6FF54-21C3-4A83-9AEB-81B335411A67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
+    <workbookView xWindow="18345" yWindow="2940" windowWidth="18630" windowHeight="14340" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Enter "x", if the field must be filled</t>
         </r>
@@ -62,7 +62,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Enter "x", if the field is not used</t>
         </r>
@@ -482,7 +482,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Segoe UI"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2011,6 +2011,45 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -2038,50 +2077,77 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="70">
+  <dxfs count="76">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3460,8 +3526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
   <dimension ref="A1:Y67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -4355,35 +4421,35 @@
       <c r="C28" s="58"/>
       <c r="D28" s="58"/>
       <c r="E28" s="58"/>
-      <c r="G28" s="122" t="s">
+      <c r="G28" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="H28" s="123"/>
-      <c r="I28" s="124"/>
+      <c r="H28" s="136"/>
+      <c r="I28" s="137"/>
       <c r="J28" s="74"/>
-      <c r="K28" s="122" t="s">
+      <c r="K28" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="L28" s="123"/>
-      <c r="M28" s="124"/>
+      <c r="L28" s="136"/>
+      <c r="M28" s="137"/>
       <c r="N28" s="74"/>
-      <c r="O28" s="125" t="s">
+      <c r="O28" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="P28" s="126"/>
-      <c r="Q28" s="127"/>
+      <c r="P28" s="139"/>
+      <c r="Q28" s="140"/>
       <c r="R28" s="59"/>
-      <c r="S28" s="128" t="s">
+      <c r="S28" s="141" t="s">
         <v>94</v>
       </c>
-      <c r="T28" s="129"/>
-      <c r="U28" s="130"/>
+      <c r="T28" s="142"/>
+      <c r="U28" s="143"/>
       <c r="V28" s="59"/>
-      <c r="W28" s="128" t="s">
+      <c r="W28" s="141" t="s">
         <v>94</v>
       </c>
-      <c r="X28" s="129"/>
-      <c r="Y28" s="130"/>
+      <c r="X28" s="142"/>
+      <c r="Y28" s="143"/>
     </row>
     <row r="29" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="60" t="s">
@@ -5127,11 +5193,11 @@
       <c r="A56" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="B56" s="141" t="s">
+      <c r="B56" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="142"/>
-      <c r="D56" s="143"/>
+      <c r="C56" s="129"/>
+      <c r="D56" s="130"/>
       <c r="E56" s="52"/>
       <c r="G56" s="27"/>
       <c r="H56" s="28"/>
@@ -5153,11 +5219,11 @@
       <c r="A57" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="B57" s="135" t="s">
+      <c r="B57" s="122" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="136"/>
-      <c r="D57" s="137"/>
+      <c r="C57" s="123"/>
+      <c r="D57" s="124"/>
       <c r="E57" s="54"/>
       <c r="G57" s="27"/>
       <c r="H57" s="28"/>
@@ -5179,11 +5245,11 @@
       <c r="A58" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="135" t="s">
+      <c r="B58" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="136"/>
-      <c r="D58" s="137"/>
+      <c r="C58" s="123"/>
+      <c r="D58" s="124"/>
       <c r="E58" s="54"/>
       <c r="G58" s="27"/>
       <c r="H58" s="28"/>
@@ -5205,11 +5271,11 @@
       <c r="A59" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="135" t="s">
+      <c r="B59" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="136"/>
-      <c r="D59" s="137"/>
+      <c r="C59" s="123"/>
+      <c r="D59" s="124"/>
       <c r="E59" s="54"/>
       <c r="G59" s="27"/>
       <c r="H59" s="28"/>
@@ -5229,9 +5295,9 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="53"/>
-      <c r="B60" s="135"/>
-      <c r="C60" s="136"/>
-      <c r="D60" s="137"/>
+      <c r="B60" s="122"/>
+      <c r="C60" s="123"/>
+      <c r="D60" s="124"/>
       <c r="E60" s="54"/>
       <c r="G60" s="27"/>
       <c r="H60" s="28"/>
@@ -5251,9 +5317,9 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="53"/>
-      <c r="B61" s="135"/>
-      <c r="C61" s="136"/>
-      <c r="D61" s="137"/>
+      <c r="B61" s="122"/>
+      <c r="C61" s="123"/>
+      <c r="D61" s="124"/>
       <c r="E61" s="54"/>
       <c r="G61" s="27"/>
       <c r="H61" s="28"/>
@@ -5273,9 +5339,9 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="53"/>
-      <c r="B62" s="135"/>
-      <c r="C62" s="136"/>
-      <c r="D62" s="137"/>
+      <c r="B62" s="122"/>
+      <c r="C62" s="123"/>
+      <c r="D62" s="124"/>
       <c r="E62" s="54"/>
       <c r="G62" s="27"/>
       <c r="H62" s="28"/>
@@ -5295,9 +5361,9 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="53"/>
-      <c r="B63" s="135"/>
-      <c r="C63" s="136"/>
-      <c r="D63" s="137"/>
+      <c r="B63" s="122"/>
+      <c r="C63" s="123"/>
+      <c r="D63" s="124"/>
       <c r="E63" s="54"/>
       <c r="G63" s="27"/>
       <c r="H63" s="28"/>
@@ -5317,9 +5383,9 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="53"/>
-      <c r="B64" s="135"/>
-      <c r="C64" s="136"/>
-      <c r="D64" s="137"/>
+      <c r="B64" s="122"/>
+      <c r="C64" s="123"/>
+      <c r="D64" s="124"/>
       <c r="E64" s="54"/>
       <c r="G64" s="27"/>
       <c r="H64" s="28"/>
@@ -5339,9 +5405,9 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="53"/>
-      <c r="B65" s="135"/>
-      <c r="C65" s="136"/>
-      <c r="D65" s="137"/>
+      <c r="B65" s="122"/>
+      <c r="C65" s="123"/>
+      <c r="D65" s="124"/>
       <c r="E65" s="54"/>
       <c r="G65" s="27"/>
       <c r="H65" s="28"/>
@@ -5361,9 +5427,9 @@
     </row>
     <row r="66" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="55"/>
-      <c r="B66" s="138"/>
-      <c r="C66" s="139"/>
-      <c r="D66" s="140"/>
+      <c r="B66" s="125"/>
+      <c r="C66" s="126"/>
+      <c r="D66" s="127"/>
       <c r="E66" s="56"/>
       <c r="G66" s="45"/>
       <c r="H66" s="46"/>
@@ -5389,6 +5455,16 @@
     <protectedRange sqref="N30:N41 J30:J41 R30:R41 A43:R53 A30:F41" name="Questionnaire"/>
   </protectedRanges>
   <mergeCells count="21">
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B65:D65"/>
@@ -5400,295 +5476,293 @@
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="B61:D61"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="W28:Y28"/>
   </mergeCells>
   <conditionalFormatting sqref="J9:K26 A26:G26 N12:O26 R12:V26 F8 J8 A54:AE54 N8:AG8 N9:V11 W9:AG26 B9:I25">
-    <cfRule type="expression" dxfId="69" priority="87">
+    <cfRule type="expression" dxfId="75" priority="91">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="88">
+    <cfRule type="expression" dxfId="74" priority="92">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W56:Y66">
-    <cfRule type="expression" dxfId="67" priority="85">
+    <cfRule type="expression" dxfId="73" priority="89">
       <formula>$C56="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="86">
+    <cfRule type="expression" dxfId="72" priority="90">
       <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S56:U66">
-    <cfRule type="expression" dxfId="65" priority="83">
+    <cfRule type="expression" dxfId="71" priority="87">
       <formula>$C56="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="84">
+    <cfRule type="expression" dxfId="70" priority="88">
       <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O56:Q66">
-    <cfRule type="expression" dxfId="63" priority="81">
+    <cfRule type="expression" dxfId="69" priority="85">
       <formula>$C56="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="82">
+    <cfRule type="expression" dxfId="68" priority="86">
       <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K56:M66">
-    <cfRule type="expression" dxfId="61" priority="79">
+    <cfRule type="expression" dxfId="67" priority="83">
       <formula>$C56="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="80">
+    <cfRule type="expression" dxfId="66" priority="84">
       <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56:I66">
-    <cfRule type="expression" dxfId="59" priority="77">
+    <cfRule type="expression" dxfId="65" priority="81">
       <formula>$C56="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="78">
+    <cfRule type="expression" dxfId="64" priority="82">
       <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z30:AG35 A42:Y42 AA36:AG53 B35 A35:A37 C35:F37 A29:AG29 A28:F28 J28 N28 R28:AG28 A30:F34 A38:F41 N30:N41 J30:J41 R30:R41 A43:R53 A9:A25 A27:AG27">
-    <cfRule type="expression" dxfId="57" priority="75">
+    <cfRule type="expression" dxfId="63" priority="79">
       <formula>$C9="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="76">
+    <cfRule type="expression" dxfId="62" priority="80">
       <formula>$D9="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="expression" dxfId="55" priority="67">
+    <cfRule type="expression" dxfId="61" priority="71">
       <formula>$C26="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="68">
+    <cfRule type="expression" dxfId="60" priority="72">
       <formula>$D26="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="expression" dxfId="53" priority="65">
+    <cfRule type="expression" dxfId="59" priority="69">
       <formula>$C26="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="66">
+    <cfRule type="expression" dxfId="58" priority="70">
       <formula>$D26="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:M26">
-    <cfRule type="expression" dxfId="51" priority="61">
+    <cfRule type="expression" dxfId="57" priority="65">
       <formula>$C9="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="62">
+    <cfRule type="expression" dxfId="56" priority="66">
       <formula>$D9="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12:Q26">
-    <cfRule type="expression" dxfId="49" priority="53">
+    <cfRule type="expression" dxfId="55" priority="57">
       <formula>$C12="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="54">
+    <cfRule type="expression" dxfId="54" priority="58">
       <formula>$D12="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:I8">
-    <cfRule type="expression" dxfId="47" priority="51">
+    <cfRule type="expression" dxfId="53" priority="55">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="52">
+    <cfRule type="expression" dxfId="52" priority="56">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:M8">
-    <cfRule type="expression" dxfId="45" priority="49">
+    <cfRule type="expression" dxfId="51" priority="53">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="50">
+    <cfRule type="expression" dxfId="50" priority="54">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36:B37">
-    <cfRule type="expression" dxfId="43" priority="47">
+  <conditionalFormatting sqref="B36">
+    <cfRule type="expression" dxfId="49" priority="51">
       <formula>$C35="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="48">
+    <cfRule type="expression" dxfId="48" priority="52">
       <formula>$D35="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O30:O31">
-    <cfRule type="expression" dxfId="41" priority="39">
+    <cfRule type="expression" dxfId="47" priority="43">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="40">
+    <cfRule type="expression" dxfId="46" priority="44">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P30:Q31">
-    <cfRule type="expression" dxfId="39" priority="37">
+    <cfRule type="expression" dxfId="45" priority="41">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="38">
+    <cfRule type="expression" dxfId="44" priority="42">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32:O41">
-    <cfRule type="expression" dxfId="37" priority="35">
+    <cfRule type="expression" dxfId="43" priority="39">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="36">
+    <cfRule type="expression" dxfId="42" priority="40">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P32:Q41">
-    <cfRule type="expression" dxfId="35" priority="33">
+    <cfRule type="expression" dxfId="41" priority="37">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="34">
+    <cfRule type="expression" dxfId="40" priority="38">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:K31">
-    <cfRule type="expression" dxfId="33" priority="31">
+    <cfRule type="expression" dxfId="39" priority="35">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="32">
+    <cfRule type="expression" dxfId="38" priority="36">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L30:M31">
-    <cfRule type="expression" dxfId="31" priority="29">
+    <cfRule type="expression" dxfId="37" priority="33">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="30">
+    <cfRule type="expression" dxfId="36" priority="34">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:K41">
-    <cfRule type="expression" dxfId="29" priority="27">
+    <cfRule type="expression" dxfId="35" priority="31">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="28">
+    <cfRule type="expression" dxfId="34" priority="32">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32:M41">
-    <cfRule type="expression" dxfId="27" priority="25">
+    <cfRule type="expression" dxfId="33" priority="29">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="26">
+    <cfRule type="expression" dxfId="32" priority="30">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:G31">
-    <cfRule type="expression" dxfId="25" priority="23">
+    <cfRule type="expression" dxfId="31" priority="27">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="24">
+    <cfRule type="expression" dxfId="30" priority="28">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:I31">
-    <cfRule type="expression" dxfId="23" priority="21">
+    <cfRule type="expression" dxfId="29" priority="25">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="22">
+    <cfRule type="expression" dxfId="28" priority="26">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:G41">
-    <cfRule type="expression" dxfId="21" priority="19">
+    <cfRule type="expression" dxfId="27" priority="23">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="20">
+    <cfRule type="expression" dxfId="26" priority="24">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:I41">
-    <cfRule type="expression" dxfId="19" priority="17">
+    <cfRule type="expression" dxfId="25" priority="21">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="18">
+    <cfRule type="expression" dxfId="24" priority="22">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S30:Y40">
-    <cfRule type="expression" dxfId="17" priority="15">
+    <cfRule type="expression" dxfId="23" priority="19">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="16">
+    <cfRule type="expression" dxfId="22" priority="20">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S43:Y52">
-    <cfRule type="expression" dxfId="15" priority="13">
+    <cfRule type="expression" dxfId="21" priority="17">
       <formula>$C43="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="14">
+    <cfRule type="expression" dxfId="20" priority="18">
       <formula>$D43="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S53:Y53">
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="19" priority="15">
       <formula>$C53="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="18" priority="16">
       <formula>$D53="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S41:Y41">
-    <cfRule type="expression" dxfId="11" priority="9">
+    <cfRule type="expression" dxfId="17" priority="13">
       <formula>$C41="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="10">
+    <cfRule type="expression" dxfId="16" priority="14">
       <formula>$D41="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z50">
-    <cfRule type="expression" dxfId="9" priority="91">
+    <cfRule type="expression" dxfId="15" priority="95">
       <formula>$C54="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="92">
+    <cfRule type="expression" dxfId="14" priority="96">
       <formula>$D54="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z36 Z41:Z48">
-    <cfRule type="expression" dxfId="7" priority="95">
+    <cfRule type="expression" dxfId="13" priority="99">
       <formula>$C39="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="96">
+    <cfRule type="expression" dxfId="12" priority="100">
       <formula>$D39="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z49 Z37:Z40">
-    <cfRule type="expression" dxfId="5" priority="99">
+    <cfRule type="expression" dxfId="11" priority="103">
       <formula>$C41="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="100">
+    <cfRule type="expression" dxfId="10" priority="104">
       <formula>$D41="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:E8">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
+    <cfRule type="expression" dxfId="7" priority="5">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$C8="x"</formula>
+      <formula>$C37="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$D8="x"</formula>
+      <formula>$D37="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Salesforce_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Salesforce_EN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\VisitReport\Salesforce\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55044EFF-E7B0-4FB7-BD21-3BE3B8C2E036}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED44C5F-4AB0-4B75-9057-8BF718B712B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -1963,44 +1963,8 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -2029,8 +1993,44 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3415,8 +3415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
   <dimension ref="A1:Y67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:XFD60"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -3468,36 +3468,36 @@
         <v>3</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="G4" s="130" t="s">
+      <c r="G4" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="130" t="s">
+      <c r="K4" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="130"/>
-      <c r="M4" s="130"/>
-      <c r="O4" s="130" t="s">
+      <c r="L4" s="131"/>
+      <c r="M4" s="131"/>
+      <c r="O4" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="130"/>
-      <c r="Q4" s="130"/>
-      <c r="S4" s="131" t="s">
+      <c r="P4" s="131"/>
+      <c r="Q4" s="131"/>
+      <c r="S4" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="132"/>
-      <c r="U4" s="133"/>
-      <c r="W4" s="131" t="s">
+      <c r="T4" s="133"/>
+      <c r="U4" s="134"/>
+      <c r="W4" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="132"/>
-      <c r="Y4" s="133"/>
+      <c r="X4" s="133"/>
+      <c r="Y4" s="134"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="143" t="s">
+      <c r="A6" s="121" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="8"/>
@@ -4310,35 +4310,35 @@
       <c r="C28" s="58"/>
       <c r="D28" s="58"/>
       <c r="E28" s="58"/>
-      <c r="G28" s="134" t="s">
+      <c r="G28" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="H28" s="135"/>
-      <c r="I28" s="136"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="124"/>
       <c r="J28" s="74"/>
-      <c r="K28" s="134" t="s">
+      <c r="K28" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="L28" s="135"/>
-      <c r="M28" s="136"/>
+      <c r="L28" s="123"/>
+      <c r="M28" s="124"/>
       <c r="N28" s="74"/>
-      <c r="O28" s="137" t="s">
+      <c r="O28" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="P28" s="138"/>
-      <c r="Q28" s="139"/>
+      <c r="P28" s="126"/>
+      <c r="Q28" s="127"/>
       <c r="R28" s="59"/>
-      <c r="S28" s="140" t="s">
+      <c r="S28" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="T28" s="141"/>
-      <c r="U28" s="142"/>
+      <c r="T28" s="129"/>
+      <c r="U28" s="130"/>
       <c r="V28" s="59"/>
-      <c r="W28" s="140" t="s">
+      <c r="W28" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="X28" s="141"/>
-      <c r="Y28" s="142"/>
+      <c r="X28" s="129"/>
+      <c r="Y28" s="130"/>
     </row>
     <row r="29" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="60" t="s">
@@ -5082,11 +5082,11 @@
       <c r="A56" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="127" t="s">
+      <c r="B56" s="141" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="128"/>
-      <c r="D56" s="129"/>
+      <c r="C56" s="142"/>
+      <c r="D56" s="143"/>
       <c r="E56" s="52"/>
       <c r="G56" s="27"/>
       <c r="H56" s="28"/>
@@ -5108,11 +5108,11 @@
       <c r="A57" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="121" t="s">
+      <c r="B57" s="135" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="122"/>
-      <c r="D57" s="123"/>
+      <c r="C57" s="136"/>
+      <c r="D57" s="137"/>
       <c r="E57" s="54"/>
       <c r="G57" s="27"/>
       <c r="H57" s="28"/>
@@ -5134,11 +5134,11 @@
       <c r="A58" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="B58" s="121" t="s">
+      <c r="B58" s="135" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="122"/>
-      <c r="D58" s="123"/>
+      <c r="C58" s="136"/>
+      <c r="D58" s="137"/>
       <c r="E58" s="54"/>
       <c r="G58" s="27"/>
       <c r="H58" s="28"/>
@@ -5160,11 +5160,11 @@
       <c r="A59" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="121" t="s">
+      <c r="B59" s="135" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="122"/>
-      <c r="D59" s="123"/>
+      <c r="C59" s="136"/>
+      <c r="D59" s="137"/>
       <c r="E59" s="54"/>
       <c r="G59" s="27"/>
       <c r="H59" s="28"/>
@@ -5184,9 +5184,9 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="53"/>
-      <c r="B60" s="121"/>
-      <c r="C60" s="122"/>
-      <c r="D60" s="123"/>
+      <c r="B60" s="135"/>
+      <c r="C60" s="136"/>
+      <c r="D60" s="137"/>
       <c r="E60" s="54"/>
       <c r="G60" s="27"/>
       <c r="H60" s="28"/>
@@ -5206,9 +5206,9 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="53"/>
-      <c r="B61" s="121"/>
-      <c r="C61" s="122"/>
-      <c r="D61" s="123"/>
+      <c r="B61" s="135"/>
+      <c r="C61" s="136"/>
+      <c r="D61" s="137"/>
       <c r="E61" s="54"/>
       <c r="G61" s="27"/>
       <c r="H61" s="28"/>
@@ -5228,9 +5228,9 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="53"/>
-      <c r="B62" s="121"/>
-      <c r="C62" s="122"/>
-      <c r="D62" s="123"/>
+      <c r="B62" s="135"/>
+      <c r="C62" s="136"/>
+      <c r="D62" s="137"/>
       <c r="E62" s="54"/>
       <c r="G62" s="27"/>
       <c r="H62" s="28"/>
@@ -5250,9 +5250,9 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="53"/>
-      <c r="B63" s="121"/>
-      <c r="C63" s="122"/>
-      <c r="D63" s="123"/>
+      <c r="B63" s="135"/>
+      <c r="C63" s="136"/>
+      <c r="D63" s="137"/>
       <c r="E63" s="54"/>
       <c r="G63" s="27"/>
       <c r="H63" s="28"/>
@@ -5272,9 +5272,9 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="53"/>
-      <c r="B64" s="121"/>
-      <c r="C64" s="122"/>
-      <c r="D64" s="123"/>
+      <c r="B64" s="135"/>
+      <c r="C64" s="136"/>
+      <c r="D64" s="137"/>
       <c r="E64" s="54"/>
       <c r="G64" s="27"/>
       <c r="H64" s="28"/>
@@ -5294,9 +5294,9 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="53"/>
-      <c r="B65" s="121"/>
-      <c r="C65" s="122"/>
-      <c r="D65" s="123"/>
+      <c r="B65" s="135"/>
+      <c r="C65" s="136"/>
+      <c r="D65" s="137"/>
       <c r="E65" s="54"/>
       <c r="G65" s="27"/>
       <c r="H65" s="28"/>
@@ -5316,9 +5316,9 @@
     </row>
     <row r="66" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="55"/>
-      <c r="B66" s="124"/>
-      <c r="C66" s="125"/>
-      <c r="D66" s="126"/>
+      <c r="B66" s="138"/>
+      <c r="C66" s="139"/>
+      <c r="D66" s="140"/>
       <c r="E66" s="56"/>
       <c r="G66" s="45"/>
       <c r="H66" s="46"/>
@@ -5344,16 +5344,6 @@
     <protectedRange sqref="N30:N41 J30:J41 R30:R41 A43:R53 A30:F41" name="Questionnaire"/>
   </protectedRanges>
   <mergeCells count="21">
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B65:D65"/>
@@ -5365,6 +5355,16 @@
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="B61:D61"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="W28:Y28"/>
   </mergeCells>
   <conditionalFormatting sqref="J9:K26 A26:G26 N12:O26 R12:V26 F8 J8 A54:AE54 N8:AG8 N9:V11 W9:AG26 B9:I25">
     <cfRule type="expression" dxfId="69" priority="87">
@@ -5646,15 +5646,12 @@
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C43:D53 C30:D41 C7:D26" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y30:Y41 Y56:Y66 I7:I26 U56:U66 Q56:Q66 Q7:Q26 M7:M26 M56:M66 I56:I66 U7:U26 Q30:Q41 M30:M41 I30:I41 U30:U41 U43:U53 Y43:Y53 Y7:Y26" xr:uid="{5EC9FB2D-F3B3-4F68-88B9-BC7DBE621DBB}">
-      <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q43:Q53 I43:I53 M43:M53" xr:uid="{1D5396CD-9CA6-4E9C-A01D-D878A1FCC8C9}">
-      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I26 M7:M26 Q7:Q26 U7:U26 Y7:Y26 Y30:Y41 U30:U41 Q30:Q41 M30:M41 I30:I41 I43:I53 M43:M53 Q43:Q53 U43:U53 Y43:Y53 Y56:Y66 U56:U66 Q56:Q66 M56:M65 M66 I56:I66" xr:uid="{49A96B42-F01C-42A7-A702-E659158DEB0E}">
+      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Salesforce_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Salesforce_EN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED44C5F-4AB0-4B75-9057-8BF718B712B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9F9533-CDF6-4C7B-AD1E-A1AEDA40BC41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -346,10 +346,10 @@
     <t>Group 1</t>
   </si>
   <si>
-    <t>This is a note</t>
-  </si>
-  <si>
     <t>snapADDY - VisitReport Template</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -1966,6 +1966,45 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1992,45 +2031,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3416,7 +3416,7 @@
   <dimension ref="A1:Y67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -3500,7 +3500,9 @@
       <c r="A6" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="10" t="s">
@@ -3578,9 +3580,7 @@
       <c r="A8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>93</v>
-      </c>
+      <c r="B8" s="23"/>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
@@ -4304,41 +4304,41 @@
     </row>
     <row r="28" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="119" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B28" s="58"/>
       <c r="C28" s="58"/>
       <c r="D28" s="58"/>
       <c r="E28" s="58"/>
-      <c r="G28" s="122" t="s">
+      <c r="G28" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="H28" s="123"/>
-      <c r="I28" s="124"/>
+      <c r="H28" s="136"/>
+      <c r="I28" s="137"/>
       <c r="J28" s="74"/>
-      <c r="K28" s="122" t="s">
+      <c r="K28" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="L28" s="123"/>
-      <c r="M28" s="124"/>
+      <c r="L28" s="136"/>
+      <c r="M28" s="137"/>
       <c r="N28" s="74"/>
-      <c r="O28" s="125" t="s">
+      <c r="O28" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="P28" s="126"/>
-      <c r="Q28" s="127"/>
+      <c r="P28" s="139"/>
+      <c r="Q28" s="140"/>
       <c r="R28" s="59"/>
-      <c r="S28" s="128" t="s">
+      <c r="S28" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="T28" s="129"/>
-      <c r="U28" s="130"/>
+      <c r="T28" s="142"/>
+      <c r="U28" s="143"/>
       <c r="V28" s="59"/>
-      <c r="W28" s="128" t="s">
+      <c r="W28" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="X28" s="129"/>
-      <c r="Y28" s="130"/>
+      <c r="X28" s="142"/>
+      <c r="Y28" s="143"/>
     </row>
     <row r="29" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="60" t="s">
@@ -5082,11 +5082,11 @@
       <c r="A56" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="141" t="s">
+      <c r="B56" s="128" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="142"/>
-      <c r="D56" s="143"/>
+      <c r="C56" s="129"/>
+      <c r="D56" s="130"/>
       <c r="E56" s="52"/>
       <c r="G56" s="27"/>
       <c r="H56" s="28"/>
@@ -5108,11 +5108,11 @@
       <c r="A57" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="135" t="s">
+      <c r="B57" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="136"/>
-      <c r="D57" s="137"/>
+      <c r="C57" s="123"/>
+      <c r="D57" s="124"/>
       <c r="E57" s="54"/>
       <c r="G57" s="27"/>
       <c r="H57" s="28"/>
@@ -5134,11 +5134,11 @@
       <c r="A58" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="B58" s="135" t="s">
+      <c r="B58" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="136"/>
-      <c r="D58" s="137"/>
+      <c r="C58" s="123"/>
+      <c r="D58" s="124"/>
       <c r="E58" s="54"/>
       <c r="G58" s="27"/>
       <c r="H58" s="28"/>
@@ -5160,11 +5160,11 @@
       <c r="A59" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="135" t="s">
+      <c r="B59" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="136"/>
-      <c r="D59" s="137"/>
+      <c r="C59" s="123"/>
+      <c r="D59" s="124"/>
       <c r="E59" s="54"/>
       <c r="G59" s="27"/>
       <c r="H59" s="28"/>
@@ -5184,9 +5184,9 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="53"/>
-      <c r="B60" s="135"/>
-      <c r="C60" s="136"/>
-      <c r="D60" s="137"/>
+      <c r="B60" s="122"/>
+      <c r="C60" s="123"/>
+      <c r="D60" s="124"/>
       <c r="E60" s="54"/>
       <c r="G60" s="27"/>
       <c r="H60" s="28"/>
@@ -5206,9 +5206,9 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="53"/>
-      <c r="B61" s="135"/>
-      <c r="C61" s="136"/>
-      <c r="D61" s="137"/>
+      <c r="B61" s="122"/>
+      <c r="C61" s="123"/>
+      <c r="D61" s="124"/>
       <c r="E61" s="54"/>
       <c r="G61" s="27"/>
       <c r="H61" s="28"/>
@@ -5228,9 +5228,9 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="53"/>
-      <c r="B62" s="135"/>
-      <c r="C62" s="136"/>
-      <c r="D62" s="137"/>
+      <c r="B62" s="122"/>
+      <c r="C62" s="123"/>
+      <c r="D62" s="124"/>
       <c r="E62" s="54"/>
       <c r="G62" s="27"/>
       <c r="H62" s="28"/>
@@ -5250,9 +5250,9 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="53"/>
-      <c r="B63" s="135"/>
-      <c r="C63" s="136"/>
-      <c r="D63" s="137"/>
+      <c r="B63" s="122"/>
+      <c r="C63" s="123"/>
+      <c r="D63" s="124"/>
       <c r="E63" s="54"/>
       <c r="G63" s="27"/>
       <c r="H63" s="28"/>
@@ -5272,9 +5272,9 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="53"/>
-      <c r="B64" s="135"/>
-      <c r="C64" s="136"/>
-      <c r="D64" s="137"/>
+      <c r="B64" s="122"/>
+      <c r="C64" s="123"/>
+      <c r="D64" s="124"/>
       <c r="E64" s="54"/>
       <c r="G64" s="27"/>
       <c r="H64" s="28"/>
@@ -5294,9 +5294,9 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="53"/>
-      <c r="B65" s="135"/>
-      <c r="C65" s="136"/>
-      <c r="D65" s="137"/>
+      <c r="B65" s="122"/>
+      <c r="C65" s="123"/>
+      <c r="D65" s="124"/>
       <c r="E65" s="54"/>
       <c r="G65" s="27"/>
       <c r="H65" s="28"/>
@@ -5316,9 +5316,9 @@
     </row>
     <row r="66" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="55"/>
-      <c r="B66" s="138"/>
-      <c r="C66" s="139"/>
-      <c r="D66" s="140"/>
+      <c r="B66" s="125"/>
+      <c r="C66" s="126"/>
+      <c r="D66" s="127"/>
       <c r="E66" s="56"/>
       <c r="G66" s="45"/>
       <c r="H66" s="46"/>
@@ -5344,6 +5344,16 @@
     <protectedRange sqref="N30:N41 J30:J41 R30:R41 A43:R53 A30:F41" name="Questionnaire"/>
   </protectedRanges>
   <mergeCells count="21">
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B65:D65"/>
@@ -5355,16 +5365,6 @@
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="B61:D61"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="W28:Y28"/>
   </mergeCells>
   <conditionalFormatting sqref="J9:K26 A26:G26 N12:O26 R12:V26 F8 J8 A54:AE54 N8:AG8 N9:V11 W9:AG26 B9:I25">
     <cfRule type="expression" dxfId="69" priority="87">

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Salesforce_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Salesforce_EN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9F9533-CDF6-4C7B-AD1E-A1AEDA40BC41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB7DE56-D084-4CC3-AA49-02A4B86461A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
+    <workbookView xWindow="-5670" yWindow="4860" windowWidth="11370" windowHeight="12480" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1966,6 +1966,45 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1992,45 +2031,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3415,8 +3415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
   <dimension ref="A1:Y67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -4310,35 +4310,35 @@
       <c r="C28" s="58"/>
       <c r="D28" s="58"/>
       <c r="E28" s="58"/>
-      <c r="G28" s="135" t="s">
+      <c r="G28" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="H28" s="136"/>
-      <c r="I28" s="137"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="124"/>
       <c r="J28" s="74"/>
-      <c r="K28" s="135" t="s">
+      <c r="K28" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="L28" s="136"/>
-      <c r="M28" s="137"/>
+      <c r="L28" s="123"/>
+      <c r="M28" s="124"/>
       <c r="N28" s="74"/>
-      <c r="O28" s="138" t="s">
+      <c r="O28" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="P28" s="139"/>
-      <c r="Q28" s="140"/>
+      <c r="P28" s="126"/>
+      <c r="Q28" s="127"/>
       <c r="R28" s="59"/>
-      <c r="S28" s="141" t="s">
+      <c r="S28" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="T28" s="142"/>
-      <c r="U28" s="143"/>
+      <c r="T28" s="129"/>
+      <c r="U28" s="130"/>
       <c r="V28" s="59"/>
-      <c r="W28" s="141" t="s">
+      <c r="W28" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="X28" s="142"/>
-      <c r="Y28" s="143"/>
+      <c r="X28" s="129"/>
+      <c r="Y28" s="130"/>
     </row>
     <row r="29" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="60" t="s">
@@ -5082,11 +5082,11 @@
       <c r="A56" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="128" t="s">
+      <c r="B56" s="141" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="129"/>
-      <c r="D56" s="130"/>
+      <c r="C56" s="142"/>
+      <c r="D56" s="143"/>
       <c r="E56" s="52"/>
       <c r="G56" s="27"/>
       <c r="H56" s="28"/>
@@ -5108,11 +5108,11 @@
       <c r="A57" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="122" t="s">
+      <c r="B57" s="135" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="123"/>
-      <c r="D57" s="124"/>
+      <c r="C57" s="136"/>
+      <c r="D57" s="137"/>
       <c r="E57" s="54"/>
       <c r="G57" s="27"/>
       <c r="H57" s="28"/>
@@ -5134,11 +5134,11 @@
       <c r="A58" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="B58" s="122" t="s">
+      <c r="B58" s="135" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="123"/>
-      <c r="D58" s="124"/>
+      <c r="C58" s="136"/>
+      <c r="D58" s="137"/>
       <c r="E58" s="54"/>
       <c r="G58" s="27"/>
       <c r="H58" s="28"/>
@@ -5160,11 +5160,11 @@
       <c r="A59" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="122" t="s">
+      <c r="B59" s="135" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="123"/>
-      <c r="D59" s="124"/>
+      <c r="C59" s="136"/>
+      <c r="D59" s="137"/>
       <c r="E59" s="54"/>
       <c r="G59" s="27"/>
       <c r="H59" s="28"/>
@@ -5184,9 +5184,9 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="53"/>
-      <c r="B60" s="122"/>
-      <c r="C60" s="123"/>
-      <c r="D60" s="124"/>
+      <c r="B60" s="135"/>
+      <c r="C60" s="136"/>
+      <c r="D60" s="137"/>
       <c r="E60" s="54"/>
       <c r="G60" s="27"/>
       <c r="H60" s="28"/>
@@ -5206,9 +5206,9 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="53"/>
-      <c r="B61" s="122"/>
-      <c r="C61" s="123"/>
-      <c r="D61" s="124"/>
+      <c r="B61" s="135"/>
+      <c r="C61" s="136"/>
+      <c r="D61" s="137"/>
       <c r="E61" s="54"/>
       <c r="G61" s="27"/>
       <c r="H61" s="28"/>
@@ -5228,9 +5228,9 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="53"/>
-      <c r="B62" s="122"/>
-      <c r="C62" s="123"/>
-      <c r="D62" s="124"/>
+      <c r="B62" s="135"/>
+      <c r="C62" s="136"/>
+      <c r="D62" s="137"/>
       <c r="E62" s="54"/>
       <c r="G62" s="27"/>
       <c r="H62" s="28"/>
@@ -5250,9 +5250,9 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="53"/>
-      <c r="B63" s="122"/>
-      <c r="C63" s="123"/>
-      <c r="D63" s="124"/>
+      <c r="B63" s="135"/>
+      <c r="C63" s="136"/>
+      <c r="D63" s="137"/>
       <c r="E63" s="54"/>
       <c r="G63" s="27"/>
       <c r="H63" s="28"/>
@@ -5272,9 +5272,9 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="53"/>
-      <c r="B64" s="122"/>
-      <c r="C64" s="123"/>
-      <c r="D64" s="124"/>
+      <c r="B64" s="135"/>
+      <c r="C64" s="136"/>
+      <c r="D64" s="137"/>
       <c r="E64" s="54"/>
       <c r="G64" s="27"/>
       <c r="H64" s="28"/>
@@ -5294,9 +5294,9 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="53"/>
-      <c r="B65" s="122"/>
-      <c r="C65" s="123"/>
-      <c r="D65" s="124"/>
+      <c r="B65" s="135"/>
+      <c r="C65" s="136"/>
+      <c r="D65" s="137"/>
       <c r="E65" s="54"/>
       <c r="G65" s="27"/>
       <c r="H65" s="28"/>
@@ -5316,9 +5316,9 @@
     </row>
     <row r="66" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="55"/>
-      <c r="B66" s="125"/>
-      <c r="C66" s="126"/>
-      <c r="D66" s="127"/>
+      <c r="B66" s="138"/>
+      <c r="C66" s="139"/>
+      <c r="D66" s="140"/>
       <c r="E66" s="56"/>
       <c r="G66" s="45"/>
       <c r="H66" s="46"/>
@@ -5344,16 +5344,6 @@
     <protectedRange sqref="N30:N41 J30:J41 R30:R41 A43:R53 A30:F41" name="Questionnaire"/>
   </protectedRanges>
   <mergeCells count="21">
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B65:D65"/>
@@ -5365,6 +5355,16 @@
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="B61:D61"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="W28:Y28"/>
   </mergeCells>
   <conditionalFormatting sqref="J9:K26 A26:G26 N12:O26 R12:V26 F8 J8 A54:AE54 N8:AG8 N9:V11 W9:AG26 B9:I25">
     <cfRule type="expression" dxfId="69" priority="87">

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Salesforce_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Salesforce_EN.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB7DE56-D084-4CC3-AA49-02A4B86461A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3D6657-EE03-41A6-A5DA-F91013D919E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5670" yWindow="4860" windowWidth="11370" windowHeight="12480" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
+    <workbookView xWindow="18510" yWindow="3660" windowWidth="18255" windowHeight="5385" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Checkbox">Tabelle1!$C$7:$D$26</definedName>
-    <definedName name="Field_Type">Tabelle1!$Y$56:$Y$66,Tabelle1!$Y$7:$Y$24,Tabelle1!$Y$26,Tabelle1!$U$7:$U$26,Tabelle1!$U$56:$U$66,Tabelle1!$Q$56:$Q$66,Tabelle1!$Q$7:$Q$26,Tabelle1!$M$7:$M$26,Tabelle1!$M$56:$M$66,Tabelle1!$I$56:$I$66,Tabelle1!$I$7:$I$26</definedName>
+    <definedName name="Checkbox">Tabelle1!$C$7:$D$30</definedName>
+    <definedName name="Field_Type">Tabelle1!$Y$60:$Y$70,Tabelle1!$Y$7:$Y$26,Tabelle1!$Y$30,Tabelle1!$U$7:$U$30,Tabelle1!$U$60:$U$70,Tabelle1!$Q$60:$Q$70,Tabelle1!$Q$7:$Q$30,Tabelle1!$M$7:$M$30,Tabelle1!$M$60:$M$70,Tabelle1!$I$60:$I$70,Tabelle1!$I$7:$I$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="103">
   <si>
     <t>CRM System: Salesforce</t>
   </si>
@@ -351,12 +354,36 @@
   <si>
     <t>Notes</t>
   </si>
+  <si>
+    <t>Example Not used field</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Not Used</t>
+  </si>
+  <si>
+    <t>Not_Used_Field</t>
+  </si>
+  <si>
+    <t>Example Mandatory field</t>
+  </si>
+  <si>
+    <t>Mandatory</t>
+  </si>
+  <si>
+    <t>Mandatory_Field</t>
+  </si>
+  <si>
+    <t>(= Fields with automatic value)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,13 +459,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -484,7 +504,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="104">
+  <borders count="94">
     <border>
       <left/>
       <right/>
@@ -588,49 +608,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color rgb="FF9DA600"/>
       </left>
@@ -641,17 +618,6 @@
       <bottom style="thin">
         <color rgb="FF9DA600"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -664,17 +630,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF9DA600"/>
       </left>
@@ -729,17 +684,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -793,11 +737,52 @@
       <left style="thick">
         <color rgb="FF9DA600"/>
       </left>
+      <right style="thin">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
       <right/>
       <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
-      <bottom/>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -808,140 +793,186 @@
       <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
-      <bottom/>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF9DA600"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
       </left>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFE6C36"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF9DA600"/>
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
+        <color rgb="FFFE6C36"/>
       </left>
       <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
+        <color rgb="FFFE6C36"/>
       </left>
       <right/>
       <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF9DA600"/>
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF9DA600"/>
+        <color rgb="FFFE6C36"/>
       </left>
       <right/>
       <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
       </bottom>
       <diagonal/>
     </border>
@@ -949,102 +980,36 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thick">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFFE6C36"/>
       </right>
       <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+        <color rgb="FFFE6C36"/>
+      </left>
       <right style="thick">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top/>
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
       <bottom style="thin">
         <color rgb="FFFE6C36"/>
       </bottom>
@@ -1058,7 +1023,7 @@
       <top style="thin">
         <color rgb="FFFE6C36"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color rgb="FFFE6C36"/>
       </bottom>
       <diagonal/>
@@ -1071,7 +1036,7 @@
       <top style="thin">
         <color rgb="FFFE6C36"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color rgb="FFFE6C36"/>
       </bottom>
       <diagonal/>
@@ -1082,7 +1047,7 @@
       <top style="thin">
         <color rgb="FFFE6C36"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color rgb="FFFE6C36"/>
       </bottom>
       <diagonal/>
@@ -1095,7 +1060,7 @@
       <top style="thin">
         <color rgb="FFFE6C36"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color rgb="FFFE6C36"/>
       </bottom>
       <diagonal/>
@@ -1110,111 +1075,22 @@
       <top style="thin">
         <color rgb="FFFE6C36"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color rgb="FFFE6C36"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+        <color rgb="FF9DA600"/>
+      </left>
       <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
         <color rgb="FF9DA600"/>
       </right>
       <top style="thick">
         <color rgb="FF9DA600"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1712,32 +1588,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color rgb="FF9DA600"/>
       </left>
@@ -1784,6 +1634,54 @@
       </top>
       <bottom style="thick">
         <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1791,7 +1689,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1817,210 +1715,117 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2032,11 +1837,130 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="70">
+  <dxfs count="40">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightHorizontal">
+          <fgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2331,404 +2255,8 @@
         <color rgb="FFFE6C36"/>
       </font>
       <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
         <patternFill patternType="darkUp">
           <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -2904,13 +2432,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>4396</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2975,13 +2503,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>949569</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>14255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>153866</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>6928</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3046,13 +2574,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>924970</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>177008</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>129267</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>194446</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3413,10 +2941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
-  <dimension ref="A1:Y67"/>
+  <dimension ref="A1:AG71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -3438,7 +2966,7 @@
     <col min="23" max="25" width="15" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
@@ -3447,16 +2975,16 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:25" ht="63.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" ht="63.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -3468,36 +2996,36 @@
         <v>3</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="G4" s="131" t="s">
+      <c r="G4" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="131" t="s">
+      <c r="K4" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="131"/>
-      <c r="M4" s="131"/>
-      <c r="O4" s="131" t="s">
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
+      <c r="O4" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="131"/>
-      <c r="Q4" s="131"/>
-      <c r="S4" s="132" t="s">
+      <c r="P4" s="102"/>
+      <c r="Q4" s="102"/>
+      <c r="S4" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="133"/>
-      <c r="U4" s="134"/>
-      <c r="W4" s="132" t="s">
+      <c r="T4" s="104"/>
+      <c r="U4" s="105"/>
+      <c r="W4" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="133"/>
-      <c r="Y4" s="134"/>
-    </row>
-    <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="121" t="s">
+      <c r="X4" s="104"/>
+      <c r="Y4" s="105"/>
+    </row>
+    <row r="5" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="92" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -3535,2122 +3063,2156 @@
       <c r="Q6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="S6" s="82" t="s">
+      <c r="S6" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="83" t="s">
+      <c r="T6" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="W6" s="93" t="s">
+      <c r="W6" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="94" t="s">
+      <c r="X6" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="Y6" s="95" t="s">
+      <c r="Y6" s="68" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="21"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="21"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="21"/>
-      <c r="S7" s="85"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="86"/>
-      <c r="W7" s="96"/>
-      <c r="X7" s="97"/>
-      <c r="Y7" s="98"/>
-    </row>
-    <row r="8" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="G7" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="118" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="24"/>
+      <c r="L7" s="118"/>
+      <c r="M7" s="22"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="118"/>
+      <c r="Q7" s="22"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="59"/>
+      <c r="W7" s="69"/>
+      <c r="X7" s="70"/>
+      <c r="Y7" s="71"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="G8" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="118" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="24"/>
+      <c r="L8" s="118"/>
+      <c r="M8" s="22"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="118"/>
+      <c r="Q8" s="22"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="59"/>
+      <c r="W8" s="115"/>
+      <c r="X8" s="116"/>
+      <c r="Y8" s="117"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="22"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="22"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="118"/>
+      <c r="Q9" s="22"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="59"/>
+      <c r="W9" s="115"/>
+      <c r="X9" s="116"/>
+      <c r="Y9" s="117"/>
+    </row>
+    <row r="10" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
-      <c r="G8" s="27" t="s">
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="F10"/>
+      <c r="G10" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H10" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="I10" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="K8" s="27" t="s">
+      <c r="J10"/>
+      <c r="K10" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="28" t="s">
+      <c r="L10" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="29" t="s">
+      <c r="M10" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="O8" s="27"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="29"/>
-      <c r="S8" s="87" t="s">
+      <c r="N10"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="118"/>
+      <c r="Q10" s="22"/>
+      <c r="R10"/>
+      <c r="S10" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="T8" s="28" t="s">
+      <c r="T10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="U8" s="88"/>
-      <c r="W8" s="87"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="88"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="U10" s="61"/>
+      <c r="V10"/>
+      <c r="W10" s="60"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="61"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
-      <c r="G9" s="27" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
+      <c r="G11" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H11" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="57" t="s">
+      <c r="I11" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="K9" s="27" t="s">
+      <c r="K11" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="28" t="s">
+      <c r="L11" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="29" t="s">
+      <c r="M11" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="O9" s="27"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="29"/>
-      <c r="S9" s="89" t="s">
+      <c r="O11" s="24"/>
+      <c r="P11" s="118"/>
+      <c r="Q11" s="22"/>
+      <c r="S11" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="T9" s="31" t="s">
+      <c r="T11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="U9" s="88"/>
-      <c r="W9" s="87"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="88"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="U11" s="61"/>
+      <c r="W11" s="60"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="61"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
-      <c r="G10" s="27" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
+      <c r="G12" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H12" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="I12" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="K10" s="27" t="s">
+      <c r="K12" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="28" t="s">
+      <c r="L12" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="29" t="s">
+      <c r="M12" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="O10" s="27"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="29"/>
-      <c r="S10" s="87"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="88"/>
-      <c r="W10" s="87"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="88"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="O12" s="24"/>
+      <c r="P12" s="118"/>
+      <c r="Q12" s="22"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="61"/>
+      <c r="W12" s="60"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="61"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="G11" s="27" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="G13" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H13" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="29" t="s">
+      <c r="I13" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="27" t="s">
+      <c r="K13" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="28" t="s">
+      <c r="L13" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="29" t="s">
+      <c r="M13" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="O11" s="27"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="29"/>
-      <c r="S11" s="87"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="88"/>
-      <c r="W11" s="87"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="88"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="O13" s="24"/>
+      <c r="P13" s="118"/>
+      <c r="Q13" s="22"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="61"/>
+      <c r="W13" s="60"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="61"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
-      <c r="G12" s="27" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+      <c r="G14" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="H14" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="I14" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="27"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="29"/>
-      <c r="O12" s="27" t="s">
+      <c r="K14" s="24"/>
+      <c r="L14" s="118"/>
+      <c r="M14" s="22"/>
+      <c r="O14" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="P12" s="28" t="s">
+      <c r="P14" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="Q12" s="29" t="s">
+      <c r="Q14" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="S12" s="87"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="88"/>
-      <c r="W12" s="87"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="88"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="S14" s="60"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="61"/>
+      <c r="W14" s="60"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="61"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="G13" s="19" t="s">
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
+      <c r="G15" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H15" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I15" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="K15" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="20" t="s">
+      <c r="L15" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="M13" s="21" t="s">
+      <c r="M15" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="O13" s="19" t="s">
+      <c r="O15" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="P13" s="20" t="s">
+      <c r="P15" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="Q13" s="29" t="s">
+      <c r="Q15" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="S13" s="87"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="88"/>
-      <c r="W13" s="87"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="88"/>
-    </row>
-    <row r="14" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="S15" s="60"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="61"/>
+      <c r="W15" s="60"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="61"/>
+    </row>
+    <row r="16" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="G14" s="34" t="s">
+      <c r="B16" s="17"/>
+      <c r="C16" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16"/>
+      <c r="G16" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="28" t="s">
+      <c r="H16" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="29" t="s">
+      <c r="I16" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="K14" s="34" t="s">
+      <c r="J16"/>
+      <c r="K16" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="35" t="s">
+      <c r="L16" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="M14" s="21" t="s">
+      <c r="M16" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="O14" s="34" t="s">
+      <c r="N16"/>
+      <c r="O16" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="P14" s="35" t="s">
+      <c r="P16" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="Q14" s="29" t="s">
+      <c r="Q16" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="S14" s="87"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="88"/>
-      <c r="W14" s="87"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="88"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="R16"/>
+      <c r="S16" s="60"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="61"/>
+      <c r="V16"/>
+      <c r="W16" s="60"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="61"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="26"/>
-      <c r="G15" s="30" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+      <c r="G17" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="31" t="s">
+      <c r="H17" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="29" t="s">
+      <c r="I17" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="K15" s="30" t="s">
+      <c r="K17" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="L15" s="31" t="s">
+      <c r="L17" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="M15" s="21" t="s">
+      <c r="M17" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="O15" s="30" t="s">
+      <c r="O17" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="P15" s="31" t="s">
+      <c r="P17" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="Q15" s="29" t="s">
+      <c r="Q17" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="S15" s="89"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="88"/>
-      <c r="W15" s="87"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="88"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="S17" s="62"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="61"/>
+      <c r="W17" s="60"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="61"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
-      <c r="G16" s="27" t="s">
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="20"/>
+      <c r="G18" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="28" t="s">
+      <c r="H18" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="29" t="s">
+      <c r="I18" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="K16" s="27" t="s">
+      <c r="K18" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="L16" s="28" t="s">
+      <c r="L18" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="M16" s="21" t="s">
+      <c r="M18" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="O16" s="27" t="s">
+      <c r="O18" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="P16" s="28" t="s">
+      <c r="P18" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="Q16" s="29" t="s">
+      <c r="Q18" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="S16" s="87"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="88"/>
-      <c r="W16" s="87"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="88"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="S18" s="60"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="61"/>
+      <c r="W18" s="60"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="61"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
-      <c r="G17" s="27" t="s">
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="20"/>
+      <c r="G19" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="28" t="s">
+      <c r="H19" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="29" t="s">
+      <c r="I19" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="K17" s="27" t="s">
+      <c r="K19" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="28" t="s">
+      <c r="L19" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="M17" s="21" t="s">
+      <c r="M19" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="O17" s="27" t="s">
+      <c r="O19" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="P17" s="28" t="s">
+      <c r="P19" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="Q17" s="29" t="s">
+      <c r="Q19" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="S17" s="87"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="88"/>
-      <c r="W17" s="87"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="88"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="S19" s="60"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="61"/>
+      <c r="W19" s="60"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="61"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
-      <c r="G18" s="27" t="s">
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="20"/>
+      <c r="G20" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="28" t="s">
+      <c r="H20" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="I18" s="29" t="s">
+      <c r="I20" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="K18" s="27" t="s">
+      <c r="K20" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="L18" s="28" t="s">
+      <c r="L20" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="M18" s="21" t="s">
+      <c r="M20" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="O18" s="27" t="s">
+      <c r="O20" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="P18" s="28" t="s">
+      <c r="P20" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="Q18" s="29" t="s">
+      <c r="Q20" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="S18" s="87"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="88"/>
-      <c r="W18" s="87"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="88"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="S20" s="60"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="61"/>
+      <c r="W20" s="60"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="61"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
-      <c r="G19" s="27" t="s">
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
+      <c r="G21" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="28" t="s">
+      <c r="H21" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="I19" s="29" t="s">
+      <c r="I21" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="K19" s="27" t="s">
+      <c r="K21" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="28" t="s">
+      <c r="L21" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="M19" s="21" t="s">
+      <c r="M21" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="O19" s="27"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="29"/>
-      <c r="S19" s="87"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="88"/>
-      <c r="W19" s="87"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="88"/>
-    </row>
-    <row r="20" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="O21" s="24"/>
+      <c r="P21" s="118"/>
+      <c r="Q21" s="22"/>
+      <c r="S21" s="60"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="61"/>
+      <c r="W21" s="60"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="61"/>
+    </row>
+    <row r="22" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
-      <c r="G20" s="34" t="s">
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="20"/>
+      <c r="F22"/>
+      <c r="G22" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="28" t="s">
+      <c r="H22" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="I20" s="29" t="s">
+      <c r="I22" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="K20" s="34" t="s">
+      <c r="J22"/>
+      <c r="K22" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="L20" s="35" t="s">
+      <c r="L22" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="M20" s="21" t="s">
+      <c r="M22" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="O20" s="34" t="s">
+      <c r="N22"/>
+      <c r="O22" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="P20" s="35" t="s">
+      <c r="P22" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="Q20" s="29" t="s">
+      <c r="Q22" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="S20" s="87"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="88"/>
-      <c r="W20" s="87"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="88"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="R22"/>
+      <c r="S22" s="60"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="61"/>
+      <c r="V22"/>
+      <c r="W22" s="60"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="61"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
+      <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
+      <c r="AE22"/>
+      <c r="AF22"/>
+      <c r="AG22"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
-      <c r="G21" s="27" t="s">
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="20"/>
+      <c r="G23" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="28" t="s">
+      <c r="H23" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="I21" s="29" t="s">
+      <c r="I23" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="K21" s="27" t="s">
+      <c r="K23" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="L21" s="28" t="s">
+      <c r="L23" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="M21" s="21" t="s">
+      <c r="M23" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="O21" s="27"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="29"/>
-      <c r="S21" s="87"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="88"/>
-      <c r="W21" s="87"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="88"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="O23" s="24"/>
+      <c r="P23" s="118"/>
+      <c r="Q23" s="22"/>
+      <c r="S23" s="60"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="61"/>
+      <c r="W23" s="60"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="61"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
-      <c r="G22" s="19" t="s">
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
+      <c r="G24" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="20" t="s">
+      <c r="H24" s="118" t="s">
         <v>50</v>
       </c>
-      <c r="I22" s="29" t="s">
+      <c r="I24" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="K22" s="19"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="21"/>
-      <c r="O22" s="19" t="s">
+      <c r="K24" s="24"/>
+      <c r="L24" s="118"/>
+      <c r="M24" s="22"/>
+      <c r="O24" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="P22" s="20" t="s">
+      <c r="P24" s="118" t="s">
         <v>50</v>
       </c>
-      <c r="Q22" s="29" t="s">
+      <c r="Q24" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="S22" s="85"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="86"/>
-      <c r="W22" s="87"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="88"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="S24" s="58"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="59"/>
+      <c r="W24" s="60"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="61"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
-      <c r="G23" s="19" t="s">
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20"/>
+      <c r="G25" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="20" t="s">
+      <c r="H25" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="I23" s="29" t="s">
+      <c r="I25" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="K23" s="19"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="21"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="29"/>
-      <c r="S23" s="85"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="86"/>
-      <c r="W23" s="87"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="88"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="K25" s="24"/>
+      <c r="L25" s="118"/>
+      <c r="M25" s="22"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="118"/>
+      <c r="Q25" s="22"/>
+      <c r="S25" s="58"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="59"/>
+      <c r="W25" s="60"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="61"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
-      <c r="G24" s="19" t="s">
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="20"/>
+      <c r="G26" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="H24" s="20" t="s">
+      <c r="H26" s="118" t="s">
         <v>76</v>
       </c>
-      <c r="I24" s="29" t="s">
+      <c r="I26" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="K24" s="19"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="21"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="29"/>
-      <c r="S24" s="85"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="86"/>
-      <c r="W24" s="87"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="88"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
+      <c r="K26" s="24"/>
+      <c r="L26" s="118"/>
+      <c r="M26" s="22"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="118"/>
+      <c r="Q26" s="22"/>
+      <c r="S26" s="58"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="59"/>
+      <c r="W26" s="60"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="61"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="G25" s="19" t="s">
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="20"/>
+      <c r="G27" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="H25" s="20" t="s">
+      <c r="H27" s="118" t="s">
         <v>75</v>
       </c>
-      <c r="I25" s="21" t="s">
+      <c r="I27" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="K25" s="19" t="s">
+      <c r="K27" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="L25" s="20" t="s">
+      <c r="L27" s="118" t="s">
         <v>75</v>
       </c>
-      <c r="M25" s="21" t="s">
+      <c r="M27" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="O25" s="19" t="s">
+      <c r="O27" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="P25" s="20" t="s">
+      <c r="P27" s="118" t="s">
         <v>75</v>
       </c>
-      <c r="Q25" s="21" t="s">
+      <c r="Q27" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="S25" s="85"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="86"/>
-      <c r="W25" s="87"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="88"/>
-    </row>
-    <row r="26" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="44"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="47"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="47"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="47"/>
-      <c r="S26" s="90"/>
-      <c r="T26" s="91"/>
-      <c r="U26" s="92"/>
-      <c r="W26" s="87"/>
-      <c r="X26" s="28"/>
-      <c r="Y26" s="88"/>
-    </row>
-    <row r="27" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="48"/>
-      <c r="I27" s="49"/>
-      <c r="K27" s="48"/>
-      <c r="M27" s="49"/>
-      <c r="O27" s="48"/>
-      <c r="Q27" s="49"/>
-      <c r="S27" s="48"/>
-      <c r="U27" s="49"/>
-      <c r="W27" s="48"/>
-      <c r="Y27" s="49"/>
-    </row>
-    <row r="28" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="119" t="s">
+      <c r="S27" s="58"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="59"/>
+      <c r="W27" s="60"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="61"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="20"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="118"/>
+      <c r="I28" s="22"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="118"/>
+      <c r="M28" s="22"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="118"/>
+      <c r="Q28" s="22"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="59"/>
+      <c r="W28" s="60"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="61"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="20"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="118"/>
+      <c r="I29" s="22"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="118"/>
+      <c r="M29" s="22"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="118"/>
+      <c r="Q29" s="22"/>
+      <c r="S29" s="58"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="59"/>
+      <c r="W29" s="60"/>
+      <c r="X29" s="21"/>
+      <c r="Y29" s="61"/>
+    </row>
+    <row r="30" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="25"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="29"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="119"/>
+      <c r="I30" s="31"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="119"/>
+      <c r="M30" s="31"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="119"/>
+      <c r="Q30" s="31"/>
+      <c r="S30" s="63"/>
+      <c r="T30" s="64"/>
+      <c r="U30" s="65"/>
+      <c r="W30" s="60"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="61"/>
+    </row>
+    <row r="31" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G31" s="32"/>
+      <c r="I31" s="33"/>
+      <c r="K31" s="32"/>
+      <c r="M31" s="33"/>
+      <c r="O31" s="32"/>
+      <c r="Q31" s="33"/>
+      <c r="S31" s="32"/>
+      <c r="U31" s="33"/>
+      <c r="W31" s="32"/>
+      <c r="Y31" s="33"/>
+    </row>
+    <row r="32" spans="1:33" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="G28" s="122" t="s">
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="G32" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="H28" s="123"/>
-      <c r="I28" s="124"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="122" t="s">
+      <c r="H32" s="107"/>
+      <c r="I32" s="108"/>
+      <c r="K32" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="L28" s="123"/>
-      <c r="M28" s="124"/>
-      <c r="N28" s="74"/>
-      <c r="O28" s="125" t="s">
+      <c r="L32" s="107"/>
+      <c r="M32" s="108"/>
+      <c r="O32" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="P28" s="126"/>
-      <c r="Q28" s="127"/>
-      <c r="R28" s="59"/>
-      <c r="S28" s="128" t="s">
+      <c r="P32" s="110"/>
+      <c r="Q32" s="111"/>
+      <c r="S32" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="T28" s="129"/>
-      <c r="U28" s="130"/>
-      <c r="V28" s="59"/>
-      <c r="W28" s="128" t="s">
+      <c r="T32" s="113"/>
+      <c r="U32" s="114"/>
+      <c r="W32" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="X28" s="129"/>
-      <c r="Y28" s="130"/>
-    </row>
-    <row r="29" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="60" t="s">
+      <c r="X32" s="113"/>
+      <c r="Y32" s="114"/>
+    </row>
+    <row r="33" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="61" t="s">
+      <c r="B33" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="61" t="s">
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="80" t="s">
+      <c r="G33" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="76" t="s">
+      <c r="H33" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="I29" s="81" t="s">
+      <c r="I33" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="K29" s="80" t="s">
+      <c r="K33" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="L29" s="76" t="s">
+      <c r="L33" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="M29" s="81" t="s">
+      <c r="M33" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="O29" s="11" t="s">
+      <c r="O33" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="P29" s="12" t="s">
+      <c r="P33" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="Q29" s="13" t="s">
+      <c r="Q33" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="S29" s="108" t="s">
+      <c r="S33" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="T29" s="109" t="s">
+      <c r="T33" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="U29" s="110" t="s">
+      <c r="U33" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="W29" s="108" t="s">
+      <c r="W33" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="X29" s="109" t="s">
+      <c r="X33" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="Y29" s="110" t="s">
+      <c r="Y33" s="83" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="B30" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="65"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="G30" s="19"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="29"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="29"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="29"/>
-      <c r="S30" s="87"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="88"/>
-      <c r="W30" s="87"/>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="88"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="115"/>
-      <c r="C31" s="116"/>
-      <c r="D31" s="115"/>
-      <c r="E31" s="66"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="29"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="29"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="29"/>
-      <c r="S31" s="87"/>
-      <c r="T31" s="28"/>
-      <c r="U31" s="88"/>
-      <c r="W31" s="87"/>
-      <c r="X31" s="28"/>
-      <c r="Y31" s="88"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" s="67"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="69"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="29"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="29"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="29"/>
-      <c r="S32" s="87"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="88"/>
-      <c r="W32" s="87"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="88"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="67"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="69"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="29"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="29"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="29"/>
-      <c r="S33" s="87"/>
-      <c r="T33" s="28"/>
-      <c r="U33" s="88"/>
-      <c r="W33" s="87"/>
-      <c r="X33" s="28"/>
-      <c r="Y33" s="88"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" s="67"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="69"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="29"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="29"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="29"/>
-      <c r="S34" s="87"/>
-      <c r="T34" s="28"/>
-      <c r="U34" s="88"/>
-      <c r="W34" s="87"/>
-      <c r="X34" s="28"/>
-      <c r="Y34" s="88"/>
+        <v>91</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G34" s="24"/>
+      <c r="H34" s="118"/>
+      <c r="I34" s="22"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="118"/>
+      <c r="M34" s="22"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="118"/>
+      <c r="Q34" s="22"/>
+      <c r="S34" s="60"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="61"/>
+      <c r="W34" s="60"/>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="61"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" s="67"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="69"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="29"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="29"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="29"/>
-      <c r="S35" s="87"/>
-      <c r="T35" s="28"/>
-      <c r="U35" s="88"/>
-      <c r="W35" s="87"/>
-      <c r="X35" s="28"/>
-      <c r="Y35" s="88"/>
+        <v>80</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="20"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="118"/>
+      <c r="I35" s="22"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="118"/>
+      <c r="M35" s="22"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="118"/>
+      <c r="Q35" s="22"/>
+      <c r="S35" s="60"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="61"/>
+      <c r="W35" s="60"/>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="61"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" s="67"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="69"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="29"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="29"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="29"/>
-      <c r="S36" s="87"/>
-      <c r="T36" s="28"/>
-      <c r="U36" s="88"/>
-      <c r="W36" s="87"/>
-      <c r="X36" s="28"/>
-      <c r="Y36" s="88"/>
+        <v>81</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="20"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="118"/>
+      <c r="I36" s="22"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="118"/>
+      <c r="M36" s="22"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="118"/>
+      <c r="Q36" s="22"/>
+      <c r="S36" s="60"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="61"/>
+      <c r="W36" s="60"/>
+      <c r="X36" s="21"/>
+      <c r="Y36" s="61"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B37" s="67"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="69"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="29"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="29"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="29"/>
-      <c r="S37" s="87"/>
-      <c r="T37" s="28"/>
-      <c r="U37" s="88"/>
-      <c r="W37" s="87"/>
-      <c r="X37" s="28"/>
-      <c r="Y37" s="88"/>
+        <v>82</v>
+      </c>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="20"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="118"/>
+      <c r="I37" s="22"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="118"/>
+      <c r="M37" s="22"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="118"/>
+      <c r="Q37" s="22"/>
+      <c r="S37" s="60"/>
+      <c r="T37" s="21"/>
+      <c r="U37" s="61"/>
+      <c r="W37" s="60"/>
+      <c r="X37" s="21"/>
+      <c r="Y37" s="61"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B38" s="67"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="69"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="29"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="29"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="29"/>
-      <c r="S38" s="87"/>
-      <c r="T38" s="28"/>
-      <c r="U38" s="88"/>
-      <c r="W38" s="87"/>
-      <c r="X38" s="28"/>
-      <c r="Y38" s="88"/>
+        <v>83</v>
+      </c>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="20"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="118"/>
+      <c r="I38" s="22"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="118"/>
+      <c r="M38" s="22"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="118"/>
+      <c r="Q38" s="22"/>
+      <c r="S38" s="60"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="61"/>
+      <c r="W38" s="60"/>
+      <c r="X38" s="21"/>
+      <c r="Y38" s="61"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B39" s="67"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="69"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="29"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="29"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="29"/>
-      <c r="S39" s="87"/>
-      <c r="T39" s="28"/>
-      <c r="U39" s="88"/>
-      <c r="W39" s="87"/>
-      <c r="X39" s="28"/>
-      <c r="Y39" s="88"/>
+        <v>84</v>
+      </c>
+      <c r="B39" s="17"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="20"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="118"/>
+      <c r="I39" s="22"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="118"/>
+      <c r="M39" s="22"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="118"/>
+      <c r="Q39" s="22"/>
+      <c r="S39" s="60"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="61"/>
+      <c r="W39" s="60"/>
+      <c r="X39" s="21"/>
+      <c r="Y39" s="61"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40" s="111"/>
-      <c r="C40" s="112"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="113"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="21"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="21"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="21"/>
-      <c r="S40" s="85"/>
-      <c r="T40" s="20"/>
-      <c r="U40" s="86"/>
-      <c r="W40" s="85"/>
-      <c r="X40" s="20"/>
-      <c r="Y40" s="86"/>
-    </row>
-    <row r="41" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="14"/>
-      <c r="B41" s="111"/>
-      <c r="C41" s="112"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="113"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="21"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="21"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="21"/>
-      <c r="S41" s="90"/>
-      <c r="T41" s="91"/>
-      <c r="U41" s="92"/>
-      <c r="W41" s="90"/>
-      <c r="X41" s="91"/>
-      <c r="Y41" s="92"/>
-    </row>
-    <row r="42" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="73" t="s">
-        <v>79</v>
-      </c>
-      <c r="B42" s="117" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" s="118"/>
-      <c r="D42" s="118"/>
-      <c r="E42" s="118" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I42" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K42" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="L42" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M42" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="O42" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="P42" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q42" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="S42" s="106" t="s">
-        <v>11</v>
-      </c>
-      <c r="T42" s="99" t="s">
-        <v>12</v>
-      </c>
-      <c r="U42" s="107" t="s">
-        <v>13</v>
-      </c>
-      <c r="W42" s="106" t="s">
-        <v>11</v>
-      </c>
-      <c r="X42" s="99" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y42" s="107" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" s="64"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="66"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="29"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="29"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="31"/>
-      <c r="Q43" s="75"/>
-      <c r="S43" s="100"/>
-      <c r="T43" s="101"/>
-      <c r="U43" s="102"/>
-      <c r="W43" s="100"/>
-      <c r="X43" s="101"/>
-      <c r="Y43" s="102"/>
+        <v>85</v>
+      </c>
+      <c r="B40" s="17"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="20"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="118"/>
+      <c r="I40" s="22"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="118"/>
+      <c r="M40" s="22"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="118"/>
+      <c r="Q40" s="22"/>
+      <c r="S40" s="60"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="61"/>
+      <c r="W40" s="60"/>
+      <c r="X40" s="21"/>
+      <c r="Y40" s="61"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="17"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="20"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="118"/>
+      <c r="I41" s="22"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="118"/>
+      <c r="M41" s="22"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="118"/>
+      <c r="Q41" s="22"/>
+      <c r="S41" s="60"/>
+      <c r="T41" s="21"/>
+      <c r="U41" s="61"/>
+      <c r="W41" s="60"/>
+      <c r="X41" s="21"/>
+      <c r="Y41" s="61"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="20"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="118"/>
+      <c r="I42" s="22"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="118"/>
+      <c r="M42" s="22"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="118"/>
+      <c r="Q42" s="22"/>
+      <c r="S42" s="60"/>
+      <c r="T42" s="21"/>
+      <c r="U42" s="61"/>
+      <c r="W42" s="60"/>
+      <c r="X42" s="21"/>
+      <c r="Y42" s="61"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="20"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="118"/>
+      <c r="I43" s="22"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="118"/>
+      <c r="M43" s="22"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="118"/>
+      <c r="Q43" s="22"/>
+      <c r="S43" s="60"/>
+      <c r="T43" s="21"/>
+      <c r="U43" s="61"/>
+      <c r="W43" s="60"/>
+      <c r="X43" s="21"/>
+      <c r="Y43" s="61"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B44" s="67"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="69"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="29"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="29"/>
-      <c r="O44" s="27"/>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="29"/>
-      <c r="S44" s="87"/>
-      <c r="T44" s="28"/>
-      <c r="U44" s="88"/>
-      <c r="W44" s="87"/>
-      <c r="X44" s="28"/>
-      <c r="Y44" s="88"/>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B45" s="67"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="69"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="29"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="28"/>
-      <c r="M45" s="29"/>
-      <c r="O45" s="27"/>
-      <c r="P45" s="28"/>
-      <c r="Q45" s="29"/>
-      <c r="S45" s="87"/>
-      <c r="T45" s="28"/>
-      <c r="U45" s="88"/>
-      <c r="W45" s="87"/>
-      <c r="X45" s="28"/>
-      <c r="Y45" s="88"/>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B46" s="67"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="69"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="29"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="29"/>
-      <c r="O46" s="27"/>
-      <c r="P46" s="28"/>
-      <c r="Q46" s="29"/>
-      <c r="S46" s="87"/>
-      <c r="T46" s="28"/>
-      <c r="U46" s="88"/>
-      <c r="W46" s="87"/>
-      <c r="X46" s="28"/>
-      <c r="Y46" s="88"/>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="20"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="118"/>
+      <c r="I44" s="22"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="118"/>
+      <c r="M44" s="22"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="118"/>
+      <c r="Q44" s="22"/>
+      <c r="S44" s="58"/>
+      <c r="T44" s="15"/>
+      <c r="U44" s="59"/>
+      <c r="W44" s="58"/>
+      <c r="X44" s="15"/>
+      <c r="Y44" s="59"/>
+    </row>
+    <row r="45" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="14"/>
+      <c r="B45" s="84"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="86"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="119"/>
+      <c r="I45" s="31"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="119"/>
+      <c r="M45" s="31"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="119"/>
+      <c r="Q45" s="31"/>
+      <c r="S45" s="63"/>
+      <c r="T45" s="64"/>
+      <c r="U45" s="65"/>
+      <c r="W45" s="63"/>
+      <c r="X45" s="64"/>
+      <c r="Y45" s="65"/>
+    </row>
+    <row r="46" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="89"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L46" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M46" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O46" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="P46" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q46" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="S46" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="T46" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="U46" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="W46" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="X46" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y46" s="80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B47" s="67"/>
-      <c r="C47" s="68"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="69"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="29"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="29"/>
-      <c r="O47" s="27"/>
-      <c r="P47" s="28"/>
-      <c r="Q47" s="29"/>
-      <c r="S47" s="87"/>
-      <c r="T47" s="28"/>
-      <c r="U47" s="88"/>
-      <c r="W47" s="87"/>
-      <c r="X47" s="28"/>
-      <c r="Y47" s="88"/>
+        <v>80</v>
+      </c>
+      <c r="B47" s="17"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="20"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="118"/>
+      <c r="I47" s="22"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="118"/>
+      <c r="M47" s="22"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="118"/>
+      <c r="Q47" s="22"/>
+      <c r="S47" s="73"/>
+      <c r="T47" s="74"/>
+      <c r="U47" s="75"/>
+      <c r="W47" s="73"/>
+      <c r="X47" s="74"/>
+      <c r="Y47" s="75"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B48" s="67"/>
-      <c r="C48" s="68"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="69"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="29"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="28"/>
-      <c r="M48" s="29"/>
-      <c r="O48" s="27"/>
-      <c r="P48" s="28"/>
-      <c r="Q48" s="29"/>
-      <c r="S48" s="87"/>
-      <c r="T48" s="28"/>
-      <c r="U48" s="88"/>
-      <c r="W48" s="87"/>
-      <c r="X48" s="28"/>
-      <c r="Y48" s="88"/>
+        <v>81</v>
+      </c>
+      <c r="B48" s="17"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="20"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="118"/>
+      <c r="I48" s="22"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="118"/>
+      <c r="M48" s="22"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="118"/>
+      <c r="Q48" s="22"/>
+      <c r="S48" s="60"/>
+      <c r="T48" s="21"/>
+      <c r="U48" s="61"/>
+      <c r="W48" s="60"/>
+      <c r="X48" s="21"/>
+      <c r="Y48" s="61"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" s="67"/>
-      <c r="C49" s="68"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="69"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="29"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="29"/>
-      <c r="O49" s="27"/>
-      <c r="P49" s="28"/>
-      <c r="Q49" s="29"/>
-      <c r="S49" s="87"/>
-      <c r="T49" s="28"/>
-      <c r="U49" s="88"/>
-      <c r="W49" s="87"/>
-      <c r="X49" s="28"/>
-      <c r="Y49" s="88"/>
+        <v>82</v>
+      </c>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="20"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="118"/>
+      <c r="I49" s="22"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="118"/>
+      <c r="M49" s="22"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="118"/>
+      <c r="Q49" s="22"/>
+      <c r="S49" s="60"/>
+      <c r="T49" s="21"/>
+      <c r="U49" s="61"/>
+      <c r="W49" s="60"/>
+      <c r="X49" s="21"/>
+      <c r="Y49" s="61"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B50" s="67"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="69"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="29"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="28"/>
-      <c r="M50" s="29"/>
-      <c r="O50" s="27"/>
-      <c r="P50" s="28"/>
-      <c r="Q50" s="29"/>
-      <c r="S50" s="87"/>
-      <c r="T50" s="28"/>
-      <c r="U50" s="88"/>
-      <c r="W50" s="87"/>
-      <c r="X50" s="28"/>
-      <c r="Y50" s="88"/>
+        <v>83</v>
+      </c>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="20"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="118"/>
+      <c r="I50" s="22"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="118"/>
+      <c r="M50" s="22"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="118"/>
+      <c r="Q50" s="22"/>
+      <c r="S50" s="60"/>
+      <c r="T50" s="21"/>
+      <c r="U50" s="61"/>
+      <c r="W50" s="60"/>
+      <c r="X50" s="21"/>
+      <c r="Y50" s="61"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B51" s="67"/>
-      <c r="C51" s="68"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="69"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="29"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="28"/>
-      <c r="M51" s="29"/>
-      <c r="O51" s="27"/>
-      <c r="P51" s="28"/>
-      <c r="Q51" s="29"/>
-      <c r="S51" s="87"/>
-      <c r="T51" s="28"/>
-      <c r="U51" s="88"/>
-      <c r="W51" s="87"/>
-      <c r="X51" s="28"/>
-      <c r="Y51" s="88"/>
+        <v>84</v>
+      </c>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="20"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="118"/>
+      <c r="I51" s="22"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="118"/>
+      <c r="M51" s="22"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="118"/>
+      <c r="Q51" s="22"/>
+      <c r="S51" s="60"/>
+      <c r="T51" s="21"/>
+      <c r="U51" s="61"/>
+      <c r="W51" s="60"/>
+      <c r="X51" s="21"/>
+      <c r="Y51" s="61"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="20"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="118"/>
+      <c r="I52" s="22"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="118"/>
+      <c r="M52" s="22"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="118"/>
+      <c r="Q52" s="22"/>
+      <c r="S52" s="60"/>
+      <c r="T52" s="21"/>
+      <c r="U52" s="61"/>
+      <c r="W52" s="60"/>
+      <c r="X52" s="21"/>
+      <c r="Y52" s="61"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" s="17"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="20"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="118"/>
+      <c r="I53" s="22"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="118"/>
+      <c r="M53" s="22"/>
+      <c r="O53" s="24"/>
+      <c r="P53" s="118"/>
+      <c r="Q53" s="22"/>
+      <c r="S53" s="60"/>
+      <c r="T53" s="21"/>
+      <c r="U53" s="61"/>
+      <c r="W53" s="60"/>
+      <c r="X53" s="21"/>
+      <c r="Y53" s="61"/>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" s="17"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="20"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="118"/>
+      <c r="I54" s="22"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="118"/>
+      <c r="M54" s="22"/>
+      <c r="O54" s="24"/>
+      <c r="P54" s="118"/>
+      <c r="Q54" s="22"/>
+      <c r="S54" s="60"/>
+      <c r="T54" s="21"/>
+      <c r="U54" s="61"/>
+      <c r="W54" s="60"/>
+      <c r="X54" s="21"/>
+      <c r="Y54" s="61"/>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" s="17"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="20"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="118"/>
+      <c r="I55" s="22"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="118"/>
+      <c r="M55" s="22"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="118"/>
+      <c r="Q55" s="22"/>
+      <c r="S55" s="60"/>
+      <c r="T55" s="21"/>
+      <c r="U55" s="61"/>
+      <c r="W55" s="60"/>
+      <c r="X55" s="21"/>
+      <c r="Y55" s="61"/>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B52" s="111"/>
-      <c r="C52" s="112"/>
-      <c r="D52" s="111"/>
-      <c r="E52" s="113"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="21"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="21"/>
-      <c r="O52" s="19"/>
-      <c r="P52" s="20"/>
-      <c r="Q52" s="21"/>
-      <c r="S52" s="85"/>
-      <c r="T52" s="20"/>
-      <c r="U52" s="86"/>
-      <c r="W52" s="85"/>
-      <c r="X52" s="20"/>
-      <c r="Y52" s="86"/>
-    </row>
-    <row r="53" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="114"/>
-      <c r="B53" s="70"/>
-      <c r="C53" s="71"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="72"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="47"/>
-      <c r="K53" s="45"/>
-      <c r="L53" s="46"/>
-      <c r="M53" s="47"/>
-      <c r="O53" s="45"/>
-      <c r="P53" s="46"/>
-      <c r="Q53" s="47"/>
-      <c r="S53" s="90"/>
-      <c r="T53" s="91"/>
-      <c r="U53" s="92"/>
-      <c r="W53" s="90"/>
-      <c r="X53" s="91"/>
-      <c r="Y53" s="92"/>
-    </row>
-    <row r="54" spans="1:25" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G54" s="48"/>
-      <c r="I54" s="49"/>
-      <c r="K54" s="48"/>
-      <c r="M54" s="49"/>
-      <c r="O54" s="48"/>
-      <c r="Q54" s="49"/>
-      <c r="S54" s="48"/>
-      <c r="U54" s="49"/>
-      <c r="W54" s="48"/>
-      <c r="Y54" s="49"/>
-    </row>
-    <row r="55" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="120" t="s">
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="20"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="118"/>
+      <c r="I56" s="22"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="118"/>
+      <c r="M56" s="22"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="118"/>
+      <c r="Q56" s="22"/>
+      <c r="S56" s="58"/>
+      <c r="T56" s="15"/>
+      <c r="U56" s="59"/>
+      <c r="W56" s="58"/>
+      <c r="X56" s="15"/>
+      <c r="Y56" s="59"/>
+    </row>
+    <row r="57" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="87"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="47"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="119"/>
+      <c r="I57" s="31"/>
+      <c r="K57" s="30"/>
+      <c r="L57" s="119"/>
+      <c r="M57" s="31"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="119"/>
+      <c r="Q57" s="31"/>
+      <c r="S57" s="63"/>
+      <c r="T57" s="64"/>
+      <c r="U57" s="65"/>
+      <c r="W57" s="63"/>
+      <c r="X57" s="64"/>
+      <c r="Y57" s="65"/>
+    </row>
+    <row r="58" spans="1:25" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G58" s="32"/>
+      <c r="I58" s="33"/>
+      <c r="K58" s="32"/>
+      <c r="M58" s="33"/>
+      <c r="O58" s="32"/>
+      <c r="Q58" s="33"/>
+      <c r="S58" s="32"/>
+      <c r="U58" s="33"/>
+      <c r="W58" s="32"/>
+      <c r="Y58" s="33"/>
+    </row>
+    <row r="59" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="50" t="s">
+      <c r="B59" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="50" t="s">
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="G55" s="11" t="s">
+      <c r="G59" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H55" s="12" t="s">
+      <c r="H59" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I55" s="13" t="s">
+      <c r="I59" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K55" s="11" t="s">
+      <c r="K59" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L55" s="12" t="s">
+      <c r="L59" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M55" s="13" t="s">
+      <c r="M59" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O55" s="11" t="s">
+      <c r="O59" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="P55" s="12" t="s">
+      <c r="P59" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="Q55" s="13" t="s">
+      <c r="Q59" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="S55" s="103" t="s">
+      <c r="S59" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="T55" s="104" t="s">
+      <c r="T59" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="U55" s="105" t="s">
+      <c r="U59" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="W55" s="103" t="s">
+      <c r="W59" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="X55" s="104" t="s">
+      <c r="X59" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="Y55" s="105" t="s">
+      <c r="Y59" s="78" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="51" t="s">
+    <row r="60" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60" s="99"/>
+      <c r="C60" s="100"/>
+      <c r="D60" s="101"/>
+      <c r="E60" s="36"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="118"/>
+      <c r="I60" s="22"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="118"/>
+      <c r="M60" s="22"/>
+      <c r="O60" s="24"/>
+      <c r="P60" s="118"/>
+      <c r="Q60" s="22"/>
+      <c r="S60" s="60"/>
+      <c r="T60" s="21"/>
+      <c r="U60" s="61"/>
+      <c r="W60" s="60"/>
+      <c r="X60" s="21"/>
+      <c r="Y60" s="61"/>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A61" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="141" t="s">
+      <c r="B61" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="142"/>
-      <c r="D56" s="143"/>
-      <c r="E56" s="52"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="29"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="28"/>
-      <c r="M56" s="29"/>
-      <c r="O56" s="27"/>
-      <c r="P56" s="28"/>
-      <c r="Q56" s="29"/>
-      <c r="S56" s="87"/>
-      <c r="T56" s="28"/>
-      <c r="U56" s="88"/>
-      <c r="W56" s="87"/>
-      <c r="X56" s="28"/>
-      <c r="Y56" s="88"/>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A57" s="53" t="s">
+      <c r="C61" s="94"/>
+      <c r="D61" s="95"/>
+      <c r="E61" s="38"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="118"/>
+      <c r="I61" s="22"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="118"/>
+      <c r="M61" s="22"/>
+      <c r="O61" s="24"/>
+      <c r="P61" s="118"/>
+      <c r="Q61" s="22"/>
+      <c r="S61" s="60"/>
+      <c r="T61" s="21"/>
+      <c r="U61" s="61"/>
+      <c r="W61" s="60"/>
+      <c r="X61" s="21"/>
+      <c r="Y61" s="61"/>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A62" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="135" t="s">
+      <c r="B62" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="136"/>
-      <c r="D57" s="137"/>
-      <c r="E57" s="54"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="29"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="28"/>
-      <c r="M57" s="29"/>
-      <c r="O57" s="27"/>
-      <c r="P57" s="28"/>
-      <c r="Q57" s="29"/>
-      <c r="S57" s="87"/>
-      <c r="T57" s="28"/>
-      <c r="U57" s="88"/>
-      <c r="W57" s="87"/>
-      <c r="X57" s="28"/>
-      <c r="Y57" s="88"/>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A58" s="53" t="s">
+      <c r="C62" s="94"/>
+      <c r="D62" s="95"/>
+      <c r="E62" s="38"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="118"/>
+      <c r="I62" s="22"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="118"/>
+      <c r="M62" s="22"/>
+      <c r="O62" s="24"/>
+      <c r="P62" s="118"/>
+      <c r="Q62" s="22"/>
+      <c r="S62" s="60"/>
+      <c r="T62" s="21"/>
+      <c r="U62" s="61"/>
+      <c r="W62" s="60"/>
+      <c r="X62" s="21"/>
+      <c r="Y62" s="61"/>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A63" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="B58" s="135" t="s">
+      <c r="B63" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="136"/>
-      <c r="D58" s="137"/>
-      <c r="E58" s="54"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="29"/>
-      <c r="K58" s="27"/>
-      <c r="L58" s="28"/>
-      <c r="M58" s="29"/>
-      <c r="O58" s="27"/>
-      <c r="P58" s="28"/>
-      <c r="Q58" s="29"/>
-      <c r="S58" s="87"/>
-      <c r="T58" s="28"/>
-      <c r="U58" s="88"/>
-      <c r="W58" s="87"/>
-      <c r="X58" s="28"/>
-      <c r="Y58" s="88"/>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A59" s="53" t="s">
+      <c r="C63" s="94"/>
+      <c r="D63" s="95"/>
+      <c r="E63" s="38"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="118"/>
+      <c r="I63" s="22"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="118"/>
+      <c r="M63" s="22"/>
+      <c r="O63" s="24"/>
+      <c r="P63" s="118"/>
+      <c r="Q63" s="22"/>
+      <c r="S63" s="60"/>
+      <c r="T63" s="21"/>
+      <c r="U63" s="61"/>
+      <c r="W63" s="60"/>
+      <c r="X63" s="21"/>
+      <c r="Y63" s="61"/>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A64" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="135" t="s">
+      <c r="B64" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="136"/>
-      <c r="D59" s="137"/>
-      <c r="E59" s="54"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="29"/>
-      <c r="K59" s="27"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="29"/>
-      <c r="O59" s="27"/>
-      <c r="P59" s="28"/>
-      <c r="Q59" s="29"/>
-      <c r="S59" s="87"/>
-      <c r="T59" s="28"/>
-      <c r="U59" s="88"/>
-      <c r="W59" s="87"/>
-      <c r="X59" s="28"/>
-      <c r="Y59" s="88"/>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A60" s="53"/>
-      <c r="B60" s="135"/>
-      <c r="C60" s="136"/>
-      <c r="D60" s="137"/>
-      <c r="E60" s="54"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="29"/>
-      <c r="K60" s="27"/>
-      <c r="L60" s="28"/>
-      <c r="M60" s="29"/>
-      <c r="O60" s="27"/>
-      <c r="P60" s="28"/>
-      <c r="Q60" s="29"/>
-      <c r="S60" s="87"/>
-      <c r="T60" s="28"/>
-      <c r="U60" s="88"/>
-      <c r="W60" s="87"/>
-      <c r="X60" s="28"/>
-      <c r="Y60" s="88"/>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A61" s="53"/>
-      <c r="B61" s="135"/>
-      <c r="C61" s="136"/>
-      <c r="D61" s="137"/>
-      <c r="E61" s="54"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="29"/>
-      <c r="K61" s="27"/>
-      <c r="L61" s="28"/>
-      <c r="M61" s="29"/>
-      <c r="O61" s="27"/>
-      <c r="P61" s="28"/>
-      <c r="Q61" s="29"/>
-      <c r="S61" s="87"/>
-      <c r="T61" s="28"/>
-      <c r="U61" s="88"/>
-      <c r="W61" s="87"/>
-      <c r="X61" s="28"/>
-      <c r="Y61" s="88"/>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A62" s="53"/>
-      <c r="B62" s="135"/>
-      <c r="C62" s="136"/>
-      <c r="D62" s="137"/>
-      <c r="E62" s="54"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="29"/>
-      <c r="K62" s="27"/>
-      <c r="L62" s="28"/>
-      <c r="M62" s="29"/>
-      <c r="O62" s="27"/>
-      <c r="P62" s="28"/>
-      <c r="Q62" s="29"/>
-      <c r="S62" s="87"/>
-      <c r="T62" s="28"/>
-      <c r="U62" s="88"/>
-      <c r="W62" s="87"/>
-      <c r="X62" s="28"/>
-      <c r="Y62" s="88"/>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A63" s="53"/>
-      <c r="B63" s="135"/>
-      <c r="C63" s="136"/>
-      <c r="D63" s="137"/>
-      <c r="E63" s="54"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="29"/>
-      <c r="K63" s="27"/>
-      <c r="L63" s="28"/>
-      <c r="M63" s="29"/>
-      <c r="O63" s="27"/>
-      <c r="P63" s="28"/>
-      <c r="Q63" s="29"/>
-      <c r="S63" s="87"/>
-      <c r="T63" s="28"/>
-      <c r="U63" s="88"/>
-      <c r="W63" s="87"/>
-      <c r="X63" s="28"/>
-      <c r="Y63" s="88"/>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A64" s="53"/>
-      <c r="B64" s="135"/>
-      <c r="C64" s="136"/>
-      <c r="D64" s="137"/>
-      <c r="E64" s="54"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="29"/>
-      <c r="K64" s="27"/>
-      <c r="L64" s="28"/>
-      <c r="M64" s="29"/>
-      <c r="O64" s="27"/>
-      <c r="P64" s="28"/>
-      <c r="Q64" s="29"/>
-      <c r="S64" s="87"/>
-      <c r="T64" s="28"/>
-      <c r="U64" s="88"/>
-      <c r="W64" s="87"/>
-      <c r="X64" s="28"/>
-      <c r="Y64" s="88"/>
+      <c r="C64" s="94"/>
+      <c r="D64" s="95"/>
+      <c r="E64" s="38"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="118"/>
+      <c r="I64" s="22"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="118"/>
+      <c r="M64" s="22"/>
+      <c r="O64" s="24"/>
+      <c r="P64" s="118"/>
+      <c r="Q64" s="22"/>
+      <c r="S64" s="60"/>
+      <c r="T64" s="21"/>
+      <c r="U64" s="61"/>
+      <c r="W64" s="60"/>
+      <c r="X64" s="21"/>
+      <c r="Y64" s="61"/>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A65" s="53"/>
-      <c r="B65" s="135"/>
-      <c r="C65" s="136"/>
-      <c r="D65" s="137"/>
-      <c r="E65" s="54"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="29"/>
-      <c r="K65" s="27"/>
-      <c r="L65" s="28"/>
-      <c r="M65" s="29"/>
-      <c r="O65" s="27"/>
-      <c r="P65" s="28"/>
-      <c r="Q65" s="29"/>
-      <c r="S65" s="87"/>
-      <c r="T65" s="28"/>
-      <c r="U65" s="88"/>
-      <c r="W65" s="87"/>
-      <c r="X65" s="28"/>
-      <c r="Y65" s="88"/>
-    </row>
-    <row r="66" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="55"/>
-      <c r="B66" s="138"/>
-      <c r="C66" s="139"/>
-      <c r="D66" s="140"/>
-      <c r="E66" s="56"/>
-      <c r="G66" s="45"/>
-      <c r="H66" s="46"/>
-      <c r="I66" s="47"/>
-      <c r="K66" s="45"/>
-      <c r="L66" s="46"/>
-      <c r="M66" s="47"/>
-      <c r="O66" s="45"/>
-      <c r="P66" s="46"/>
-      <c r="Q66" s="47"/>
-      <c r="S66" s="90"/>
-      <c r="T66" s="91"/>
-      <c r="U66" s="92"/>
-      <c r="W66" s="90"/>
-      <c r="X66" s="91"/>
-      <c r="Y66" s="92"/>
-    </row>
-    <row r="67" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="93"/>
+      <c r="C65" s="94"/>
+      <c r="D65" s="95"/>
+      <c r="E65" s="38"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="118"/>
+      <c r="I65" s="22"/>
+      <c r="K65" s="24"/>
+      <c r="L65" s="118"/>
+      <c r="M65" s="22"/>
+      <c r="O65" s="24"/>
+      <c r="P65" s="118"/>
+      <c r="Q65" s="22"/>
+      <c r="S65" s="60"/>
+      <c r="T65" s="21"/>
+      <c r="U65" s="61"/>
+      <c r="W65" s="60"/>
+      <c r="X65" s="21"/>
+      <c r="Y65" s="61"/>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A66" s="37"/>
+      <c r="B66" s="93"/>
+      <c r="C66" s="94"/>
+      <c r="D66" s="95"/>
+      <c r="E66" s="38"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="118"/>
+      <c r="I66" s="22"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="118"/>
+      <c r="M66" s="22"/>
+      <c r="O66" s="24"/>
+      <c r="P66" s="118"/>
+      <c r="Q66" s="22"/>
+      <c r="S66" s="60"/>
+      <c r="T66" s="21"/>
+      <c r="U66" s="61"/>
+      <c r="W66" s="60"/>
+      <c r="X66" s="21"/>
+      <c r="Y66" s="61"/>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A67" s="37"/>
+      <c r="B67" s="93"/>
+      <c r="C67" s="94"/>
+      <c r="D67" s="95"/>
+      <c r="E67" s="38"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="118"/>
+      <c r="I67" s="22"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="118"/>
+      <c r="M67" s="22"/>
+      <c r="O67" s="24"/>
+      <c r="P67" s="118"/>
+      <c r="Q67" s="22"/>
+      <c r="S67" s="60"/>
+      <c r="T67" s="21"/>
+      <c r="U67" s="61"/>
+      <c r="W67" s="60"/>
+      <c r="X67" s="21"/>
+      <c r="Y67" s="61"/>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A68" s="37"/>
+      <c r="B68" s="93"/>
+      <c r="C68" s="94"/>
+      <c r="D68" s="95"/>
+      <c r="E68" s="38"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="118"/>
+      <c r="I68" s="22"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="118"/>
+      <c r="M68" s="22"/>
+      <c r="O68" s="24"/>
+      <c r="P68" s="118"/>
+      <c r="Q68" s="22"/>
+      <c r="S68" s="60"/>
+      <c r="T68" s="21"/>
+      <c r="U68" s="61"/>
+      <c r="W68" s="60"/>
+      <c r="X68" s="21"/>
+      <c r="Y68" s="61"/>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A69" s="37"/>
+      <c r="B69" s="93"/>
+      <c r="C69" s="94"/>
+      <c r="D69" s="95"/>
+      <c r="E69" s="38"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="118"/>
+      <c r="I69" s="22"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="118"/>
+      <c r="M69" s="22"/>
+      <c r="O69" s="24"/>
+      <c r="P69" s="118"/>
+      <c r="Q69" s="22"/>
+      <c r="S69" s="60"/>
+      <c r="T69" s="21"/>
+      <c r="U69" s="61"/>
+      <c r="W69" s="60"/>
+      <c r="X69" s="21"/>
+      <c r="Y69" s="61"/>
+    </row>
+    <row r="70" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="39"/>
+      <c r="B70" s="96"/>
+      <c r="C70" s="97"/>
+      <c r="D70" s="98"/>
+      <c r="E70" s="40"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="119"/>
+      <c r="I70" s="31"/>
+      <c r="K70" s="30"/>
+      <c r="L70" s="119"/>
+      <c r="M70" s="31"/>
+      <c r="O70" s="30"/>
+      <c r="P70" s="119"/>
+      <c r="Q70" s="31"/>
+      <c r="S70" s="63"/>
+      <c r="T70" s="64"/>
+      <c r="U70" s="65"/>
+      <c r="W70" s="63"/>
+      <c r="X70" s="64"/>
+      <c r="Y70" s="65"/>
+    </row>
+    <row r="71" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A56:Y66" name="Contact Fields_1"/>
-    <protectedRange sqref="S27:Y29 S42:Y42" name="customEntities"/>
-    <protectedRange sqref="N30:N41 J30:J41 R30:R41 A43:R53 A30:F41" name="Questionnaire"/>
+    <protectedRange sqref="A61:E70 W60:Y70 G60:I69 S60:U70 O60:Q69 K60:M69 B60:E60" name="Contact Fields_1"/>
+    <protectedRange sqref="S31:U33 S46:U46 W31:Y33 W46:Y46" name="customEntities"/>
+    <protectedRange sqref="A34:E45 A47:E57 K47:M56 O47:Q56 G47:I56" name="Questionnaire"/>
+    <protectedRange sqref="A60" name="Questionnaire_1"/>
   </protectedRanges>
   <mergeCells count="21">
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="W32:Y32"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="O4:Q4"/>
     <mergeCell ref="S4:U4"/>
     <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B65:D65"/>
   </mergeCells>
-  <conditionalFormatting sqref="J9:K26 A26:G26 N12:O26 R12:V26 F8 J8 A54:AE54 N8:AG8 N9:V11 W9:AG26 B9:I25">
-    <cfRule type="expression" dxfId="69" priority="87">
-      <formula>$C8="x"</formula>
+  <conditionalFormatting sqref="A30:E30 A58:E58 S28:U30 B7:E29 S10:U26 K58:M58 O58:Q58 S58:U58 G7:I29 G58:I58 G30 W58:Y58 W10:Y26 W28:Y30 O60:Q69 K60:M69 G60:I69">
+    <cfRule type="expression" dxfId="39" priority="169">
+      <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="88">
-      <formula>$D8="x"</formula>
+    <cfRule type="expression" dxfId="38" priority="170">
+      <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W56:Y66">
-    <cfRule type="expression" dxfId="67" priority="85">
-      <formula>$C56="x"</formula>
+  <conditionalFormatting sqref="W60:Y70 S60:U70">
+    <cfRule type="expression" dxfId="37" priority="167">
+      <formula>$C60="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="86">
-      <formula>$D56="x"</formula>
+    <cfRule type="expression" dxfId="36" priority="168">
+      <formula>$D60="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S56:U66">
-    <cfRule type="expression" dxfId="65" priority="83">
-      <formula>$C56="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="84">
-      <formula>$D56="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O56:Q66">
-    <cfRule type="expression" dxfId="63" priority="81">
-      <formula>$C56="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="82">
-      <formula>$D56="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K56:M66">
-    <cfRule type="expression" dxfId="61" priority="79">
-      <formula>$C56="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="80">
-      <formula>$D56="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G56:I66">
-    <cfRule type="expression" dxfId="59" priority="77">
-      <formula>$C56="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="78">
-      <formula>$D56="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z30:AG35 A42:Y42 AA36:AG53 B35 A35:A37 C35:F37 A29:AG29 A28:F28 J28 N28 R28:AG28 A30:F34 A38:F41 N30:N41 J30:J41 R30:R41 A43:R53 A9:A25 A27:AG27">
-    <cfRule type="expression" dxfId="57" priority="75">
-      <formula>$C9="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="76">
-      <formula>$D9="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="expression" dxfId="55" priority="67">
-      <formula>$C26="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="68">
-      <formula>$D26="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
-    <cfRule type="expression" dxfId="53" priority="65">
-      <formula>$C26="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="66">
-      <formula>$D26="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L9:M26">
-    <cfRule type="expression" dxfId="51" priority="61">
-      <formula>$C9="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="62">
-      <formula>$D9="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P12:Q26">
-    <cfRule type="expression" dxfId="49" priority="53">
-      <formula>$C12="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="54">
-      <formula>$D12="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8:I8">
-    <cfRule type="expression" dxfId="47" priority="51">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="52">
-      <formula>$D8="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:M8">
-    <cfRule type="expression" dxfId="45" priority="49">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="50">
-      <formula>$D8="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36:B37">
-    <cfRule type="expression" dxfId="43" priority="47">
-      <formula>$C35="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="48">
-      <formula>$D35="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O30:O31">
-    <cfRule type="expression" dxfId="41" priority="39">
+  <conditionalFormatting sqref="I30">
+    <cfRule type="expression" dxfId="35" priority="147">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="40">
+    <cfRule type="expression" dxfId="34" priority="148">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P30:Q31">
-    <cfRule type="expression" dxfId="39" priority="37">
+  <conditionalFormatting sqref="A45:E46 A57:E57 A31:E33 A7:A29 K31:M31 K33:M33 K46:M46 O46:Q46 O33:Q33 O31:Q31 S31:U33 S46:U46 G31:I31 G33:I33 G46:I46 W46:Y46 W31:Y33">
+    <cfRule type="expression" dxfId="33" priority="157">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="158">
+      <formula>$D7="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="expression" dxfId="31" priority="149">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="38">
+    <cfRule type="expression" dxfId="30" priority="150">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O32:O41">
-    <cfRule type="expression" dxfId="37" priority="35">
-      <formula>$C32="x"</formula>
+  <conditionalFormatting sqref="S27:U27 B27:E27 G27:I27 W27:Y27">
+    <cfRule type="expression" dxfId="29" priority="81">
+      <formula>$C27="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="36">
-      <formula>$D32="x"</formula>
+    <cfRule type="expression" dxfId="28" priority="82">
+      <formula>$D27="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P32:Q41">
-    <cfRule type="expression" dxfId="35" priority="33">
-      <formula>$C32="x"</formula>
+  <conditionalFormatting sqref="G10:I10">
+    <cfRule type="expression" dxfId="27" priority="133">
+      <formula>$C10="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="34">
-      <formula>$D32="x"</formula>
+    <cfRule type="expression" dxfId="26" priority="134">
+      <formula>$D10="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:K31">
-    <cfRule type="expression" dxfId="33" priority="31">
+  <conditionalFormatting sqref="O47:Q56 K47:M56 G47:I56 G34:I44 K34:M44 O34:Q44 O7:Q29 K7:M29">
+    <cfRule type="expression" dxfId="25" priority="69">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="70">
+      <formula>$D7="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S34:U44 W34:Y44">
+    <cfRule type="expression" dxfId="23" priority="97">
+      <formula>$C34="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="98">
+      <formula>$D34="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S47:U56 W47:Y56">
+    <cfRule type="expression" dxfId="21" priority="95">
+      <formula>$C47="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="96">
+      <formula>$D47="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S57:U57 W57:Y57">
+    <cfRule type="expression" dxfId="19" priority="93">
+      <formula>$C57="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="94">
+      <formula>$D57="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S45:U45 W45:Y45">
+    <cfRule type="expression" dxfId="17" priority="91">
+      <formula>$C45="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="92">
+      <formula>$D45="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:E10">
+    <cfRule type="expression" dxfId="15" priority="85">
+      <formula>$C10="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="86">
+      <formula>$D10="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="expression" dxfId="13" priority="83">
+      <formula>$C10="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="84">
+      <formula>$D10="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27">
+    <cfRule type="expression" dxfId="11" priority="79">
+      <formula>$C27="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="80">
+      <formula>$D27="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47:E56 B34:E44">
+    <cfRule type="expression" dxfId="9" priority="73">
+      <formula>$C34="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="74">
+      <formula>$D34="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:A56 A34:A44">
+    <cfRule type="expression" dxfId="7" priority="71">
+      <formula>$C34="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="72">
+      <formula>$D34="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O70 K70 G70 O57 K57 G57 G45 K45 O45 O30 K30">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="32">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L30:M31">
-    <cfRule type="expression" dxfId="31" priority="29">
+  <conditionalFormatting sqref="P70 L70 H70 P57 L57 H57 H45 L45 P45 P30 L30">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="30">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K32:K41">
-    <cfRule type="expression" dxfId="29" priority="27">
-      <formula>$C32="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="28">
-      <formula>$D32="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L32:M41">
-    <cfRule type="expression" dxfId="27" priority="25">
-      <formula>$C32="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="26">
-      <formula>$D32="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30:G31">
-    <cfRule type="expression" dxfId="25" priority="23">
+  <conditionalFormatting sqref="Q70 M70 I70 Q57 M57 I57 I45 M45 Q45 Q30 M30">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="24">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30:I31">
-    <cfRule type="expression" dxfId="23" priority="21">
-      <formula>$C30="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="22">
-      <formula>$D30="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G32:G41">
-    <cfRule type="expression" dxfId="21" priority="19">
-      <formula>$C32="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="20">
-      <formula>$D32="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32:I41">
-    <cfRule type="expression" dxfId="19" priority="17">
-      <formula>$C32="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="18">
-      <formula>$D32="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S30:Y40">
-    <cfRule type="expression" dxfId="17" priority="15">
-      <formula>$C30="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="16">
-      <formula>$D30="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S43:Y52">
-    <cfRule type="expression" dxfId="15" priority="13">
-      <formula>$C43="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="14">
-      <formula>$D43="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S53:Y53">
-    <cfRule type="expression" dxfId="13" priority="11">
-      <formula>$C53="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
-      <formula>$D53="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S41:Y41">
-    <cfRule type="expression" dxfId="11" priority="9">
-      <formula>$C41="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="10">
-      <formula>$D41="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z50">
-    <cfRule type="expression" dxfId="9" priority="91">
-      <formula>$C54="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="92">
-      <formula>$D54="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z36 Z41:Z48">
-    <cfRule type="expression" dxfId="7" priority="95">
-      <formula>$C39="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="96">
-      <formula>$D39="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z49 Z37:Z40">
-    <cfRule type="expression" dxfId="5" priority="99">
-      <formula>$C41="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="100">
-      <formula>$D41="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:E8">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$D8="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$D8="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C43:D53 C30:D41 C7:D26" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C47:D57 C34:D45 C7:D30" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I26 M7:M26 Q7:Q26 U7:U26 Y7:Y26 Y30:Y41 U30:U41 Q30:Q41 M30:M41 I30:I41 I43:I53 M43:M53 Q43:Q53 U43:U53 Y43:Y53 Y56:Y66 U56:U66 Q56:Q66 M56:M65 M66 I56:I66" xr:uid="{49A96B42-F01C-42A7-A702-E659158DEB0E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I47:I57 Y34:Y45 U34:U45 Q34:Q45 M7:M30 I34:I45 Q7:Q30 M34:M45 U47:U57 Y47:Y57 Q47:Q57 Y7:Y30 U7:U30 M47:M57 I7:I30 Q60:Q70 M60:M70 U60:U70 Y60:Y70 I60:I70" xr:uid="{49A96B42-F01C-42A7-A702-E659158DEB0E}">
       <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Salesforce_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Salesforce_EN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3D6657-EE03-41A6-A5DA-F91013D919E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4636E23-CCDA-4AF5-8AD1-557740256644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18510" yWindow="3660" windowWidth="18255" windowHeight="5385" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
+    <workbookView xWindow="-28920" yWindow="660" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1819,6 +1819,50 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1846,50 +1890,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2943,30 +2943,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
   <dimension ref="A1:AG71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="1.7109375" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="1.6640625" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="1.7109375" customWidth="1"/>
+    <col min="10" max="10" width="1.6640625" customWidth="1"/>
     <col min="11" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="1.7109375" customWidth="1"/>
+    <col min="14" max="14" width="1.6640625" customWidth="1"/>
     <col min="15" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="1.7109375" customWidth="1"/>
+    <col min="18" max="18" width="1.6640625" customWidth="1"/>
     <col min="19" max="21" width="15" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="1.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="1.5546875" customWidth="1" outlineLevel="1"/>
     <col min="23" max="25" width="15" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
@@ -2975,16 +2975,16 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:33" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:33" ht="63.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" ht="61.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -2996,35 +2996,35 @@
         <v>3</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="G4" s="102" t="s">
+      <c r="G4" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="102" t="s">
+      <c r="K4" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
-      <c r="O4" s="102" t="s">
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="O4" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="102"/>
-      <c r="Q4" s="102"/>
-      <c r="S4" s="103" t="s">
+      <c r="P4" s="107"/>
+      <c r="Q4" s="107"/>
+      <c r="S4" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="104"/>
-      <c r="U4" s="105"/>
-      <c r="W4" s="103" t="s">
+      <c r="T4" s="109"/>
+      <c r="U4" s="110"/>
+      <c r="W4" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="104"/>
-      <c r="Y4" s="105"/>
-    </row>
-    <row r="5" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X4" s="109"/>
+      <c r="Y4" s="110"/>
+    </row>
+    <row r="5" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:33" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="92" t="s">
         <v>9</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>95</v>
       </c>
@@ -3097,17 +3097,17 @@
       <c r="G7" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="H7" s="118" t="s">
+      <c r="H7" s="96" t="s">
         <v>98</v>
       </c>
       <c r="I7" s="22" t="s">
         <v>73</v>
       </c>
       <c r="K7" s="24"/>
-      <c r="L7" s="118"/>
+      <c r="L7" s="96"/>
       <c r="M7" s="22"/>
       <c r="O7" s="24"/>
-      <c r="P7" s="118"/>
+      <c r="P7" s="96"/>
       <c r="Q7" s="22"/>
       <c r="S7" s="58"/>
       <c r="T7" s="15"/>
@@ -3116,7 +3116,7 @@
       <c r="X7" s="70"/>
       <c r="Y7" s="71"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>99</v>
       </c>
@@ -3131,48 +3131,48 @@
       <c r="G8" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="H8" s="118" t="s">
+      <c r="H8" s="96" t="s">
         <v>101</v>
       </c>
       <c r="I8" s="22" t="s">
         <v>73</v>
       </c>
       <c r="K8" s="24"/>
-      <c r="L8" s="118"/>
+      <c r="L8" s="96"/>
       <c r="M8" s="22"/>
       <c r="O8" s="24"/>
-      <c r="P8" s="118"/>
+      <c r="P8" s="96"/>
       <c r="Q8" s="22"/>
       <c r="S8" s="58"/>
       <c r="T8" s="15"/>
       <c r="U8" s="59"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="116"/>
-      <c r="Y8" s="117"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="W8" s="93"/>
+      <c r="X8" s="94"/>
+      <c r="Y8" s="95"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="17"/>
       <c r="C9" s="18"/>
       <c r="D9" s="19"/>
       <c r="E9" s="20"/>
       <c r="G9" s="24"/>
-      <c r="H9" s="118"/>
+      <c r="H9" s="96"/>
       <c r="I9" s="22"/>
       <c r="K9" s="24"/>
-      <c r="L9" s="118"/>
+      <c r="L9" s="96"/>
       <c r="M9" s="22"/>
       <c r="O9" s="24"/>
-      <c r="P9" s="118"/>
+      <c r="P9" s="96"/>
       <c r="Q9" s="22"/>
       <c r="S9" s="58"/>
       <c r="T9" s="15"/>
       <c r="U9" s="59"/>
-      <c r="W9" s="115"/>
-      <c r="X9" s="116"/>
-      <c r="Y9" s="117"/>
-    </row>
-    <row r="10" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W9" s="93"/>
+      <c r="X9" s="94"/>
+      <c r="Y9" s="95"/>
+    </row>
+    <row r="10" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>14</v>
       </c>
@@ -3184,7 +3184,7 @@
       <c r="G10" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="118" t="s">
+      <c r="H10" s="96" t="s">
         <v>14</v>
       </c>
       <c r="I10" s="22" t="s">
@@ -3194,7 +3194,7 @@
       <c r="K10" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="118" t="s">
+      <c r="L10" s="96" t="s">
         <v>14</v>
       </c>
       <c r="M10" s="22" t="s">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="N10"/>
       <c r="O10" s="24"/>
-      <c r="P10" s="118"/>
+      <c r="P10" s="96"/>
       <c r="Q10" s="22"/>
       <c r="R10"/>
       <c r="S10" s="60" t="s">
@@ -3225,7 +3225,7 @@
       <c r="AF10"/>
       <c r="AG10"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>17</v>
       </c>
@@ -3236,7 +3236,7 @@
       <c r="G11" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="118" t="s">
+      <c r="H11" s="96" t="s">
         <v>18</v>
       </c>
       <c r="I11" s="22" t="s">
@@ -3245,14 +3245,14 @@
       <c r="K11" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="118" t="s">
+      <c r="L11" s="96" t="s">
         <v>18</v>
       </c>
       <c r="M11" s="22" t="s">
         <v>73</v>
       </c>
       <c r="O11" s="24"/>
-      <c r="P11" s="118"/>
+      <c r="P11" s="96"/>
       <c r="Q11" s="22"/>
       <c r="S11" s="62" t="s">
         <v>19</v>
@@ -3265,7 +3265,7 @@
       <c r="X11" s="21"/>
       <c r="Y11" s="61"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>21</v>
       </c>
@@ -3276,7 +3276,7 @@
       <c r="G12" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="118" t="s">
+      <c r="H12" s="96" t="s">
         <v>22</v>
       </c>
       <c r="I12" s="22" t="s">
@@ -3285,14 +3285,14 @@
       <c r="K12" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="118" t="s">
+      <c r="L12" s="96" t="s">
         <v>22</v>
       </c>
       <c r="M12" s="22" t="s">
         <v>73</v>
       </c>
       <c r="O12" s="24"/>
-      <c r="P12" s="118"/>
+      <c r="P12" s="96"/>
       <c r="Q12" s="22"/>
       <c r="S12" s="60"/>
       <c r="T12" s="21"/>
@@ -3301,7 +3301,7 @@
       <c r="X12" s="21"/>
       <c r="Y12" s="61"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>60</v>
       </c>
@@ -3312,7 +3312,7 @@
       <c r="G13" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="118" t="s">
+      <c r="H13" s="96" t="s">
         <v>23</v>
       </c>
       <c r="I13" s="22" t="s">
@@ -3321,14 +3321,14 @@
       <c r="K13" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="118" t="s">
+      <c r="L13" s="96" t="s">
         <v>23</v>
       </c>
       <c r="M13" s="22" t="s">
         <v>73</v>
       </c>
       <c r="O13" s="24"/>
-      <c r="P13" s="118"/>
+      <c r="P13" s="96"/>
       <c r="Q13" s="22"/>
       <c r="S13" s="60"/>
       <c r="T13" s="21"/>
@@ -3337,7 +3337,7 @@
       <c r="X13" s="21"/>
       <c r="Y13" s="61"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>24</v>
       </c>
@@ -3348,19 +3348,19 @@
       <c r="G14" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="118" t="s">
+      <c r="H14" s="96" t="s">
         <v>24</v>
       </c>
       <c r="I14" s="22" t="s">
         <v>73</v>
       </c>
       <c r="K14" s="24"/>
-      <c r="L14" s="118"/>
+      <c r="L14" s="96"/>
       <c r="M14" s="22"/>
       <c r="O14" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="P14" s="118" t="s">
+      <c r="P14" s="96" t="s">
         <v>26</v>
       </c>
       <c r="Q14" s="22" t="s">
@@ -3373,7 +3373,7 @@
       <c r="X14" s="21"/>
       <c r="Y14" s="61"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>27</v>
       </c>
@@ -3384,7 +3384,7 @@
       <c r="G15" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="118" t="s">
+      <c r="H15" s="96" t="s">
         <v>27</v>
       </c>
       <c r="I15" s="22" t="s">
@@ -3393,7 +3393,7 @@
       <c r="K15" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="118" t="s">
+      <c r="L15" s="96" t="s">
         <v>28</v>
       </c>
       <c r="M15" s="22" t="s">
@@ -3402,7 +3402,7 @@
       <c r="O15" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="P15" s="118" t="s">
+      <c r="P15" s="96" t="s">
         <v>29</v>
       </c>
       <c r="Q15" s="22" t="s">
@@ -3415,7 +3415,7 @@
       <c r="X15" s="21"/>
       <c r="Y15" s="61"/>
     </row>
-    <row r="16" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>30</v>
       </c>
@@ -3431,7 +3431,7 @@
       <c r="G16" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="118" t="s">
+      <c r="H16" s="96" t="s">
         <v>30</v>
       </c>
       <c r="I16" s="22" t="s">
@@ -3441,7 +3441,7 @@
       <c r="K16" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="L16" s="118" t="s">
+      <c r="L16" s="96" t="s">
         <v>31</v>
       </c>
       <c r="M16" s="22" t="s">
@@ -3451,7 +3451,7 @@
       <c r="O16" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="P16" s="118" t="s">
+      <c r="P16" s="96" t="s">
         <v>32</v>
       </c>
       <c r="Q16" s="22" t="s">
@@ -3474,7 +3474,7 @@
       <c r="AF16"/>
       <c r="AG16"/>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>34</v>
       </c>
@@ -3485,7 +3485,7 @@
       <c r="G17" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="118" t="s">
+      <c r="H17" s="96" t="s">
         <v>34</v>
       </c>
       <c r="I17" s="22" t="s">
@@ -3494,7 +3494,7 @@
       <c r="K17" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="L17" s="118" t="s">
+      <c r="L17" s="96" t="s">
         <v>35</v>
       </c>
       <c r="M17" s="22" t="s">
@@ -3503,7 +3503,7 @@
       <c r="O17" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="P17" s="118" t="s">
+      <c r="P17" s="96" t="s">
         <v>36</v>
       </c>
       <c r="Q17" s="22" t="s">
@@ -3516,7 +3516,7 @@
       <c r="X17" s="21"/>
       <c r="Y17" s="61"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>61</v>
       </c>
@@ -3527,7 +3527,7 @@
       <c r="G18" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="118" t="s">
+      <c r="H18" s="96" t="s">
         <v>38</v>
       </c>
       <c r="I18" s="22" t="s">
@@ -3536,7 +3536,7 @@
       <c r="K18" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="L18" s="118" t="s">
+      <c r="L18" s="96" t="s">
         <v>39</v>
       </c>
       <c r="M18" s="22" t="s">
@@ -3545,7 +3545,7 @@
       <c r="O18" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="P18" s="118" t="s">
+      <c r="P18" s="96" t="s">
         <v>40</v>
       </c>
       <c r="Q18" s="22" t="s">
@@ -3558,7 +3558,7 @@
       <c r="X18" s="21"/>
       <c r="Y18" s="61"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>41</v>
       </c>
@@ -3569,7 +3569,7 @@
       <c r="G19" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="118" t="s">
+      <c r="H19" s="96" t="s">
         <v>41</v>
       </c>
       <c r="I19" s="22" t="s">
@@ -3578,7 +3578,7 @@
       <c r="K19" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="L19" s="118" t="s">
+      <c r="L19" s="96" t="s">
         <v>42</v>
       </c>
       <c r="M19" s="22" t="s">
@@ -3587,7 +3587,7 @@
       <c r="O19" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="P19" s="118" t="s">
+      <c r="P19" s="96" t="s">
         <v>43</v>
       </c>
       <c r="Q19" s="22" t="s">
@@ -3600,7 +3600,7 @@
       <c r="X19" s="21"/>
       <c r="Y19" s="61"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>44</v>
       </c>
@@ -3611,7 +3611,7 @@
       <c r="G20" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="H20" s="118" t="s">
+      <c r="H20" s="96" t="s">
         <v>44</v>
       </c>
       <c r="I20" s="22" t="s">
@@ -3620,7 +3620,7 @@
       <c r="K20" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="L20" s="118" t="s">
+      <c r="L20" s="96" t="s">
         <v>44</v>
       </c>
       <c r="M20" s="22" t="s">
@@ -3629,7 +3629,7 @@
       <c r="O20" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="P20" s="118" t="s">
+      <c r="P20" s="96" t="s">
         <v>44</v>
       </c>
       <c r="Q20" s="22" t="s">
@@ -3642,7 +3642,7 @@
       <c r="X20" s="21"/>
       <c r="Y20" s="61"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>45</v>
       </c>
@@ -3653,7 +3653,7 @@
       <c r="G21" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="H21" s="118" t="s">
+      <c r="H21" s="96" t="s">
         <v>46</v>
       </c>
       <c r="I21" s="22" t="s">
@@ -3662,14 +3662,14 @@
       <c r="K21" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="L21" s="118" t="s">
+      <c r="L21" s="96" t="s">
         <v>46</v>
       </c>
       <c r="M21" s="22" t="s">
         <v>73</v>
       </c>
       <c r="O21" s="24"/>
-      <c r="P21" s="118"/>
+      <c r="P21" s="96"/>
       <c r="Q21" s="22"/>
       <c r="S21" s="60"/>
       <c r="T21" s="21"/>
@@ -3678,7 +3678,7 @@
       <c r="X21" s="21"/>
       <c r="Y21" s="61"/>
     </row>
-    <row r="22" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>47</v>
       </c>
@@ -3690,7 +3690,7 @@
       <c r="G22" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="H22" s="118" t="s">
+      <c r="H22" s="96" t="s">
         <v>47</v>
       </c>
       <c r="I22" s="22" t="s">
@@ -3700,7 +3700,7 @@
       <c r="K22" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="L22" s="118" t="s">
+      <c r="L22" s="96" t="s">
         <v>47</v>
       </c>
       <c r="M22" s="22" t="s">
@@ -3710,7 +3710,7 @@
       <c r="O22" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="P22" s="118" t="s">
+      <c r="P22" s="96" t="s">
         <v>47</v>
       </c>
       <c r="Q22" s="22" t="s">
@@ -3733,7 +3733,7 @@
       <c r="AF22"/>
       <c r="AG22"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>48</v>
       </c>
@@ -3744,7 +3744,7 @@
       <c r="G23" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="118" t="s">
+      <c r="H23" s="96" t="s">
         <v>49</v>
       </c>
       <c r="I23" s="22" t="s">
@@ -3753,14 +3753,14 @@
       <c r="K23" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="L23" s="118" t="s">
+      <c r="L23" s="96" t="s">
         <v>49</v>
       </c>
       <c r="M23" s="22" t="s">
         <v>73</v>
       </c>
       <c r="O23" s="24"/>
-      <c r="P23" s="118"/>
+      <c r="P23" s="96"/>
       <c r="Q23" s="22"/>
       <c r="S23" s="60"/>
       <c r="T23" s="21"/>
@@ -3769,7 +3769,7 @@
       <c r="X23" s="21"/>
       <c r="Y23" s="61"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>50</v>
       </c>
@@ -3780,19 +3780,19 @@
       <c r="G24" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="118" t="s">
+      <c r="H24" s="96" t="s">
         <v>50</v>
       </c>
       <c r="I24" s="22" t="s">
         <v>73</v>
       </c>
       <c r="K24" s="24"/>
-      <c r="L24" s="118"/>
+      <c r="L24" s="96"/>
       <c r="M24" s="22"/>
       <c r="O24" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="P24" s="118" t="s">
+      <c r="P24" s="96" t="s">
         <v>50</v>
       </c>
       <c r="Q24" s="22" t="s">
@@ -3805,7 +3805,7 @@
       <c r="X24" s="21"/>
       <c r="Y24" s="61"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>51</v>
       </c>
@@ -3816,17 +3816,17 @@
       <c r="G25" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="118" t="s">
+      <c r="H25" s="96" t="s">
         <v>51</v>
       </c>
       <c r="I25" s="22" t="s">
         <v>73</v>
       </c>
       <c r="K25" s="24"/>
-      <c r="L25" s="118"/>
+      <c r="L25" s="96"/>
       <c r="M25" s="22"/>
       <c r="O25" s="24"/>
-      <c r="P25" s="118"/>
+      <c r="P25" s="96"/>
       <c r="Q25" s="22"/>
       <c r="S25" s="58"/>
       <c r="T25" s="15"/>
@@ -3835,7 +3835,7 @@
       <c r="X25" s="21"/>
       <c r="Y25" s="61"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>62</v>
       </c>
@@ -3846,17 +3846,17 @@
       <c r="G26" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="H26" s="118" t="s">
+      <c r="H26" s="96" t="s">
         <v>76</v>
       </c>
       <c r="I26" s="22" t="s">
         <v>73</v>
       </c>
       <c r="K26" s="24"/>
-      <c r="L26" s="118"/>
+      <c r="L26" s="96"/>
       <c r="M26" s="22"/>
       <c r="O26" s="24"/>
-      <c r="P26" s="118"/>
+      <c r="P26" s="96"/>
       <c r="Q26" s="22"/>
       <c r="S26" s="58"/>
       <c r="T26" s="15"/>
@@ -3865,7 +3865,7 @@
       <c r="X26" s="21"/>
       <c r="Y26" s="61"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>63</v>
       </c>
@@ -3876,7 +3876,7 @@
       <c r="G27" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="H27" s="118" t="s">
+      <c r="H27" s="96" t="s">
         <v>75</v>
       </c>
       <c r="I27" s="22" t="s">
@@ -3885,7 +3885,7 @@
       <c r="K27" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="L27" s="118" t="s">
+      <c r="L27" s="96" t="s">
         <v>75</v>
       </c>
       <c r="M27" s="22" t="s">
@@ -3894,7 +3894,7 @@
       <c r="O27" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="P27" s="118" t="s">
+      <c r="P27" s="96" t="s">
         <v>75</v>
       </c>
       <c r="Q27" s="22" t="s">
@@ -3907,20 +3907,20 @@
       <c r="X27" s="21"/>
       <c r="Y27" s="61"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="17"/>
       <c r="C28" s="18"/>
       <c r="D28" s="19"/>
       <c r="E28" s="20"/>
       <c r="G28" s="24"/>
-      <c r="H28" s="118"/>
+      <c r="H28" s="96"/>
       <c r="I28" s="22"/>
       <c r="K28" s="24"/>
-      <c r="L28" s="118"/>
+      <c r="L28" s="96"/>
       <c r="M28" s="22"/>
       <c r="O28" s="24"/>
-      <c r="P28" s="118"/>
+      <c r="P28" s="96"/>
       <c r="Q28" s="22"/>
       <c r="S28" s="58"/>
       <c r="T28" s="15"/>
@@ -3929,20 +3929,20 @@
       <c r="X28" s="21"/>
       <c r="Y28" s="61"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="17"/>
       <c r="C29" s="18"/>
       <c r="D29" s="19"/>
       <c r="E29" s="20"/>
       <c r="G29" s="24"/>
-      <c r="H29" s="118"/>
+      <c r="H29" s="96"/>
       <c r="I29" s="22"/>
       <c r="K29" s="24"/>
-      <c r="L29" s="118"/>
+      <c r="L29" s="96"/>
       <c r="M29" s="22"/>
       <c r="O29" s="24"/>
-      <c r="P29" s="118"/>
+      <c r="P29" s="96"/>
       <c r="Q29" s="22"/>
       <c r="S29" s="58"/>
       <c r="T29" s="15"/>
@@ -3951,20 +3951,20 @@
       <c r="X29" s="21"/>
       <c r="Y29" s="61"/>
     </row>
-    <row r="30" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="25"/>
       <c r="B30" s="26"/>
       <c r="C30" s="27"/>
       <c r="D30" s="28"/>
       <c r="E30" s="29"/>
       <c r="G30" s="30"/>
-      <c r="H30" s="119"/>
+      <c r="H30" s="97"/>
       <c r="I30" s="31"/>
       <c r="K30" s="30"/>
-      <c r="L30" s="119"/>
+      <c r="L30" s="97"/>
       <c r="M30" s="31"/>
       <c r="O30" s="30"/>
-      <c r="P30" s="119"/>
+      <c r="P30" s="97"/>
       <c r="Q30" s="31"/>
       <c r="S30" s="63"/>
       <c r="T30" s="64"/>
@@ -3973,7 +3973,7 @@
       <c r="X30" s="21"/>
       <c r="Y30" s="61"/>
     </row>
-    <row r="31" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G31" s="32"/>
       <c r="I31" s="33"/>
       <c r="K31" s="32"/>
@@ -3985,7 +3985,7 @@
       <c r="W31" s="32"/>
       <c r="Y31" s="33"/>
     </row>
-    <row r="32" spans="1:33" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="90" t="s">
         <v>93</v>
       </c>
@@ -3993,33 +3993,33 @@
       <c r="C32" s="41"/>
       <c r="D32" s="41"/>
       <c r="E32" s="41"/>
-      <c r="G32" s="106" t="s">
+      <c r="G32" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="107"/>
-      <c r="I32" s="108"/>
-      <c r="K32" s="106" t="s">
+      <c r="H32" s="99"/>
+      <c r="I32" s="100"/>
+      <c r="K32" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="L32" s="107"/>
-      <c r="M32" s="108"/>
-      <c r="O32" s="109" t="s">
+      <c r="L32" s="99"/>
+      <c r="M32" s="100"/>
+      <c r="O32" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="P32" s="110"/>
-      <c r="Q32" s="111"/>
-      <c r="S32" s="112" t="s">
+      <c r="P32" s="102"/>
+      <c r="Q32" s="103"/>
+      <c r="S32" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="T32" s="113"/>
-      <c r="U32" s="114"/>
-      <c r="W32" s="112" t="s">
+      <c r="T32" s="105"/>
+      <c r="U32" s="106"/>
+      <c r="W32" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="X32" s="113"/>
-      <c r="Y32" s="114"/>
-    </row>
-    <row r="33" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="X32" s="105"/>
+      <c r="Y32" s="106"/>
+    </row>
+    <row r="33" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A33" s="42" t="s">
         <v>92</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>91</v>
       </c>
@@ -4090,13 +4090,13 @@
         <v>88</v>
       </c>
       <c r="G34" s="24"/>
-      <c r="H34" s="118"/>
+      <c r="H34" s="96"/>
       <c r="I34" s="22"/>
       <c r="K34" s="24"/>
-      <c r="L34" s="118"/>
+      <c r="L34" s="96"/>
       <c r="M34" s="22"/>
       <c r="O34" s="24"/>
-      <c r="P34" s="118"/>
+      <c r="P34" s="96"/>
       <c r="Q34" s="22"/>
       <c r="S34" s="60"/>
       <c r="T34" s="21"/>
@@ -4105,7 +4105,7 @@
       <c r="X34" s="21"/>
       <c r="Y34" s="61"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>80</v>
       </c>
@@ -4114,13 +4114,13 @@
       <c r="D35" s="19"/>
       <c r="E35" s="20"/>
       <c r="G35" s="24"/>
-      <c r="H35" s="118"/>
+      <c r="H35" s="96"/>
       <c r="I35" s="22"/>
       <c r="K35" s="24"/>
-      <c r="L35" s="118"/>
+      <c r="L35" s="96"/>
       <c r="M35" s="22"/>
       <c r="O35" s="24"/>
-      <c r="P35" s="118"/>
+      <c r="P35" s="96"/>
       <c r="Q35" s="22"/>
       <c r="S35" s="60"/>
       <c r="T35" s="21"/>
@@ -4129,7 +4129,7 @@
       <c r="X35" s="21"/>
       <c r="Y35" s="61"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>81</v>
       </c>
@@ -4138,13 +4138,13 @@
       <c r="D36" s="19"/>
       <c r="E36" s="20"/>
       <c r="G36" s="24"/>
-      <c r="H36" s="118"/>
+      <c r="H36" s="96"/>
       <c r="I36" s="22"/>
       <c r="K36" s="24"/>
-      <c r="L36" s="118"/>
+      <c r="L36" s="96"/>
       <c r="M36" s="22"/>
       <c r="O36" s="24"/>
-      <c r="P36" s="118"/>
+      <c r="P36" s="96"/>
       <c r="Q36" s="22"/>
       <c r="S36" s="60"/>
       <c r="T36" s="21"/>
@@ -4153,7 +4153,7 @@
       <c r="X36" s="21"/>
       <c r="Y36" s="61"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>82</v>
       </c>
@@ -4162,13 +4162,13 @@
       <c r="D37" s="19"/>
       <c r="E37" s="20"/>
       <c r="G37" s="24"/>
-      <c r="H37" s="118"/>
+      <c r="H37" s="96"/>
       <c r="I37" s="22"/>
       <c r="K37" s="24"/>
-      <c r="L37" s="118"/>
+      <c r="L37" s="96"/>
       <c r="M37" s="22"/>
       <c r="O37" s="24"/>
-      <c r="P37" s="118"/>
+      <c r="P37" s="96"/>
       <c r="Q37" s="22"/>
       <c r="S37" s="60"/>
       <c r="T37" s="21"/>
@@ -4177,7 +4177,7 @@
       <c r="X37" s="21"/>
       <c r="Y37" s="61"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>83</v>
       </c>
@@ -4186,13 +4186,13 @@
       <c r="D38" s="19"/>
       <c r="E38" s="20"/>
       <c r="G38" s="24"/>
-      <c r="H38" s="118"/>
+      <c r="H38" s="96"/>
       <c r="I38" s="22"/>
       <c r="K38" s="24"/>
-      <c r="L38" s="118"/>
+      <c r="L38" s="96"/>
       <c r="M38" s="22"/>
       <c r="O38" s="24"/>
-      <c r="P38" s="118"/>
+      <c r="P38" s="96"/>
       <c r="Q38" s="22"/>
       <c r="S38" s="60"/>
       <c r="T38" s="21"/>
@@ -4201,7 +4201,7 @@
       <c r="X38" s="21"/>
       <c r="Y38" s="61"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
         <v>84</v>
       </c>
@@ -4210,13 +4210,13 @@
       <c r="D39" s="19"/>
       <c r="E39" s="20"/>
       <c r="G39" s="24"/>
-      <c r="H39" s="118"/>
+      <c r="H39" s="96"/>
       <c r="I39" s="22"/>
       <c r="K39" s="24"/>
-      <c r="L39" s="118"/>
+      <c r="L39" s="96"/>
       <c r="M39" s="22"/>
       <c r="O39" s="24"/>
-      <c r="P39" s="118"/>
+      <c r="P39" s="96"/>
       <c r="Q39" s="22"/>
       <c r="S39" s="60"/>
       <c r="T39" s="21"/>
@@ -4225,7 +4225,7 @@
       <c r="X39" s="21"/>
       <c r="Y39" s="61"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
         <v>85</v>
       </c>
@@ -4234,13 +4234,13 @@
       <c r="D40" s="19"/>
       <c r="E40" s="20"/>
       <c r="G40" s="24"/>
-      <c r="H40" s="118"/>
+      <c r="H40" s="96"/>
       <c r="I40" s="22"/>
       <c r="K40" s="24"/>
-      <c r="L40" s="118"/>
+      <c r="L40" s="96"/>
       <c r="M40" s="22"/>
       <c r="O40" s="24"/>
-      <c r="P40" s="118"/>
+      <c r="P40" s="96"/>
       <c r="Q40" s="22"/>
       <c r="S40" s="60"/>
       <c r="T40" s="21"/>
@@ -4249,7 +4249,7 @@
       <c r="X40" s="21"/>
       <c r="Y40" s="61"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
         <v>86</v>
       </c>
@@ -4258,13 +4258,13 @@
       <c r="D41" s="19"/>
       <c r="E41" s="20"/>
       <c r="G41" s="24"/>
-      <c r="H41" s="118"/>
+      <c r="H41" s="96"/>
       <c r="I41" s="22"/>
       <c r="K41" s="24"/>
-      <c r="L41" s="118"/>
+      <c r="L41" s="96"/>
       <c r="M41" s="22"/>
       <c r="O41" s="24"/>
-      <c r="P41" s="118"/>
+      <c r="P41" s="96"/>
       <c r="Q41" s="22"/>
       <c r="S41" s="60"/>
       <c r="T41" s="21"/>
@@ -4273,7 +4273,7 @@
       <c r="X41" s="21"/>
       <c r="Y41" s="61"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
         <v>87</v>
       </c>
@@ -4282,13 +4282,13 @@
       <c r="D42" s="19"/>
       <c r="E42" s="20"/>
       <c r="G42" s="24"/>
-      <c r="H42" s="118"/>
+      <c r="H42" s="96"/>
       <c r="I42" s="22"/>
       <c r="K42" s="24"/>
-      <c r="L42" s="118"/>
+      <c r="L42" s="96"/>
       <c r="M42" s="22"/>
       <c r="O42" s="24"/>
-      <c r="P42" s="118"/>
+      <c r="P42" s="96"/>
       <c r="Q42" s="22"/>
       <c r="S42" s="60"/>
       <c r="T42" s="21"/>
@@ -4297,7 +4297,7 @@
       <c r="X42" s="21"/>
       <c r="Y42" s="61"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
         <v>89</v>
       </c>
@@ -4306,13 +4306,13 @@
       <c r="D43" s="19"/>
       <c r="E43" s="20"/>
       <c r="G43" s="24"/>
-      <c r="H43" s="118"/>
+      <c r="H43" s="96"/>
       <c r="I43" s="22"/>
       <c r="K43" s="24"/>
-      <c r="L43" s="118"/>
+      <c r="L43" s="96"/>
       <c r="M43" s="22"/>
       <c r="O43" s="24"/>
-      <c r="P43" s="118"/>
+      <c r="P43" s="96"/>
       <c r="Q43" s="22"/>
       <c r="S43" s="60"/>
       <c r="T43" s="21"/>
@@ -4321,7 +4321,7 @@
       <c r="X43" s="21"/>
       <c r="Y43" s="61"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
         <v>90</v>
       </c>
@@ -4330,13 +4330,13 @@
       <c r="D44" s="19"/>
       <c r="E44" s="20"/>
       <c r="G44" s="24"/>
-      <c r="H44" s="118"/>
+      <c r="H44" s="96"/>
       <c r="I44" s="22"/>
       <c r="K44" s="24"/>
-      <c r="L44" s="118"/>
+      <c r="L44" s="96"/>
       <c r="M44" s="22"/>
       <c r="O44" s="24"/>
-      <c r="P44" s="118"/>
+      <c r="P44" s="96"/>
       <c r="Q44" s="22"/>
       <c r="S44" s="58"/>
       <c r="T44" s="15"/>
@@ -4345,20 +4345,20 @@
       <c r="X44" s="15"/>
       <c r="Y44" s="59"/>
     </row>
-    <row r="45" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="14"/>
       <c r="B45" s="84"/>
       <c r="C45" s="85"/>
       <c r="D45" s="84"/>
       <c r="E45" s="86"/>
       <c r="G45" s="30"/>
-      <c r="H45" s="119"/>
+      <c r="H45" s="97"/>
       <c r="I45" s="31"/>
       <c r="K45" s="30"/>
-      <c r="L45" s="119"/>
+      <c r="L45" s="97"/>
       <c r="M45" s="31"/>
       <c r="O45" s="30"/>
-      <c r="P45" s="119"/>
+      <c r="P45" s="97"/>
       <c r="Q45" s="31"/>
       <c r="S45" s="63"/>
       <c r="T45" s="64"/>
@@ -4367,7 +4367,7 @@
       <c r="X45" s="64"/>
       <c r="Y45" s="65"/>
     </row>
-    <row r="46" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="48" t="s">
         <v>79</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
         <v>80</v>
       </c>
@@ -4434,13 +4434,13 @@
       <c r="D47" s="19"/>
       <c r="E47" s="20"/>
       <c r="G47" s="24"/>
-      <c r="H47" s="118"/>
+      <c r="H47" s="96"/>
       <c r="I47" s="22"/>
       <c r="K47" s="24"/>
-      <c r="L47" s="118"/>
+      <c r="L47" s="96"/>
       <c r="M47" s="22"/>
       <c r="O47" s="24"/>
-      <c r="P47" s="118"/>
+      <c r="P47" s="96"/>
       <c r="Q47" s="22"/>
       <c r="S47" s="73"/>
       <c r="T47" s="74"/>
@@ -4449,7 +4449,7 @@
       <c r="X47" s="74"/>
       <c r="Y47" s="75"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
         <v>81</v>
       </c>
@@ -4458,13 +4458,13 @@
       <c r="D48" s="19"/>
       <c r="E48" s="20"/>
       <c r="G48" s="24"/>
-      <c r="H48" s="118"/>
+      <c r="H48" s="96"/>
       <c r="I48" s="22"/>
       <c r="K48" s="24"/>
-      <c r="L48" s="118"/>
+      <c r="L48" s="96"/>
       <c r="M48" s="22"/>
       <c r="O48" s="24"/>
-      <c r="P48" s="118"/>
+      <c r="P48" s="96"/>
       <c r="Q48" s="22"/>
       <c r="S48" s="60"/>
       <c r="T48" s="21"/>
@@ -4473,7 +4473,7 @@
       <c r="X48" s="21"/>
       <c r="Y48" s="61"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
         <v>82</v>
       </c>
@@ -4482,13 +4482,13 @@
       <c r="D49" s="19"/>
       <c r="E49" s="20"/>
       <c r="G49" s="24"/>
-      <c r="H49" s="118"/>
+      <c r="H49" s="96"/>
       <c r="I49" s="22"/>
       <c r="K49" s="24"/>
-      <c r="L49" s="118"/>
+      <c r="L49" s="96"/>
       <c r="M49" s="22"/>
       <c r="O49" s="24"/>
-      <c r="P49" s="118"/>
+      <c r="P49" s="96"/>
       <c r="Q49" s="22"/>
       <c r="S49" s="60"/>
       <c r="T49" s="21"/>
@@ -4497,7 +4497,7 @@
       <c r="X49" s="21"/>
       <c r="Y49" s="61"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
         <v>83</v>
       </c>
@@ -4506,13 +4506,13 @@
       <c r="D50" s="19"/>
       <c r="E50" s="20"/>
       <c r="G50" s="24"/>
-      <c r="H50" s="118"/>
+      <c r="H50" s="96"/>
       <c r="I50" s="22"/>
       <c r="K50" s="24"/>
-      <c r="L50" s="118"/>
+      <c r="L50" s="96"/>
       <c r="M50" s="22"/>
       <c r="O50" s="24"/>
-      <c r="P50" s="118"/>
+      <c r="P50" s="96"/>
       <c r="Q50" s="22"/>
       <c r="S50" s="60"/>
       <c r="T50" s="21"/>
@@ -4521,7 +4521,7 @@
       <c r="X50" s="21"/>
       <c r="Y50" s="61"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
         <v>84</v>
       </c>
@@ -4530,13 +4530,13 @@
       <c r="D51" s="19"/>
       <c r="E51" s="20"/>
       <c r="G51" s="24"/>
-      <c r="H51" s="118"/>
+      <c r="H51" s="96"/>
       <c r="I51" s="22"/>
       <c r="K51" s="24"/>
-      <c r="L51" s="118"/>
+      <c r="L51" s="96"/>
       <c r="M51" s="22"/>
       <c r="O51" s="24"/>
-      <c r="P51" s="118"/>
+      <c r="P51" s="96"/>
       <c r="Q51" s="22"/>
       <c r="S51" s="60"/>
       <c r="T51" s="21"/>
@@ -4545,7 +4545,7 @@
       <c r="X51" s="21"/>
       <c r="Y51" s="61"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
         <v>85</v>
       </c>
@@ -4554,13 +4554,13 @@
       <c r="D52" s="19"/>
       <c r="E52" s="20"/>
       <c r="G52" s="24"/>
-      <c r="H52" s="118"/>
+      <c r="H52" s="96"/>
       <c r="I52" s="22"/>
       <c r="K52" s="24"/>
-      <c r="L52" s="118"/>
+      <c r="L52" s="96"/>
       <c r="M52" s="22"/>
       <c r="O52" s="24"/>
-      <c r="P52" s="118"/>
+      <c r="P52" s="96"/>
       <c r="Q52" s="22"/>
       <c r="S52" s="60"/>
       <c r="T52" s="21"/>
@@ -4569,7 +4569,7 @@
       <c r="X52" s="21"/>
       <c r="Y52" s="61"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
         <v>86</v>
       </c>
@@ -4578,13 +4578,13 @@
       <c r="D53" s="19"/>
       <c r="E53" s="20"/>
       <c r="G53" s="24"/>
-      <c r="H53" s="118"/>
+      <c r="H53" s="96"/>
       <c r="I53" s="22"/>
       <c r="K53" s="24"/>
-      <c r="L53" s="118"/>
+      <c r="L53" s="96"/>
       <c r="M53" s="22"/>
       <c r="O53" s="24"/>
-      <c r="P53" s="118"/>
+      <c r="P53" s="96"/>
       <c r="Q53" s="22"/>
       <c r="S53" s="60"/>
       <c r="T53" s="21"/>
@@ -4593,7 +4593,7 @@
       <c r="X53" s="21"/>
       <c r="Y53" s="61"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
         <v>87</v>
       </c>
@@ -4602,13 +4602,13 @@
       <c r="D54" s="19"/>
       <c r="E54" s="20"/>
       <c r="G54" s="24"/>
-      <c r="H54" s="118"/>
+      <c r="H54" s="96"/>
       <c r="I54" s="22"/>
       <c r="K54" s="24"/>
-      <c r="L54" s="118"/>
+      <c r="L54" s="96"/>
       <c r="M54" s="22"/>
       <c r="O54" s="24"/>
-      <c r="P54" s="118"/>
+      <c r="P54" s="96"/>
       <c r="Q54" s="22"/>
       <c r="S54" s="60"/>
       <c r="T54" s="21"/>
@@ -4617,7 +4617,7 @@
       <c r="X54" s="21"/>
       <c r="Y54" s="61"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
         <v>89</v>
       </c>
@@ -4626,13 +4626,13 @@
       <c r="D55" s="19"/>
       <c r="E55" s="20"/>
       <c r="G55" s="24"/>
-      <c r="H55" s="118"/>
+      <c r="H55" s="96"/>
       <c r="I55" s="22"/>
       <c r="K55" s="24"/>
-      <c r="L55" s="118"/>
+      <c r="L55" s="96"/>
       <c r="M55" s="22"/>
       <c r="O55" s="24"/>
-      <c r="P55" s="118"/>
+      <c r="P55" s="96"/>
       <c r="Q55" s="22"/>
       <c r="S55" s="60"/>
       <c r="T55" s="21"/>
@@ -4641,7 +4641,7 @@
       <c r="X55" s="21"/>
       <c r="Y55" s="61"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" s="14" t="s">
         <v>90</v>
       </c>
@@ -4650,13 +4650,13 @@
       <c r="D56" s="19"/>
       <c r="E56" s="20"/>
       <c r="G56" s="24"/>
-      <c r="H56" s="118"/>
+      <c r="H56" s="96"/>
       <c r="I56" s="22"/>
       <c r="K56" s="24"/>
-      <c r="L56" s="118"/>
+      <c r="L56" s="96"/>
       <c r="M56" s="22"/>
       <c r="O56" s="24"/>
-      <c r="P56" s="118"/>
+      <c r="P56" s="96"/>
       <c r="Q56" s="22"/>
       <c r="S56" s="58"/>
       <c r="T56" s="15"/>
@@ -4665,20 +4665,20 @@
       <c r="X56" s="15"/>
       <c r="Y56" s="59"/>
     </row>
-    <row r="57" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="87"/>
       <c r="B57" s="45"/>
       <c r="C57" s="46"/>
       <c r="D57" s="45"/>
       <c r="E57" s="47"/>
       <c r="G57" s="30"/>
-      <c r="H57" s="119"/>
+      <c r="H57" s="97"/>
       <c r="I57" s="31"/>
       <c r="K57" s="30"/>
-      <c r="L57" s="119"/>
+      <c r="L57" s="97"/>
       <c r="M57" s="31"/>
       <c r="O57" s="30"/>
-      <c r="P57" s="119"/>
+      <c r="P57" s="97"/>
       <c r="Q57" s="31"/>
       <c r="S57" s="63"/>
       <c r="T57" s="64"/>
@@ -4687,7 +4687,7 @@
       <c r="X57" s="64"/>
       <c r="Y57" s="65"/>
     </row>
-    <row r="58" spans="1:25" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G58" s="32"/>
       <c r="I58" s="33"/>
       <c r="K58" s="32"/>
@@ -4699,7 +4699,7 @@
       <c r="W58" s="32"/>
       <c r="Y58" s="33"/>
     </row>
-    <row r="59" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="91" t="s">
         <v>57</v>
       </c>
@@ -4757,22 +4757,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A60" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="B60" s="99"/>
-      <c r="C60" s="100"/>
-      <c r="D60" s="101"/>
+      <c r="B60" s="117"/>
+      <c r="C60" s="118"/>
+      <c r="D60" s="119"/>
       <c r="E60" s="36"/>
       <c r="G60" s="24"/>
-      <c r="H60" s="118"/>
+      <c r="H60" s="96"/>
       <c r="I60" s="22"/>
       <c r="K60" s="24"/>
-      <c r="L60" s="118"/>
+      <c r="L60" s="96"/>
       <c r="M60" s="22"/>
       <c r="O60" s="24"/>
-      <c r="P60" s="118"/>
+      <c r="P60" s="96"/>
       <c r="Q60" s="22"/>
       <c r="S60" s="60"/>
       <c r="T60" s="21"/>
@@ -4781,24 +4781,24 @@
       <c r="X60" s="21"/>
       <c r="Y60" s="61"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="93" t="s">
+      <c r="B61" s="111" t="s">
         <v>68</v>
       </c>
-      <c r="C61" s="94"/>
-      <c r="D61" s="95"/>
+      <c r="C61" s="112"/>
+      <c r="D61" s="113"/>
       <c r="E61" s="38"/>
       <c r="G61" s="24"/>
-      <c r="H61" s="118"/>
+      <c r="H61" s="96"/>
       <c r="I61" s="22"/>
       <c r="K61" s="24"/>
-      <c r="L61" s="118"/>
+      <c r="L61" s="96"/>
       <c r="M61" s="22"/>
       <c r="O61" s="24"/>
-      <c r="P61" s="118"/>
+      <c r="P61" s="96"/>
       <c r="Q61" s="22"/>
       <c r="S61" s="60"/>
       <c r="T61" s="21"/>
@@ -4807,24 +4807,24 @@
       <c r="X61" s="21"/>
       <c r="Y61" s="61"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="93" t="s">
+      <c r="B62" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="C62" s="94"/>
-      <c r="D62" s="95"/>
+      <c r="C62" s="112"/>
+      <c r="D62" s="113"/>
       <c r="E62" s="38"/>
       <c r="G62" s="24"/>
-      <c r="H62" s="118"/>
+      <c r="H62" s="96"/>
       <c r="I62" s="22"/>
       <c r="K62" s="24"/>
-      <c r="L62" s="118"/>
+      <c r="L62" s="96"/>
       <c r="M62" s="22"/>
       <c r="O62" s="24"/>
-      <c r="P62" s="118"/>
+      <c r="P62" s="96"/>
       <c r="Q62" s="22"/>
       <c r="S62" s="60"/>
       <c r="T62" s="21"/>
@@ -4833,24 +4833,24 @@
       <c r="X62" s="21"/>
       <c r="Y62" s="61"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="93" t="s">
+      <c r="B63" s="111" t="s">
         <v>70</v>
       </c>
-      <c r="C63" s="94"/>
-      <c r="D63" s="95"/>
+      <c r="C63" s="112"/>
+      <c r="D63" s="113"/>
       <c r="E63" s="38"/>
       <c r="G63" s="24"/>
-      <c r="H63" s="118"/>
+      <c r="H63" s="96"/>
       <c r="I63" s="22"/>
       <c r="K63" s="24"/>
-      <c r="L63" s="118"/>
+      <c r="L63" s="96"/>
       <c r="M63" s="22"/>
       <c r="O63" s="24"/>
-      <c r="P63" s="118"/>
+      <c r="P63" s="96"/>
       <c r="Q63" s="22"/>
       <c r="S63" s="60"/>
       <c r="T63" s="21"/>
@@ -4859,24 +4859,24 @@
       <c r="X63" s="21"/>
       <c r="Y63" s="61"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="93" t="s">
+      <c r="B64" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="C64" s="94"/>
-      <c r="D64" s="95"/>
+      <c r="C64" s="112"/>
+      <c r="D64" s="113"/>
       <c r="E64" s="38"/>
       <c r="G64" s="24"/>
-      <c r="H64" s="118"/>
+      <c r="H64" s="96"/>
       <c r="I64" s="22"/>
       <c r="K64" s="24"/>
-      <c r="L64" s="118"/>
+      <c r="L64" s="96"/>
       <c r="M64" s="22"/>
       <c r="O64" s="24"/>
-      <c r="P64" s="118"/>
+      <c r="P64" s="96"/>
       <c r="Q64" s="22"/>
       <c r="S64" s="60"/>
       <c r="T64" s="21"/>
@@ -4885,20 +4885,20 @@
       <c r="X64" s="21"/>
       <c r="Y64" s="61"/>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" s="37"/>
-      <c r="B65" s="93"/>
-      <c r="C65" s="94"/>
-      <c r="D65" s="95"/>
+      <c r="B65" s="111"/>
+      <c r="C65" s="112"/>
+      <c r="D65" s="113"/>
       <c r="E65" s="38"/>
       <c r="G65" s="24"/>
-      <c r="H65" s="118"/>
+      <c r="H65" s="96"/>
       <c r="I65" s="22"/>
       <c r="K65" s="24"/>
-      <c r="L65" s="118"/>
+      <c r="L65" s="96"/>
       <c r="M65" s="22"/>
       <c r="O65" s="24"/>
-      <c r="P65" s="118"/>
+      <c r="P65" s="96"/>
       <c r="Q65" s="22"/>
       <c r="S65" s="60"/>
       <c r="T65" s="21"/>
@@ -4907,20 +4907,20 @@
       <c r="X65" s="21"/>
       <c r="Y65" s="61"/>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66" s="37"/>
-      <c r="B66" s="93"/>
-      <c r="C66" s="94"/>
-      <c r="D66" s="95"/>
+      <c r="B66" s="111"/>
+      <c r="C66" s="112"/>
+      <c r="D66" s="113"/>
       <c r="E66" s="38"/>
       <c r="G66" s="24"/>
-      <c r="H66" s="118"/>
+      <c r="H66" s="96"/>
       <c r="I66" s="22"/>
       <c r="K66" s="24"/>
-      <c r="L66" s="118"/>
+      <c r="L66" s="96"/>
       <c r="M66" s="22"/>
       <c r="O66" s="24"/>
-      <c r="P66" s="118"/>
+      <c r="P66" s="96"/>
       <c r="Q66" s="22"/>
       <c r="S66" s="60"/>
       <c r="T66" s="21"/>
@@ -4929,20 +4929,20 @@
       <c r="X66" s="21"/>
       <c r="Y66" s="61"/>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" s="37"/>
-      <c r="B67" s="93"/>
-      <c r="C67" s="94"/>
-      <c r="D67" s="95"/>
+      <c r="B67" s="111"/>
+      <c r="C67" s="112"/>
+      <c r="D67" s="113"/>
       <c r="E67" s="38"/>
       <c r="G67" s="24"/>
-      <c r="H67" s="118"/>
+      <c r="H67" s="96"/>
       <c r="I67" s="22"/>
       <c r="K67" s="24"/>
-      <c r="L67" s="118"/>
+      <c r="L67" s="96"/>
       <c r="M67" s="22"/>
       <c r="O67" s="24"/>
-      <c r="P67" s="118"/>
+      <c r="P67" s="96"/>
       <c r="Q67" s="22"/>
       <c r="S67" s="60"/>
       <c r="T67" s="21"/>
@@ -4951,20 +4951,20 @@
       <c r="X67" s="21"/>
       <c r="Y67" s="61"/>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" s="37"/>
-      <c r="B68" s="93"/>
-      <c r="C68" s="94"/>
-      <c r="D68" s="95"/>
+      <c r="B68" s="111"/>
+      <c r="C68" s="112"/>
+      <c r="D68" s="113"/>
       <c r="E68" s="38"/>
       <c r="G68" s="24"/>
-      <c r="H68" s="118"/>
+      <c r="H68" s="96"/>
       <c r="I68" s="22"/>
       <c r="K68" s="24"/>
-      <c r="L68" s="118"/>
+      <c r="L68" s="96"/>
       <c r="M68" s="22"/>
       <c r="O68" s="24"/>
-      <c r="P68" s="118"/>
+      <c r="P68" s="96"/>
       <c r="Q68" s="22"/>
       <c r="S68" s="60"/>
       <c r="T68" s="21"/>
@@ -4973,20 +4973,20 @@
       <c r="X68" s="21"/>
       <c r="Y68" s="61"/>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69" s="37"/>
-      <c r="B69" s="93"/>
-      <c r="C69" s="94"/>
-      <c r="D69" s="95"/>
+      <c r="B69" s="111"/>
+      <c r="C69" s="112"/>
+      <c r="D69" s="113"/>
       <c r="E69" s="38"/>
       <c r="G69" s="24"/>
-      <c r="H69" s="118"/>
+      <c r="H69" s="96"/>
       <c r="I69" s="22"/>
       <c r="K69" s="24"/>
-      <c r="L69" s="118"/>
+      <c r="L69" s="96"/>
       <c r="M69" s="22"/>
       <c r="O69" s="24"/>
-      <c r="P69" s="118"/>
+      <c r="P69" s="96"/>
       <c r="Q69" s="22"/>
       <c r="S69" s="60"/>
       <c r="T69" s="21"/>
@@ -4995,20 +4995,20 @@
       <c r="X69" s="21"/>
       <c r="Y69" s="61"/>
     </row>
-    <row r="70" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="39"/>
-      <c r="B70" s="96"/>
-      <c r="C70" s="97"/>
-      <c r="D70" s="98"/>
+      <c r="B70" s="114"/>
+      <c r="C70" s="115"/>
+      <c r="D70" s="116"/>
       <c r="E70" s="40"/>
       <c r="G70" s="30"/>
-      <c r="H70" s="119"/>
+      <c r="H70" s="97"/>
       <c r="I70" s="31"/>
       <c r="K70" s="30"/>
-      <c r="L70" s="119"/>
+      <c r="L70" s="97"/>
       <c r="M70" s="31"/>
       <c r="O70" s="30"/>
-      <c r="P70" s="119"/>
+      <c r="P70" s="97"/>
       <c r="Q70" s="31"/>
       <c r="S70" s="63"/>
       <c r="T70" s="64"/>
@@ -5017,7 +5017,7 @@
       <c r="X70" s="64"/>
       <c r="Y70" s="65"/>
     </row>
-    <row r="71" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="A61:E70 W60:Y70 G60:I69 S60:U70 O60:Q69 K60:M69 B60:E60" name="Contact Fields_1"/>
@@ -5026,16 +5026,6 @@
     <protectedRange sqref="A60" name="Questionnaire_1"/>
   </protectedRanges>
   <mergeCells count="21">
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="W32:Y32"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="B68:D68"/>
     <mergeCell ref="B69:D69"/>
@@ -5047,6 +5037,16 @@
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B65:D65"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="W32:Y32"/>
   </mergeCells>
   <conditionalFormatting sqref="A30:E30 A58:E58 S28:U30 B7:E29 S10:U26 K58:M58 O58:Q58 S58:U58 G7:I29 G58:I58 G30 W58:Y58 W10:Y26 W28:Y30 O60:Q69 K60:M69 G60:I69">
     <cfRule type="expression" dxfId="39" priority="169">
@@ -5208,12 +5208,15 @@
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C47:D57 C34:D45 C7:D30" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I47:I57 Y34:Y45 U34:U45 Q34:Q45 M7:M30 I34:I45 Q7:Q30 M34:M45 U47:U57 Y47:Y57 Q47:Q57 Y7:Y30 U7:U30 M47:M57 I7:I30 Q60:Q70 M60:M70 U60:U70 Y60:Y70 I60:I70" xr:uid="{49A96B42-F01C-42A7-A702-E659158DEB0E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I70 Y57 Y45 U45 Q30 M45 U30 Q45 Q57 U57 M57 I45 Y30 I57 M30 U70 Q70 Y70 M70 I30" xr:uid="{49A96B42-F01C-42A7-A702-E659158DEB0E}">
       <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I29 M7:M29 Q7:Q29 U7:U29 Y7:Y29 I34:I44 M34:M44 Q34:Q44 U34:U44 Y34:Y44 Y47:Y56 U47:U56 Q47:Q56 M47:M56 I47:I56 I60:I69 M60:M69 Q60:Q69 U60:U69 Y60:Y69" xr:uid="{C87D8F92-ADC9-4EB5-A9B7-0F7A34FDA6AA}">
+      <formula1>"text,boolean,number,picklist,multipicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Salesforce_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Salesforce_EN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4636E23-CCDA-4AF5-8AD1-557740256644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47966A2-A402-43AD-BB5E-EE39A1108FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="660" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1824,6 +1824,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1850,45 +1889,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2943,30 +2943,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
   <dimension ref="A1:AG71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="1.6640625" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="1.7109375" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="1.6640625" customWidth="1"/>
+    <col min="10" max="10" width="1.7109375" customWidth="1"/>
     <col min="11" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="1.6640625" customWidth="1"/>
+    <col min="14" max="14" width="1.7109375" customWidth="1"/>
     <col min="15" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="1.6640625" customWidth="1"/>
+    <col min="18" max="18" width="1.7109375" customWidth="1"/>
     <col min="19" max="21" width="15" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="1.5546875" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="1.5703125" customWidth="1" outlineLevel="1"/>
     <col min="23" max="25" width="15" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:33" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
@@ -2975,16 +2975,16 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:33" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:33" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:33" ht="61.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" ht="63.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -3023,8 +3023,8 @@
       <c r="X4" s="109"/>
       <c r="Y4" s="110"/>
     </row>
-    <row r="5" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:33" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="92" t="s">
         <v>9</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>95</v>
       </c>
@@ -3116,7 +3116,7 @@
       <c r="X7" s="70"/>
       <c r="Y7" s="71"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>99</v>
       </c>
@@ -3150,7 +3150,7 @@
       <c r="X8" s="94"/>
       <c r="Y8" s="95"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="17"/>
       <c r="C9" s="18"/>
@@ -3172,7 +3172,7 @@
       <c r="X9" s="94"/>
       <c r="Y9" s="95"/>
     </row>
-    <row r="10" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>14</v>
       </c>
@@ -3211,7 +3211,9 @@
       <c r="T10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="U10" s="61"/>
+      <c r="U10" s="61" t="s">
+        <v>73</v>
+      </c>
       <c r="V10"/>
       <c r="W10" s="60"/>
       <c r="X10" s="21"/>
@@ -3225,7 +3227,7 @@
       <c r="AF10"/>
       <c r="AG10"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>17</v>
       </c>
@@ -3260,12 +3262,14 @@
       <c r="T11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="U11" s="61"/>
+      <c r="U11" s="61" t="s">
+        <v>73</v>
+      </c>
       <c r="W11" s="60"/>
       <c r="X11" s="21"/>
       <c r="Y11" s="61"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>21</v>
       </c>
@@ -3301,7 +3305,7 @@
       <c r="X12" s="21"/>
       <c r="Y12" s="61"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>60</v>
       </c>
@@ -3337,7 +3341,7 @@
       <c r="X13" s="21"/>
       <c r="Y13" s="61"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>24</v>
       </c>
@@ -3373,7 +3377,7 @@
       <c r="X14" s="21"/>
       <c r="Y14" s="61"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>27</v>
       </c>
@@ -3415,17 +3419,13 @@
       <c r="X15" s="21"/>
       <c r="Y15" s="61"/>
     </row>
-    <row r="16" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="17"/>
-      <c r="C16" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>96</v>
-      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="20"/>
       <c r="F16"/>
       <c r="G16" s="24" t="s">
@@ -3474,7 +3474,7 @@
       <c r="AF16"/>
       <c r="AG16"/>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>34</v>
       </c>
@@ -3516,7 +3516,7 @@
       <c r="X17" s="21"/>
       <c r="Y17" s="61"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>61</v>
       </c>
@@ -3558,7 +3558,7 @@
       <c r="X18" s="21"/>
       <c r="Y18" s="61"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>41</v>
       </c>
@@ -3600,7 +3600,7 @@
       <c r="X19" s="21"/>
       <c r="Y19" s="61"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>44</v>
       </c>
@@ -3642,7 +3642,7 @@
       <c r="X20" s="21"/>
       <c r="Y20" s="61"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>45</v>
       </c>
@@ -3678,7 +3678,7 @@
       <c r="X21" s="21"/>
       <c r="Y21" s="61"/>
     </row>
-    <row r="22" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>47</v>
       </c>
@@ -3733,7 +3733,7 @@
       <c r="AF22"/>
       <c r="AG22"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>48</v>
       </c>
@@ -3769,7 +3769,7 @@
       <c r="X23" s="21"/>
       <c r="Y23" s="61"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>50</v>
       </c>
@@ -3805,7 +3805,7 @@
       <c r="X24" s="21"/>
       <c r="Y24" s="61"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>51</v>
       </c>
@@ -3835,7 +3835,7 @@
       <c r="X25" s="21"/>
       <c r="Y25" s="61"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>62</v>
       </c>
@@ -3865,7 +3865,7 @@
       <c r="X26" s="21"/>
       <c r="Y26" s="61"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>63</v>
       </c>
@@ -3907,7 +3907,7 @@
       <c r="X27" s="21"/>
       <c r="Y27" s="61"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="17"/>
       <c r="C28" s="18"/>
@@ -3929,7 +3929,7 @@
       <c r="X28" s="21"/>
       <c r="Y28" s="61"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="17"/>
       <c r="C29" s="18"/>
@@ -3951,7 +3951,7 @@
       <c r="X29" s="21"/>
       <c r="Y29" s="61"/>
     </row>
-    <row r="30" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="25"/>
       <c r="B30" s="26"/>
       <c r="C30" s="27"/>
@@ -3973,7 +3973,7 @@
       <c r="X30" s="21"/>
       <c r="Y30" s="61"/>
     </row>
-    <row r="31" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G31" s="32"/>
       <c r="I31" s="33"/>
       <c r="K31" s="32"/>
@@ -3985,7 +3985,7 @@
       <c r="W31" s="32"/>
       <c r="Y31" s="33"/>
     </row>
-    <row r="32" spans="1:33" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:33" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="90" t="s">
         <v>93</v>
       </c>
@@ -3993,33 +3993,33 @@
       <c r="C32" s="41"/>
       <c r="D32" s="41"/>
       <c r="E32" s="41"/>
-      <c r="G32" s="98" t="s">
+      <c r="G32" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="99"/>
-      <c r="I32" s="100"/>
-      <c r="K32" s="98" t="s">
+      <c r="H32" s="112"/>
+      <c r="I32" s="113"/>
+      <c r="K32" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="L32" s="99"/>
-      <c r="M32" s="100"/>
-      <c r="O32" s="101" t="s">
+      <c r="L32" s="112"/>
+      <c r="M32" s="113"/>
+      <c r="O32" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="P32" s="102"/>
-      <c r="Q32" s="103"/>
-      <c r="S32" s="104" t="s">
+      <c r="P32" s="115"/>
+      <c r="Q32" s="116"/>
+      <c r="S32" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="T32" s="105"/>
-      <c r="U32" s="106"/>
-      <c r="W32" s="104" t="s">
+      <c r="T32" s="118"/>
+      <c r="U32" s="119"/>
+      <c r="W32" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="X32" s="105"/>
-      <c r="Y32" s="106"/>
-    </row>
-    <row r="33" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="X32" s="118"/>
+      <c r="Y32" s="119"/>
+    </row>
+    <row r="33" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A33" s="42" t="s">
         <v>92</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>91</v>
       </c>
@@ -4105,7 +4105,7 @@
       <c r="X34" s="21"/>
       <c r="Y34" s="61"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>80</v>
       </c>
@@ -4129,7 +4129,7 @@
       <c r="X35" s="21"/>
       <c r="Y35" s="61"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>81</v>
       </c>
@@ -4153,7 +4153,7 @@
       <c r="X36" s="21"/>
       <c r="Y36" s="61"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>82</v>
       </c>
@@ -4177,7 +4177,7 @@
       <c r="X37" s="21"/>
       <c r="Y37" s="61"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>83</v>
       </c>
@@ -4201,7 +4201,7 @@
       <c r="X38" s="21"/>
       <c r="Y38" s="61"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>84</v>
       </c>
@@ -4225,7 +4225,7 @@
       <c r="X39" s="21"/>
       <c r="Y39" s="61"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>85</v>
       </c>
@@ -4249,7 +4249,7 @@
       <c r="X40" s="21"/>
       <c r="Y40" s="61"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>86</v>
       </c>
@@ -4273,7 +4273,7 @@
       <c r="X41" s="21"/>
       <c r="Y41" s="61"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>87</v>
       </c>
@@ -4297,7 +4297,7 @@
       <c r="X42" s="21"/>
       <c r="Y42" s="61"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>89</v>
       </c>
@@ -4321,7 +4321,7 @@
       <c r="X43" s="21"/>
       <c r="Y43" s="61"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>90</v>
       </c>
@@ -4345,7 +4345,7 @@
       <c r="X44" s="15"/>
       <c r="Y44" s="59"/>
     </row>
-    <row r="45" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
       <c r="B45" s="84"/>
       <c r="C45" s="85"/>
@@ -4367,7 +4367,7 @@
       <c r="X45" s="64"/>
       <c r="Y45" s="65"/>
     </row>
-    <row r="46" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="48" t="s">
         <v>79</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>80</v>
       </c>
@@ -4449,7 +4449,7 @@
       <c r="X47" s="74"/>
       <c r="Y47" s="75"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>81</v>
       </c>
@@ -4473,7 +4473,7 @@
       <c r="X48" s="21"/>
       <c r="Y48" s="61"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>82</v>
       </c>
@@ -4497,7 +4497,7 @@
       <c r="X49" s="21"/>
       <c r="Y49" s="61"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>83</v>
       </c>
@@ -4521,7 +4521,7 @@
       <c r="X50" s="21"/>
       <c r="Y50" s="61"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>84</v>
       </c>
@@ -4545,7 +4545,7 @@
       <c r="X51" s="21"/>
       <c r="Y51" s="61"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>85</v>
       </c>
@@ -4569,7 +4569,7 @@
       <c r="X52" s="21"/>
       <c r="Y52" s="61"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>86</v>
       </c>
@@ -4593,7 +4593,7 @@
       <c r="X53" s="21"/>
       <c r="Y53" s="61"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>87</v>
       </c>
@@ -4617,7 +4617,7 @@
       <c r="X54" s="21"/>
       <c r="Y54" s="61"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>89</v>
       </c>
@@ -4641,7 +4641,7 @@
       <c r="X55" s="21"/>
       <c r="Y55" s="61"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>90</v>
       </c>
@@ -4665,7 +4665,7 @@
       <c r="X56" s="15"/>
       <c r="Y56" s="59"/>
     </row>
-    <row r="57" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="87"/>
       <c r="B57" s="45"/>
       <c r="C57" s="46"/>
@@ -4687,7 +4687,7 @@
       <c r="X57" s="64"/>
       <c r="Y57" s="65"/>
     </row>
-    <row r="58" spans="1:25" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:25" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G58" s="32"/>
       <c r="I58" s="33"/>
       <c r="K58" s="32"/>
@@ -4699,7 +4699,7 @@
       <c r="W58" s="32"/>
       <c r="Y58" s="33"/>
     </row>
-    <row r="59" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="91" t="s">
         <v>57</v>
       </c>
@@ -4757,13 +4757,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A60" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="B60" s="117"/>
-      <c r="C60" s="118"/>
-      <c r="D60" s="119"/>
+      <c r="B60" s="104"/>
+      <c r="C60" s="105"/>
+      <c r="D60" s="106"/>
       <c r="E60" s="36"/>
       <c r="G60" s="24"/>
       <c r="H60" s="96"/>
@@ -4781,15 +4781,15 @@
       <c r="X60" s="21"/>
       <c r="Y60" s="61"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="111" t="s">
+      <c r="B61" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="C61" s="112"/>
-      <c r="D61" s="113"/>
+      <c r="C61" s="99"/>
+      <c r="D61" s="100"/>
       <c r="E61" s="38"/>
       <c r="G61" s="24"/>
       <c r="H61" s="96"/>
@@ -4807,15 +4807,15 @@
       <c r="X61" s="21"/>
       <c r="Y61" s="61"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="111" t="s">
+      <c r="B62" s="98" t="s">
         <v>69</v>
       </c>
-      <c r="C62" s="112"/>
-      <c r="D62" s="113"/>
+      <c r="C62" s="99"/>
+      <c r="D62" s="100"/>
       <c r="E62" s="38"/>
       <c r="G62" s="24"/>
       <c r="H62" s="96"/>
@@ -4833,15 +4833,15 @@
       <c r="X62" s="21"/>
       <c r="Y62" s="61"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="111" t="s">
+      <c r="B63" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="C63" s="112"/>
-      <c r="D63" s="113"/>
+      <c r="C63" s="99"/>
+      <c r="D63" s="100"/>
       <c r="E63" s="38"/>
       <c r="G63" s="24"/>
       <c r="H63" s="96"/>
@@ -4859,15 +4859,15 @@
       <c r="X63" s="21"/>
       <c r="Y63" s="61"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="111" t="s">
+      <c r="B64" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="C64" s="112"/>
-      <c r="D64" s="113"/>
+      <c r="C64" s="99"/>
+      <c r="D64" s="100"/>
       <c r="E64" s="38"/>
       <c r="G64" s="24"/>
       <c r="H64" s="96"/>
@@ -4885,11 +4885,11 @@
       <c r="X64" s="21"/>
       <c r="Y64" s="61"/>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="37"/>
-      <c r="B65" s="111"/>
-      <c r="C65" s="112"/>
-      <c r="D65" s="113"/>
+      <c r="B65" s="98"/>
+      <c r="C65" s="99"/>
+      <c r="D65" s="100"/>
       <c r="E65" s="38"/>
       <c r="G65" s="24"/>
       <c r="H65" s="96"/>
@@ -4907,11 +4907,11 @@
       <c r="X65" s="21"/>
       <c r="Y65" s="61"/>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="37"/>
-      <c r="B66" s="111"/>
-      <c r="C66" s="112"/>
-      <c r="D66" s="113"/>
+      <c r="B66" s="98"/>
+      <c r="C66" s="99"/>
+      <c r="D66" s="100"/>
       <c r="E66" s="38"/>
       <c r="G66" s="24"/>
       <c r="H66" s="96"/>
@@ -4929,11 +4929,11 @@
       <c r="X66" s="21"/>
       <c r="Y66" s="61"/>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="37"/>
-      <c r="B67" s="111"/>
-      <c r="C67" s="112"/>
-      <c r="D67" s="113"/>
+      <c r="B67" s="98"/>
+      <c r="C67" s="99"/>
+      <c r="D67" s="100"/>
       <c r="E67" s="38"/>
       <c r="G67" s="24"/>
       <c r="H67" s="96"/>
@@ -4951,11 +4951,11 @@
       <c r="X67" s="21"/>
       <c r="Y67" s="61"/>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="37"/>
-      <c r="B68" s="111"/>
-      <c r="C68" s="112"/>
-      <c r="D68" s="113"/>
+      <c r="B68" s="98"/>
+      <c r="C68" s="99"/>
+      <c r="D68" s="100"/>
       <c r="E68" s="38"/>
       <c r="G68" s="24"/>
       <c r="H68" s="96"/>
@@ -4973,11 +4973,11 @@
       <c r="X68" s="21"/>
       <c r="Y68" s="61"/>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="37"/>
-      <c r="B69" s="111"/>
-      <c r="C69" s="112"/>
-      <c r="D69" s="113"/>
+      <c r="B69" s="98"/>
+      <c r="C69" s="99"/>
+      <c r="D69" s="100"/>
       <c r="E69" s="38"/>
       <c r="G69" s="24"/>
       <c r="H69" s="96"/>
@@ -4995,11 +4995,11 @@
       <c r="X69" s="21"/>
       <c r="Y69" s="61"/>
     </row>
-    <row r="70" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="39"/>
-      <c r="B70" s="114"/>
-      <c r="C70" s="115"/>
-      <c r="D70" s="116"/>
+      <c r="B70" s="101"/>
+      <c r="C70" s="102"/>
+      <c r="D70" s="103"/>
       <c r="E70" s="40"/>
       <c r="G70" s="30"/>
       <c r="H70" s="97"/>
@@ -5017,7 +5017,7 @@
       <c r="X70" s="64"/>
       <c r="Y70" s="65"/>
     </row>
-    <row r="71" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="A61:E70 W60:Y70 G60:I69 S60:U70 O60:Q69 K60:M69 B60:E60" name="Contact Fields_1"/>
@@ -5026,6 +5026,16 @@
     <protectedRange sqref="A60" name="Questionnaire_1"/>
   </protectedRanges>
   <mergeCells count="21">
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="B68:D68"/>
     <mergeCell ref="B69:D69"/>
@@ -5037,16 +5047,6 @@
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B65:D65"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="W32:Y32"/>
   </mergeCells>
   <conditionalFormatting sqref="A30:E30 A58:E58 S28:U30 B7:E29 S10:U26 K58:M58 O58:Q58 S58:U58 G7:I29 G58:I58 G30 W58:Y58 W10:Y26 W28:Y30 O60:Q69 K60:M69 G60:I69">
     <cfRule type="expression" dxfId="39" priority="169">

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_Salesforce_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_Salesforce_EN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47966A2-A402-43AD-BB5E-EE39A1108FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C5986A-1468-48D1-A56F-85EF2714CFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -1824,6 +1824,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1850,45 +1889,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2943,8 +2943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
   <dimension ref="A1:AG71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -3993,31 +3993,31 @@
       <c r="C32" s="41"/>
       <c r="D32" s="41"/>
       <c r="E32" s="41"/>
-      <c r="G32" s="111" t="s">
+      <c r="G32" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="112"/>
-      <c r="I32" s="113"/>
-      <c r="K32" s="111" t="s">
+      <c r="H32" s="99"/>
+      <c r="I32" s="100"/>
+      <c r="K32" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="L32" s="112"/>
-      <c r="M32" s="113"/>
-      <c r="O32" s="114" t="s">
+      <c r="L32" s="99"/>
+      <c r="M32" s="100"/>
+      <c r="O32" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="P32" s="115"/>
-      <c r="Q32" s="116"/>
-      <c r="S32" s="117" t="s">
+      <c r="P32" s="102"/>
+      <c r="Q32" s="103"/>
+      <c r="S32" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="T32" s="118"/>
-      <c r="U32" s="119"/>
-      <c r="W32" s="117" t="s">
+      <c r="T32" s="105"/>
+      <c r="U32" s="106"/>
+      <c r="W32" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="X32" s="118"/>
-      <c r="Y32" s="119"/>
+      <c r="X32" s="105"/>
+      <c r="Y32" s="106"/>
     </row>
     <row r="33" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A33" s="42" t="s">
@@ -4761,9 +4761,9 @@
       <c r="A60" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="B60" s="104"/>
-      <c r="C60" s="105"/>
-      <c r="D60" s="106"/>
+      <c r="B60" s="117"/>
+      <c r="C60" s="118"/>
+      <c r="D60" s="119"/>
       <c r="E60" s="36"/>
       <c r="G60" s="24"/>
       <c r="H60" s="96"/>
@@ -4785,11 +4785,11 @@
       <c r="A61" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="98" t="s">
+      <c r="B61" s="111" t="s">
         <v>68</v>
       </c>
-      <c r="C61" s="99"/>
-      <c r="D61" s="100"/>
+      <c r="C61" s="112"/>
+      <c r="D61" s="113"/>
       <c r="E61" s="38"/>
       <c r="G61" s="24"/>
       <c r="H61" s="96"/>
@@ -4811,11 +4811,11 @@
       <c r="A62" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="98" t="s">
+      <c r="B62" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="C62" s="99"/>
-      <c r="D62" s="100"/>
+      <c r="C62" s="112"/>
+      <c r="D62" s="113"/>
       <c r="E62" s="38"/>
       <c r="G62" s="24"/>
       <c r="H62" s="96"/>
@@ -4837,11 +4837,11 @@
       <c r="A63" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="98" t="s">
+      <c r="B63" s="111" t="s">
         <v>70</v>
       </c>
-      <c r="C63" s="99"/>
-      <c r="D63" s="100"/>
+      <c r="C63" s="112"/>
+      <c r="D63" s="113"/>
       <c r="E63" s="38"/>
       <c r="G63" s="24"/>
       <c r="H63" s="96"/>
@@ -4863,11 +4863,11 @@
       <c r="A64" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="98" t="s">
+      <c r="B64" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="C64" s="99"/>
-      <c r="D64" s="100"/>
+      <c r="C64" s="112"/>
+      <c r="D64" s="113"/>
       <c r="E64" s="38"/>
       <c r="G64" s="24"/>
       <c r="H64" s="96"/>
@@ -4887,9 +4887,9 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="37"/>
-      <c r="B65" s="98"/>
-      <c r="C65" s="99"/>
-      <c r="D65" s="100"/>
+      <c r="B65" s="111"/>
+      <c r="C65" s="112"/>
+      <c r="D65" s="113"/>
       <c r="E65" s="38"/>
       <c r="G65" s="24"/>
       <c r="H65" s="96"/>
@@ -4909,9 +4909,9 @@
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="37"/>
-      <c r="B66" s="98"/>
-      <c r="C66" s="99"/>
-      <c r="D66" s="100"/>
+      <c r="B66" s="111"/>
+      <c r="C66" s="112"/>
+      <c r="D66" s="113"/>
       <c r="E66" s="38"/>
       <c r="G66" s="24"/>
       <c r="H66" s="96"/>
@@ -4931,9 +4931,9 @@
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="37"/>
-      <c r="B67" s="98"/>
-      <c r="C67" s="99"/>
-      <c r="D67" s="100"/>
+      <c r="B67" s="111"/>
+      <c r="C67" s="112"/>
+      <c r="D67" s="113"/>
       <c r="E67" s="38"/>
       <c r="G67" s="24"/>
       <c r="H67" s="96"/>
@@ -4953,9 +4953,9 @@
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="37"/>
-      <c r="B68" s="98"/>
-      <c r="C68" s="99"/>
-      <c r="D68" s="100"/>
+      <c r="B68" s="111"/>
+      <c r="C68" s="112"/>
+      <c r="D68" s="113"/>
       <c r="E68" s="38"/>
       <c r="G68" s="24"/>
       <c r="H68" s="96"/>
@@ -4975,9 +4975,9 @@
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="37"/>
-      <c r="B69" s="98"/>
-      <c r="C69" s="99"/>
-      <c r="D69" s="100"/>
+      <c r="B69" s="111"/>
+      <c r="C69" s="112"/>
+      <c r="D69" s="113"/>
       <c r="E69" s="38"/>
       <c r="G69" s="24"/>
       <c r="H69" s="96"/>
@@ -4997,9 +4997,9 @@
     </row>
     <row r="70" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="39"/>
-      <c r="B70" s="101"/>
-      <c r="C70" s="102"/>
-      <c r="D70" s="103"/>
+      <c r="B70" s="114"/>
+      <c r="C70" s="115"/>
+      <c r="D70" s="116"/>
       <c r="E70" s="40"/>
       <c r="G70" s="30"/>
       <c r="H70" s="97"/>
@@ -5026,16 +5026,6 @@
     <protectedRange sqref="A60" name="Questionnaire_1"/>
   </protectedRanges>
   <mergeCells count="21">
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="W32:Y32"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="B68:D68"/>
     <mergeCell ref="B69:D69"/>
@@ -5047,6 +5037,16 @@
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B65:D65"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="W32:Y32"/>
   </mergeCells>
   <conditionalFormatting sqref="A30:E30 A58:E58 S28:U30 B7:E29 S10:U26 K58:M58 O58:Q58 S58:U58 G7:I29 G58:I58 G30 W58:Y58 W10:Y26 W28:Y30 O60:Q69 K60:M69 G60:I69">
     <cfRule type="expression" dxfId="39" priority="169">
